--- a/static/final_data.xlsx
+++ b/static/final_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_7415E0F1BDAB8D84CD237B984D6B148178742DAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9052A7-7F15-4B31-9CE6-6F9410BBE3E3}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_7415E0F1BDAB8D84CD237B984D6B148178742DAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32A1FF7-E291-482D-9C6A-ED6C74D49CCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5629,41 +5629,9 @@
 Do you participate in any sports or hobbies that put stress on your wrist?</t>
   </si>
   <si>
-    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
-Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
-Elevate the head of your bed.
-If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. 
-https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg.webp
-Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
-Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
-Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
-Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
-https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
-Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
-  </si>
-  <si>
     <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
 Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
 Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
-  </si>
-  <si>
-    <t>Brush your teeth after you eat. Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
-Floss at least once a day. Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
-Brush your tongue. Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
-Clean dentures or dental appliances. If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
-Avoid dry mouth. To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
-Adjust your diet. Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
-Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
-Schedule regular dental checkups. See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
-  </si>
-  <si>
-    <t>Use a cool compress. Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
-Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
-Don't smoke. Smoking can aggravate the problem of bags under your eyes.
-Get enough sleep. For most adults, 7 to 9 hours is a good amount of sleep.
-Sleep with your head slightly raised. It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.
-Reduce allergy symptoms. Avoid allergens when possible. Try nonprescription allergy medications. Talk to your health care provider about prevention strategies if you develop under-eye reactions due to hair dyes, soaps, cosmetics or other allergens.
-Use cosmetics. If you wish to mask your under-eye circles, try using makeup.</t>
   </si>
   <si>
     <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
@@ -5672,47 +5640,6 @@
 Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
 Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
 Exposure to infested items should be avoided for two weeks.</t>
-  </si>
-  <si>
-    <t>Bathe daily. Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
-Choose clothing to suit your activity. For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
-Try relaxation techniques. Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
-Change your diet. Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
-  </si>
-  <si>
-    <t>Soak your hands or feet. Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin.
-Thin thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
-Use corn pads. 
-Moisturize your skin. Use moisturizer on your hands and feet regularly.
-Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.</t>
-  </si>
-  <si>
-    <t>Sugar-free gum. Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
-Vitamin D. Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
-Brush with fluoride toothpaste. Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
-Cut out sugary foods. This is the cavity remedy that no one likes to hear — stop eating so much sugar. 
-Oil pulling. Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.</t>
-  </si>
-  <si>
-    <t>Stick to your treatment plan. Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
-Learn about depression. Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
-Pay attention to warning signs. Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
-Avoid alcohol and recreational drugs. It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
-Take care of yourself. Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
-  </si>
-  <si>
-    <t>Drink Sufficient Water. Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Drink water at frequent intervals to keep your body well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps. When you have dengue fever, the toxins in your body complicate the impact of the viral pathogens. Water also helps in flushing out these excess toxins from your body to help you recover. With the availability of a number of RO water purifier systems in India, you can easily install a purifier at home, ensuring that you avoid any other source of water. RO water is free of contaminants and reduces the chances of contacting any other diseases.
-Juice of Papaya Leaves. Another very effective remedy is drinking papaya leaf juice. Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. Papaya leaf juice for dengue also have a high level of vitamin C which stimulate the immune system whereas the antioxidants help in reducing the stress and remove toxins from the body. All you need to do is crush the leaves and strain the juice from the crushed leaves.
-Chew Basil Leaves. Basil leaves are miraculous herbs that not only help during dengue fever, but also improve your overall immunity. Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
-Neem Leaves. Neem leaves have medicinal properties, which is the reason why they are recommended for a variety of ailments. Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
-Orange Juice. Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. The miraculous drink promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body. Orange juice also repairs your body cells as it has Vitamin C which is crucial in creating collagen.</t>
-  </si>
-  <si>
-    <t>Drink plenty of liquids, including water, broths and juices. Avoid caffeine and alcohol.
-Add semisolid and low-fiber foods gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
-Avoid certain foods such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
-Ask about anti-diarrheal medications. Over-the-counter anti-diarrheal medications, such as loperamide and bismuth subsalicylate, might help reduce the number of watery bowel movements and control severe symptoms.Check with your doctor before taking these medications or giving them to a child.
-Consider taking probiotics. These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
   </si>
   <si>
     <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
@@ -5779,12 +5706,6 @@
 Apply petroleum jelly. Put petroleum jelly (Vaseline) on the tender area and bandage the toe.
 Choose sensible footwear. Consider wearing open-toed shoes or sandals until your toe feels better.
 Take pain relievers. A nonprescription pain reliever such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) may help ease the toe pain.</t>
-  </si>
-  <si>
-    <t>Exercise regularly. Physical activity, including sex, helps ease menstrual cramps for some women.
-Use heat. Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
-Try dietary supplements. A number of studies have indicated that vitamin E, omega-3 fatty acids, vitamin B-1 (thiamin), vitamin B-6 and magnesium supplements might reduce menstrual cramps.
-Reduce stress. Psychological stress might increase your risk of menstrual cramps and their severity.</t>
   </si>
   <si>
     <t>Try relaxation techniques. Biofeedback and other forms of relaxation training teach you ways to deal with stressful situations, which might help reduce the number of migraines you have.
@@ -5841,13 +5762,6 @@
 Get sufficient sleep. Get enough sleep so that you don't feel drowsy during the day.</t>
   </si>
   <si>
-    <t>Apply a compress to your eyes. To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
-If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
-Try eyedrops. Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
-Stop wearing contact lenses. If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis. 
-Ask your doctor whether you should throw away your disposable contacts, as well as your cleaning solution and lens case. If your lenses aren't disposable, clean them thoroughly before reusing them.</t>
-  </si>
-  <si>
     <t>Stay at a healthy weight. Weight loss can lower insulin and androgen levels. It also may restore ovulation. 
 Ask your health care provider about a weight-control program, if you need one. Meet with a registered dietitian for help in reaching weight-loss goals.
 Limit carbohydrates. High-carbohydrate diets might make insulin levels go higher. Ask your provider if a low-carbohydrate diet could help if you have PCOS. 
@@ -5884,19 +5798,6 @@
 Avoid alcohol.
 Limit or avoid caffeine.
 Participate in social situations by reaching out to people with whom you feel comfortable.</t>
-  </si>
-  <si>
-    <t>Take a pain reliever. For pain relief, take a nonprescription pain reliever as soon as possible after getting too much sun. Examples include ibuprofen (Advil, Motrin IB, others) and acetaminophen (Tylenol, others). Or try a gel pain reliever that you rub on the skin.
-Cool the skin. Apply to the affected skin a clean towel dampened with cool tap water. Or take a cool bath with added baking soda â€” about 2 ounces (60 grams) a tub. Cool the skin for about 10 minutes several times a day.
-Apply a moisturizer, lotion or gel. An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
-Drink extra water for a day. This helps prevent dehydration.
-Leave blisters alone. An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
-Treat peeling skin gently. Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
-Take an anti-itch drug. An oral antihistamine such as diphenhydramine (Benadryl, Chlor-Trimeton, others) might help relieve itching as the skin begins to peel and heal underneath.
-Apply a soothing medicated cream. For mild to moderate sunburn, apply nonprescription 1% hydrocortisone cream to the affected area three times a day for three days. Try cooling the product in the refrigerator before applying.
-Treat sunburned eyes. Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
-Protect yourself from further sun exposure. While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.
-Avoid applying '-caine' products, such as benzocaine. Such creams can irritate the skin or cause an allergic reaction. Benzocaine has been linked to a rare but potentially deadly condition that decreases the amount of oxygen that the blood can carry (methemoglobinemia).</t>
   </si>
   <si>
     <t>rest the affected hand and wrist for at least 2 weeks
@@ -6287,12 +6188,138 @@
 ओवर-द-काउंटर (OTC) दर्द निवारक, जैसे इबुप्रोफेन या नेप्रोक्सन लें</t>
   </si>
   <si>
-    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. 
-Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
-Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. 
-Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
-Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
-Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
+    <t>**Maintain a healthy weight.** Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
+**Stop smoking.** Smoking decreases the lower esophageal sphincter's ability to function properly.
+**Elevate the head of your bed.** If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches.
+https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg.webp
+**Start on your left side.** When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+**Don't lie down after a meal.** Wait at least three hours after eating before lying down or going to bed.
+**Eat food slowly and chew thoroughly.** Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+**Avoid foods and drinks that trigger reflux.** Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
+**Avoid tight-fitting clothing.** Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>**Rest.** This will help your body fight infection and speed recovery.
+**Drink fluids.** Continue to drink plenty of fluids.
+**Use a warm compress.** A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
+**Moisten your sinus cavities.** Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
+Rinse your nasal passages: Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.
+https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
+  </si>
+  <si>
+    <t>**Wash problem areas with a gentle cleanser.** Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. (https://www.1mg.com/categories/personal-care/skin-care/acne-care-206)
+**Use Tea tree oil.** For acne prone skin mix 2 drops of tea tree oil with 1 tsp coconut oil and apply using a cotton ball to the affected area and wash after 30 mins. (https://www.amazon.in/Old-Tree-Essential-Skin-Hair/dp/B01LF0AXOG?th=1)
+**Avoid irritants.** Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+**Avoid touching or picking acne-prone areas.** Doing so can trigger more acne or lead to infection or scarring.
+**Shower after strenuous activities.** Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>**Honey And Lemon.** Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
+**Fenugreek.** Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
+**Onions.** Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
+**Garlic.** Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
+**Hibiscus And Dandelion Oil.** A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
+**Oatmeal.** Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
+**Aloe Vera Extract.** Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
+https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
+  </si>
+  <si>
+    <t>**Brush your teeth after you eat.** Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
+**Floss at least once a day.** Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
+**Brush your tongue.** Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
+**Clean dentures or dental appliances.** If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
+**Avoid dry mouth.** To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
+**Adjust your diet.** Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
+Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
+**Schedule regular dental checkups.** See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
+  </si>
+  <si>
+    <t>**Use a cool compress.** Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
+Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
+**Don't smoke.** Smoking can aggravate the problem of bags under your eyes.
+**Get enough sleep.** For most adults, 7 to 9 hours is a good amount of sleep.
+**Sleep with your head slightly raised.** It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.</t>
+  </si>
+  <si>
+    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
+**Aloe vera** is a plant-based gel that naturally soothes and moisturizes the skin. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
+**Honey** contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. Do this indoors, so the smell of the honey does not attract more bees :)</t>
+  </si>
+  <si>
+    <t>**Bathe daily.** Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
+**Choose clothing to suit your activity.** For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
+**Try relaxation techniques.** Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
+**Change your diet.** Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
+  </si>
+  <si>
+    <t>**Soak your hands or feet.** Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
+**Use corn pads.**
+**Moisturize your skin.** Use moisturizer on your hands and feet regularly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Oil pulling.** Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.
+**Sugar-free gum.** Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
+**Vitamin D.** Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
+**Brush with fluoride toothpaste.** Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
+**Cut out sugary foods.** This is the cavity remedy that no one likes to hear — stop eating so much sugar. </t>
+  </si>
+  <si>
+    <t>**Stick to your treatment plan.** Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
+**Learn about depression.** Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
+**Pay attention to warning signs.** Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
+**Avoid alcohol and recreational drugs.** It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
+**Take care of yourself.** Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Soothe a sore throat.** A saltwater gargle of 1/4 to 1/2 teaspoon of table salt in 120 to 240 milliliters of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
+https://www.deccanherald.com/sites/dh/files/article_images/2020/05/06/iStock-1204965485-1588785970.jpg
+**Try saline nasal drops or sprays.** Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. In infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. For older children, use a saline nasal spray or saline nasal irrigation.
+**Drink plenty of fluids.** Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
+**Sip warm liquids.** Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
+**Rest.** If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
+</t>
+  </si>
+  <si>
+    <t>**Try colonic massage.** Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
+**Try natural remedies.** Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studies noting increased stool frequency after taking these supplements.
+**Eat foods for constipation relief.** Eating foods that are high in fiber can help you find relief from constipation. Foods that are high in fiber can include: oats, whole grain bread or cereal, whole wheat pasta, fibrous fruits, such as apples and bananas, fibrous vegetables, such as broccoli, carrots, and leafy greens, brown rice, nuts, such as walnuts, pecans, and almonds.
+**Drink a glass of water.** Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 liters of clear liquid per day.
+**Get some exercise.** Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.</t>
+  </si>
+  <si>
+    <t>**Apple Cider Vinegar.** Add some apple cider vinegar to water (Equal parts) and keep it aside. After washing your hair, apply the mix to your wet hair. Gently massage your hair with the mix. Leave to dry for 15 minutes and then rinse it off.
+**Mehndi.** Firstly, mix mehndi with curd and a little bit of lemon juice. Once this is formed as a paste, keep the mixture aside for 8 hours. After 8 hours you can apply it on your hair. Let it dry over your hair for two hours and then you can wash it away.
+**Eat a healthy diet.** A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
+**Learn to manage stress.** Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
+**Limit hair-styling products.** Hair-styling products can build up on your hair and scalp, making them oilier.</t>
+  </si>
+  <si>
+    <t>**Drink Sufficient Water.** Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps.
+**Juice of Papaya Leaves.** Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. All you need to do is crush the leaves and strain the juice from the crushed leaves.
+**Chew Basil Leaves.** Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
+**Neem Leaves.** Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
+**Orange Juice.** Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. It promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body.</t>
+  </si>
+  <si>
+    <t>**Drink plenty of liquids**, including water, broths and juices. Avoid caffeine and alcohol.
+Add **semisolid and low-fiber foods** gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
+**Avoid certain foods** such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
+**Consider taking probiotics.** These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
+  </si>
+  <si>
+    <t>**Apply a moisturizer, lotion or gel.** An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
+**Drink extra water for a day.** This helps prevent dehydration.
+**Leave blisters alone.** An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
+**Treat peeling skin gently.** Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
+**Treat sunburned eyes.** Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
+**Protect yourself from further sun exposure.** While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.</t>
+  </si>
+  <si>
+    <t>**Apply a compress to your eyes.** To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
+If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
+**Try eyedrops.** Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
+**Stop wearing contact lenses.** If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis.</t>
   </si>
   <si>
     <r>
@@ -6304,7 +6331,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rest</t>
+      <t>**Apply a lotion, cream or paste</t>
     </r>
     <r>
       <rPr>
@@ -6314,7 +6341,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: This will help your body fight infection and speed recovery.
+      <t xml:space="preserve">.** Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch.  Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
 </t>
     </r>
     <r>
@@ -6326,7 +6353,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Drink fluids</t>
+      <t>**Apply a cool compress</t>
     </r>
     <r>
       <rPr>
@@ -6336,705 +6363,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Continue to drink plenty of fluids.
-</t>
+      <t>.** Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use a warm compress</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moisten your sinus cavities:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rinse your nasal passages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.
-https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Honey And Lemon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fenugreek</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Onions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Garlic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
-Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Oatmeal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aloe Vera Extract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
-https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
-    </r>
-  </si>
-  <si>
-    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
-Aloe vera is a plant-based gel that naturally soothes and moisturizes the skin. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
-Honey has many medicinal properties. It contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. Do this indoors, so the smell of the honey does not attract more bees :)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Drink plenty of fluids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sip warm liquids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Soothe a sore throat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. A saltwater gargle of 1/4 to 1/2 teaspoon of table salt in 120 to 240 milliliters of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
-https://www.deccanherald.com/sites/dh/files/article_images/2020/05/06/iStock-1204965485-1588785970.jpg
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Try saline nasal drops or sprays</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. In infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. For older children, use a saline nasal spray or saline nasal irrigation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Take a fiber supplement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Fiber supplements are readily available and effective at inducing bowel movements if a low fiber diet is the cause of your constipation. You can buy fiber supplements in stores or online.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eat foods for constipation relief</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Eating foods that are high in fiber can help you find relief from constipation, according to the National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK). Foods that are high in fiber can include: oats, whole grain bread or cereal, whole wheat pasta, fibrous fruits, such as apples and bananas, fibrous vegetables, such as broccoli, carrots, and leafy greens, brown rice, nuts, such as walnuts, pecans, and almonds
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Drink a glass of water</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 liters of clear liquid per day. The exact amount your body needs can depend on your size, sex, and whether or not you’re pregnant or breastfeeding.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get some exercise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Try colonic massage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Try natural remedies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studies noting increased stool frequency after taking these supplements.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Learn to manage stress.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get a little sun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Sunlight may be good for controlling dandruff. But because exposure to ultraviolet light damages your skin and increases your risk of skin cancer, don't sunbathe. Instead, just spend a little time outdoors. And be sure to wear sunscreen on your face and body.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eat a healthy diet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Develop a hair and scalp care routine that suits you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If you tend to have an oily scalp, daily shampooing may help prevent dandruff. Gently massage your scalp to loosen flakes. Rinse thoroughly. If your hair tends to be dry and your scalp is sensitive, shampoo less frequently and condition your scalp between washings (Design Essentials, Melanin Haircare, ScalpBliss).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Limit hair-styling products</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Hair-styling products can build up on your hair and scalp, making them oilier.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tea tree oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Tea tree oil is a popular home remedy for many skin conditions because of its antimicrobial properties.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Anise oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Anise oil may coat and suffocate liceTrusted Source. A 2018 study of natural remedies for lice in children found that anise oil was one of the most effective natural remedies.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coconut oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Research has shown that applying pure coconut oil killed an average of 80% of the head lice within 4 hours of applying the oil.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply a lotion, cream or paste</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch.  Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply a cool compress</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Take an oral antihistamine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. For stronger reactions, try taking a nonprescription antihistamine (Benadryl, Chlor-Trimeton, others).</t>
-    </r>
+  </si>
+  <si>
+    <t>**Exercise regularly.** Physical activity, including sex, helps ease menstrual cramps for some women.
+**Yoga.** Certain yoga poses can help relieve the pain.
+https://medhyaherbals.com/wp-content/uploads/2022/04/Yoga-for-Period-Pain-Relief-min-683x1024.png
+**Use heat.** Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
+**Reduce stress.** Psychological stress might increase your risk of menstrual cramps and their severity.</t>
+  </si>
+  <si>
+    <t>**Tea tree oil.** Tea tree oil is a popular home remedy for many skin conditions because of its antimicrobial properties.
+**Anise oil.** Anise oil may coat and suffocate liceTrusted Source. A 2018 study of natural remedies for lice in children found that anise oil was one of the most effective natural remedies.
+**Coconut oil.** Research has shown that applying pure coconut oil killed an average of 80% of the head lice within 4 hours of applying the oil.</t>
   </si>
 </sst>
 </file>
@@ -7110,11 +6452,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7133,6 +6477,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7458,14 +6806,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
@@ -7473,7 +6819,7 @@
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="77.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7505,7 +6851,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -7516,7 +6862,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
@@ -7540,18 +6886,18 @@
       <c r="I2" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>328</v>
+      <c r="J2" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
@@ -7572,18 +6918,18 @@
       <c r="I3" t="s">
         <v>286</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>363</v>
+      <c r="J3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -7601,18 +6947,18 @@
       <c r="I4" t="s">
         <v>287</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>406</v>
+      <c r="J4" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="K4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -7630,18 +6976,18 @@
       <c r="I5" t="s">
         <v>288</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>329</v>
+      <c r="J5" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="K5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="360" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
@@ -7666,17 +7012,17 @@
         <v>289</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="K6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -7694,18 +7040,18 @@
       <c r="I7" t="s">
         <v>290</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>330</v>
+      <c r="J7" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7723,18 +7069,18 @@
       <c r="I8" t="s">
         <v>291</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>331</v>
+      <c r="J8" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="K8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -7752,18 +7098,18 @@
       <c r="I9" t="s">
         <v>292</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>408</v>
+      <c r="J9" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="K9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -7781,18 +7127,18 @@
       <c r="I10" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>332</v>
+      <c r="J10" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="K10" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
@@ -7813,18 +7159,18 @@
       <c r="I11" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>333</v>
+      <c r="J11" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
@@ -7845,18 +7191,18 @@
       <c r="I12" t="s">
         <v>295</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>334</v>
+      <c r="J12" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="K12" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" t="s">
@@ -7877,18 +7223,18 @@
       <c r="I13" t="s">
         <v>296</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>335</v>
+      <c r="J13" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
@@ -7912,18 +7258,18 @@
       <c r="I14" t="s">
         <v>297</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>336</v>
+      <c r="J14" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="K14" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -7941,18 +7287,18 @@
       <c r="I15" t="s">
         <v>298</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>409</v>
+      <c r="J15" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="K15" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="288" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -7970,18 +7316,18 @@
       <c r="I16" t="s">
         <v>299</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>410</v>
+      <c r="J16" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="K16" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -8000,17 +7346,17 @@
         <v>300</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K17" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -8028,18 +7374,18 @@
       <c r="I18" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>337</v>
+      <c r="J18" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="K18" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -8057,18 +7403,18 @@
       <c r="I19" t="s">
         <v>302</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>338</v>
+      <c r="J19" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="K19" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -8086,18 +7432,18 @@
       <c r="I20" t="s">
         <v>303</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>339</v>
+      <c r="J20" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="K20" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -8115,18 +7461,18 @@
       <c r="I21" t="s">
         <v>304</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>340</v>
+      <c r="J21" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="K21" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -8144,18 +7490,18 @@
       <c r="I22" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>341</v>
+      <c r="J22" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="K22" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -8173,18 +7519,18 @@
       <c r="I23" t="s">
         <v>306</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>412</v>
+      <c r="J23" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="K23" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -8202,18 +7548,18 @@
       <c r="I24" t="s">
         <v>307</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>342</v>
+      <c r="J24" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="K24" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -8231,18 +7577,18 @@
       <c r="I25" t="s">
         <v>308</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>343</v>
+      <c r="J25" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -8260,18 +7606,18 @@
       <c r="I26" t="s">
         <v>309</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>344</v>
+      <c r="J26" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="K26" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -8289,18 +7635,18 @@
       <c r="I27" t="s">
         <v>310</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>345</v>
+      <c r="J27" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K27" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8318,18 +7664,18 @@
       <c r="I28" t="s">
         <v>311</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>346</v>
+      <c r="J28" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="K28" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -8347,18 +7693,18 @@
       <c r="I29" t="s">
         <v>312</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>347</v>
+      <c r="J29" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="K29" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8376,18 +7722,18 @@
       <c r="I30" t="s">
         <v>313</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>413</v>
+      <c r="J30" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="K30" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -8405,18 +7751,18 @@
       <c r="I31" t="s">
         <v>314</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>348</v>
+      <c r="J31" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="K31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
@@ -8437,18 +7783,18 @@
       <c r="I32" t="s">
         <v>315</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>349</v>
+      <c r="J32" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="K32" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8466,18 +7812,18 @@
       <c r="I33" t="s">
         <v>316</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>350</v>
+      <c r="J33" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -8495,18 +7841,18 @@
       <c r="I34" t="s">
         <v>317</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>351</v>
+      <c r="J34" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>87</v>
       </c>
       <c r="D35" t="s">
@@ -8527,18 +7873,18 @@
       <c r="I35" t="s">
         <v>318</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>352</v>
+      <c r="J35" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -8556,18 +7902,18 @@
       <c r="I36" t="s">
         <v>319</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>353</v>
+      <c r="J36" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>89</v>
       </c>
       <c r="C37" t="s">
@@ -8588,18 +7934,18 @@
       <c r="I37" t="s">
         <v>320</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>354</v>
+      <c r="J37" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="K37" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>90</v>
       </c>
       <c r="D38" t="s">
@@ -8620,18 +7966,18 @@
       <c r="I38" t="s">
         <v>321</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>355</v>
+      <c r="J38" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="D39" t="s">
@@ -8652,18 +7998,18 @@
       <c r="I39" t="s">
         <v>322</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>356</v>
+      <c r="J39" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
       <c r="C40" t="s">
@@ -8681,18 +8027,18 @@
       <c r="I40" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>357</v>
+      <c r="J40" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -8710,18 +8056,18 @@
       <c r="I41" t="s">
         <v>324</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>358</v>
+      <c r="J41" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>94</v>
       </c>
       <c r="C42" t="s">
@@ -8742,18 +8088,18 @@
       <c r="I42" t="s">
         <v>325</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>359</v>
+      <c r="J42" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="K42" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -8771,18 +8117,18 @@
       <c r="I43" t="s">
         <v>326</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>360</v>
+      <c r="J43" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="K43" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -8800,11 +8146,11 @@
       <c r="I44" t="s">
         <v>327</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>361</v>
+      <c r="J44" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/static/final_data.xlsx
+++ b/static/final_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_7415E0F1BDAB8D84CD237B984D6B148178742DAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32A1FF7-E291-482D-9C6A-ED6C74D49CCE}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_7BD168E102768C0F62355476585DCE3A874AAF2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B161CED-505A-4EB9-B8A6-901922E7224D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -58,645 +58,21 @@
     <t>acid reflux</t>
   </si>
   <si>
-    <t>acne</t>
-  </si>
-  <si>
-    <t>acute sinusitis</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>alopecia</t>
-  </si>
-  <si>
-    <t>bad breath</t>
-  </si>
-  <si>
-    <t>bags under eyes</t>
-  </si>
-  <si>
-    <t>bee sting</t>
-  </si>
-  <si>
-    <t>body lice</t>
-  </si>
-  <si>
-    <t>body odor and sweating</t>
-  </si>
-  <si>
-    <t>calluses and corns</t>
-  </si>
-  <si>
-    <t>cavities</t>
-  </si>
-  <si>
-    <t>clinical depression</t>
-  </si>
-  <si>
-    <t>common cold</t>
-  </si>
-  <si>
-    <t>constipation</t>
-  </si>
-  <si>
-    <t>dandruff</t>
-  </si>
-  <si>
-    <t>dengue fever</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>dizziness</t>
-  </si>
-  <si>
-    <t>farsightedness</t>
-  </si>
-  <si>
-    <t>generalized anxiety disorder</t>
-  </si>
-  <si>
-    <t>head lice</t>
-  </si>
-  <si>
-    <t>hiccups</t>
-  </si>
-  <si>
-    <t>indigestion</t>
-  </si>
-  <si>
-    <t>ingrown hair</t>
-  </si>
-  <si>
-    <t>ingrown toenails</t>
-  </si>
-  <si>
-    <t>menstrual cramps</t>
-  </si>
-  <si>
-    <t>migraine</t>
-  </si>
-  <si>
-    <t>mosquito bites</t>
-  </si>
-  <si>
-    <t>muscle cramp</t>
-  </si>
-  <si>
-    <t>myopia</t>
-  </si>
-  <si>
-    <t>neck pain</t>
-  </si>
-  <si>
-    <t>obesity</t>
-  </si>
-  <si>
-    <t>obsessive-compulsive disorder</t>
-  </si>
-  <si>
-    <t>panic attacks and panic disorder</t>
-  </si>
-  <si>
-    <t>pink eye</t>
-  </si>
-  <si>
-    <t>polycystic ovary syndrome</t>
-  </si>
-  <si>
-    <t>premenstrual syndrome</t>
-  </si>
-  <si>
-    <t>prickly heat</t>
-  </si>
-  <si>
-    <t>snoring</t>
-  </si>
-  <si>
-    <t>social anxiety disorder</t>
-  </si>
-  <si>
-    <t>sunburn</t>
-  </si>
-  <si>
-    <t>wrist pain</t>
-  </si>
-  <si>
     <t>अम्ल प्रतिवाह (acid reflux)</t>
   </si>
   <si>
-    <t>मुंहासा (acne)</t>
-  </si>
-  <si>
-    <t>तीव्र साइनस (acute sinusitis)</t>
-  </si>
-  <si>
-    <t>एलर्जी (allergies)</t>
-  </si>
-  <si>
-    <t>खालित्य (alopecia)</t>
-  </si>
-  <si>
-    <t>बदबूदार सांस (bad breath)</t>
-  </si>
-  <si>
-    <t>आंखों के नीचे बैग (bags under eyes)</t>
-  </si>
-  <si>
-    <t>मधुमक्खी के डंक (bee sting)</t>
-  </si>
-  <si>
-    <t>शरीर की जूँ (body lice)</t>
-  </si>
-  <si>
-    <t>शरीर की दुर्गंध और पसीना (body odor and sweating)</t>
-  </si>
-  <si>
-    <t>कॉलस और कॉर्न्स (calluses and corns)</t>
-  </si>
-  <si>
-    <t>गुहाओं (cavities)</t>
-  </si>
-  <si>
-    <t>नैदानिक ​​अवसाद (clinical depression)</t>
-  </si>
-  <si>
-    <t>सामान्य जुकाम (common cold)</t>
-  </si>
-  <si>
-    <t>कब्ज (constipation)</t>
-  </si>
-  <si>
-    <t>रूसी (dandruff)</t>
-  </si>
-  <si>
-    <t>डेंगू बुखार (dengue fever)</t>
-  </si>
-  <si>
-    <t>दस्त (diarrhea)</t>
-  </si>
-  <si>
-    <t>चक्कर आना (dizziness)</t>
-  </si>
-  <si>
-    <t>दूरदर्शिता (farsightedness)</t>
-  </si>
-  <si>
-    <t>सामान्यीकृत चिंता विकार (generalized anxiety disorder)</t>
-  </si>
-  <si>
-    <t>सिर की जूं (head lice)</t>
-  </si>
-  <si>
-    <t>हिचकी (hiccups)</t>
-  </si>
-  <si>
-    <t>खट्टी डकार (indigestion)</t>
-  </si>
-  <si>
-    <t>अंतर्वर्धी बाल (ingrown hair)</t>
-  </si>
-  <si>
-    <t>अंतर्वर्धित toenails (ingrown toenails)</t>
-  </si>
-  <si>
-    <t>मासिक धर्म ऐंठन (menstrual cramps)</t>
-  </si>
-  <si>
-    <t>माइग्रेन (migraine)</t>
-  </si>
-  <si>
-    <t>मच्छर का काटा (mosquito bites)</t>
-  </si>
-  <si>
-    <t>मांसपेशी ऐंठन (muscle cramp)</t>
-  </si>
-  <si>
-    <t>निकट दृष्टि दोष (myopia)</t>
-  </si>
-  <si>
-    <t>गर्दन में दर्द (neck pain)</t>
-  </si>
-  <si>
-    <t>मोटापा (obesity)</t>
-  </si>
-  <si>
-    <t>जुनूनी बाध्यकारी विकार (obsessive-compulsive disorder)</t>
-  </si>
-  <si>
-    <t>पैनिक अटैक और पैनिक डिसऑर्डर (panic attacks and panic disorder)</t>
-  </si>
-  <si>
-    <t>गुलाबी आँख (pink eye)</t>
-  </si>
-  <si>
-    <t>पॉलीसिस्टिक अंडाशय सिंड्रोम (polycystic ovary syndrome)</t>
-  </si>
-  <si>
-    <t>प्रागार्तव (premenstrual syndrome)</t>
-  </si>
-  <si>
-    <t>चुभती - जलती गर्मी (prickly heat)</t>
-  </si>
-  <si>
-    <t>खर्राटों (snoring)</t>
-  </si>
-  <si>
-    <t>सामाजिक चिंता विकार (social anxiety disorder)</t>
-  </si>
-  <si>
-    <t>धूप की कालिमा (sunburn)</t>
-  </si>
-  <si>
-    <t>कलाई का दर्द (wrist pain)</t>
-  </si>
-  <si>
     <t>gastroesophageal reflux disease</t>
   </si>
   <si>
-    <t>pimples</t>
-  </si>
-  <si>
-    <t>hair loss</t>
-  </si>
-  <si>
-    <t>sweating and body odor</t>
-  </si>
-  <si>
-    <t>corns and calluses</t>
-  </si>
-  <si>
-    <t>tooth decay</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>nearsightedness</t>
-  </si>
-  <si>
-    <t>conjunctivitis</t>
-  </si>
-  <si>
-    <t>heat rash</t>
-  </si>
-  <si>
-    <t>social phobia</t>
-  </si>
-  <si>
     <t>gerd</t>
   </si>
   <si>
-    <t>baldness</t>
-  </si>
-  <si>
-    <t>major depressive disorder</t>
-  </si>
-  <si>
-    <t>ocd</t>
-  </si>
-  <si>
-    <t>pcos</t>
-  </si>
-  <si>
-    <t>pms</t>
-  </si>
-  <si>
     <t>https://www.mayoclinic.org/diseases-conditions/gerd/symptoms-causes/syc-20361940</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/acne/symptoms-causes/syc-20368047</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/acute-sinusitis/symptoms-causes/syc-20351671</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/allergies/symptoms-causes/syc-20351497</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/hair-loss/symptoms-causes/syc-20372926</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bad-breath/symptoms-causes/syc-20350922</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bags-under-eyes/symptoms-causes/syc-20369927</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bee-stings/symptoms-causes/syc-20353869</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/body-lice/symptoms-causes/syc-20350310</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/sweating-and-body-odor/symptoms-causes/syc-20353895</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/corns-and-calluses/symptoms-causes/syc-20355946</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/cavities/symptoms-causes/syc-20352892</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/depression/symptoms-causes/syc-20356007</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/common-cold/symptoms-causes/syc-20351605</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/constipation/symptoms-causes/syc-20354253</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dandruff/symptoms-causes/syc-20353850</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dengue-fever/symptoms-causes/syc-20353078</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/diarrhea/symptoms-causes/syc-20352241</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dizziness/symptoms-causes/syc-20371787</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/farsightedness/symptoms-causes/syc-20372495</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/generalized-anxiety-disorder/symptoms-causes/syc-20360803</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/head-lice/symptoms-causes/syc-20356180</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/hiccups/symptoms-causes/syc-20352613</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/indigestion/symptoms-causes/syc-20352211</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-hair/symptoms-causes/syc-20373893</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-toenails/symptoms-causes/syc-20355903</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/menstrual-cramps/symptoms-causes/syc-20374938</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/migraine-headache/symptoms-causes/syc-20360201</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/mosquito-bites/symptoms-causes/syc-20375310</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/muscle-cramp/symptoms-causes/syc-20350820</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/nearsightedness/symptoms-causes/syc-20375556</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/neck-pain/symptoms-causes/syc-20375581</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/obesity/symptoms-causes/syc-20375742</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/obsessive-compulsive-disorder/symptoms-causes/syc-20354432</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/panic-attacks/symptoms-causes/syc-20376021</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/pink-eye/symptoms-causes/syc-20376355</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/pcos/symptoms-causes/syc-20353439</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/premenstrual-syndrome/symptoms-causes/syc-20376780</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/heat-rash/symptoms-causes/syc-20373276</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/snoring/symptoms-causes/syc-20377694</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/social-anxiety-disorder/symptoms-causes/syc-20353561</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/sunburn/symptoms-causes/syc-20355922</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
   </si>
   <si>
     <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
 Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
 Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.</t>
-  </si>
-  <si>
-    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
-Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
-Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.</t>
-  </si>
-  <si>
-    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
-With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
-Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.</t>
-  </si>
-  <si>
-    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
-Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
-The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.</t>
-  </si>
-  <si>
-    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
-Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
-Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.</t>
-  </si>
-  <si>
-    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
-Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.</t>
-  </si>
-  <si>
-    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
-Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.</t>
-  </si>
-  <si>
-    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
-You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.</t>
-  </si>
-  <si>
-    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
-Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
-Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.</t>
-  </si>
-  <si>
-    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
-Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
-Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.</t>
-  </si>
-  <si>
-    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
-If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.</t>
-  </si>
-  <si>
-    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
-Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
-If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.</t>
-  </si>
-  <si>
-    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
-More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.</t>
-  </si>
-  <si>
-    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
-Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
-Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.</t>
-  </si>
-  <si>
-    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
-Constipation is generally described as having fewer than three bowel movements a week.
-Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
-Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.</t>
-  </si>
-  <si>
-    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
-Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
-Dandruff is a mild form of seborrheic dermatitis.</t>
-  </si>
-  <si>
-    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
-Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
-Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.</t>
-  </si>
-  <si>
-    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
-Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).</t>
-  </si>
-  <si>
-    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
-Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
-Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.</t>
-  </si>
-  <si>
-    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
-The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
-Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.</t>
-  </si>
-  <si>
-    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
-It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
-Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.</t>
-  </si>
-  <si>
-    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
-Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
-Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
-People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.</t>
-  </si>
-  <si>
-    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
-Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.</t>
-  </si>
-  <si>
-    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
-Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
-Indigestion may often be relieved with lifestyle changes and medications.</t>
-  </si>
-  <si>
-    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
-Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.</t>
-  </si>
-  <si>
-    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
-Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.</t>
-  </si>
-  <si>
-    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
-For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
-Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.</t>
-  </si>
-  <si>
-    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
-For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
-Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.</t>
-  </si>
-  <si>
-    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
-Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).</t>
-  </si>
-  <si>
-    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
-Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.</t>
-  </si>
-  <si>
-    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
-Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
-A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.</t>
-  </si>
-  <si>
-    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
-Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.</t>
-  </si>
-  <si>
-    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
-There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
-The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.</t>
-  </si>
-  <si>
-    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
-You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
-OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
-If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.</t>
-  </si>
-  <si>
-    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
-Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
-Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.</t>
-  </si>
-  <si>
-    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
-Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
-Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.</t>
-  </si>
-  <si>
-    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
-With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
-The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.</t>
-  </si>
-  <si>
-    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
-Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
-Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.</t>
-  </si>
-  <si>
-    <t>Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
-Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
-Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
-  </si>
-  <si>
-    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
-Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
-In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.</t>
-  </si>
-  <si>
-    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
-In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
-Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.</t>
-  </si>
-  <si>
-    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
-You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
-Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.</t>
-  </si>
-  <si>
-    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
-Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.</t>
   </si>
   <si>
     <t>Heartburn
@@ -711,368 +87,6 @@
 bitter taste
 discomfort in upper abdomen 
 dry cough</t>
-  </si>
-  <si>
-    <t>Whiteheads (closed plugged pores)
-Blackheads (open plugged pores)
-Small red, tender bumps (papules)
-Pimples (pustules), which are papules with pus at their tips
-Large, solid, painful lumps under the skin (nodules)
-Painful, pus-filled lumps under the skin (cystic lesions)</t>
-  </si>
-  <si>
-    <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
-Ear pressure
-Headache
-Aching in your teeth
-Altered sense of smell
-Cough
-Bad breath
-Fatigue
-Fever</t>
-  </si>
-  <si>
-    <t>a runny nose or sneezing
-pain or tenderness around your cheeks, eyes or forehead
-coughing
-wheezing or breathlessness
-itchy skin or a raised rash 
-diarrhoea
-feeling or being sick
-swollen eyes, lips, mouth or throat</t>
-  </si>
-  <si>
-    <t>hair loss
-Circular or patchy bald spots
-Sudden loosening of hair
-Full-body hair loss
-Patches of scaling that spread over the scalp
-Gradual thinning of the hair on your head
-Bald spot that grows slowly
-Receding hairline
-Widening part
-Thinner ponytail</t>
-  </si>
-  <si>
-    <t>foul-smelling
-Bad breath odors</t>
-  </si>
-  <si>
-    <t>mild swelling
-puffiness under the eyes
-Loose or sagging skin
-Dark circles</t>
-  </si>
-  <si>
-    <t>Instant, sharp burning pain at the sting site
-A red welt at the sting area
-Slight swelling around the sting area
-Difficulty breathing
-Swelling of the throat and tongue
-A weak, rapid pulse
-Nausea, vomiting or diarrhea
-Dizziness or fainting
-Loss of consciousness</t>
-  </si>
-  <si>
-    <t>intense itching
-small areas of blood and crust on your skin
-bite marks</t>
-  </si>
-  <si>
-    <t>sweat much more or less than usual
-sweating disrupts your daily routine
-experience night sweats for no apparent reason
-change in your body odor</t>
-  </si>
-  <si>
-    <t>Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
-Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
-Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
-Less sensitivity to touch than the surrounding skin (more likely to be callus).
-Raised area of bump may be painful or cause discomfort (more likely to be corn).
-Pain, redness, blisters</t>
-  </si>
-  <si>
-    <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
-Tooth sensitivity
-Mild to sharp pain when eating or drinking something sweet, hot or cold
-Visible holes or pits in your teeth
-Brown, black or white staining on any surface of a tooth
-Pain when you bite down</t>
-  </si>
-  <si>
-    <t>continuous low mood or sadness
-feeling hopeless and helpless
-having low self-esteem
-feeling tearful
-feeling guilt-ridden
-feeling irritable and intolerant of others
-having no motivation or interest in things
-finding it difficult to make decisions
-not getting any enjoyment out of life
-feeling anxious or worried
-having suicidal thoughts or thoughts of harming yourself
-moving or speaking more slowly than usual
-changes in appetite or weight (usually decreased, but sometimes increased)
-constipation
-unexplained aches and pains
-lack of energy
-low sex drive (loss of libido)
-changes to your menstrual cycle
-disturbed sleep</t>
-  </si>
-  <si>
-    <t>Runny or stuffy nose
-Sore throat
-Cough
-Congestion
-Slight body aches or a mild headache
-Sneezing
-Low-grade fever
-Generally feeling unwell</t>
-  </si>
-  <si>
-    <t>Passing fewer than three stools a week
-Having lumpy or hard stools
-Straining to have bowel movements
-Feeling as though there's a blockage in your rectum that prevents bowel movements
-Feeling as though you can't completely empty the stool from your rectum
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
-  </si>
-  <si>
-    <t>Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
-Itchy scalp
-Scaly, crusty scalp in infants with cradle cap</t>
-  </si>
-  <si>
-    <t>high fever
-Headache
-Muscle, bone or joint pain
-Nausea
-Vomiting
-Pain behind the eyes
-Swollen glands
-Rash</t>
-  </si>
-  <si>
-    <t>Abdominal cramps or pain
-Bloating
-Nausea
-Vomiting
-Fever
-Blood in the stool
-Mucus in the stool
-Urgent need to have a bowel movement</t>
-  </si>
-  <si>
-    <t>A false sense of motion or spinning (vertigo)
-Lightheadedness or feeling faint
-Unsteadiness or a loss of balance
-A feeling of floating, wooziness or heavy-headedness</t>
-  </si>
-  <si>
-    <t>Nearby objects may appear blurry
-You need to squint to see clearly
-eyestrain, 
-burning eyes
-aching in or around the eyes
-general eye discomfort 
-headache after doing close tasks</t>
-  </si>
-  <si>
-    <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
-Overthinking plans and solutions to all possible worst-case outcomes
-Perceiving situations and events as threatening, even when they aren't
-Difficulty handling uncertainty
-Indecisiveness and fear of making the wrong decision
-Inability to set aside or let go of a worry
-Inability to relax, feeling restless, and feeling keyed up or on edge
-Difficulty concentrating, or the feeling that your mind "goes blank"</t>
-  </si>
-  <si>
-    <t>Itching
-Lice on scalp
-Lice eggs (nits) on hair shafts.
-Sores on the scalp, neck and shoulders</t>
-  </si>
-  <si>
-    <t>hiccup
-slight tightening sensation in your chest, abdomen or throat</t>
-  </si>
-  <si>
-    <t>Early fullness during a meal. 
-Uncomfortable fullness after a meal
-Discomfort in the upper abdomen
-Burning in the upper abdomen 
-Bloating in the upper abdomen
-Nausea</t>
-  </si>
-  <si>
-    <t>Tiny, swollen bumps where you shave, tweeze or wax
-Small bumps that look like blisters or are filled with pus
-Small bumps that are darker than surrounding skin (hyperpigmentation)
-Burning or stinging
-Itching
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
-  </si>
-  <si>
-    <t>Pain and tenderness in nails
-Inflamed skin in nails
-Swelling of nails
-Infection in nails</t>
-  </si>
-  <si>
-    <t>Throbbing or cramping pain in your lower abdomen that can be intense
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
-Dull, continuous ache
-Pain that radiates to your lower back and thighs
-Nausea
-Loose stools
-Headache
-Dizziness</t>
-  </si>
-  <si>
-    <t>Pain usually on one side of your head, but often on both sides
-Pain that throbs or pulses
-Sensitivity to light, sound, and sometimes smell and touch
-Nausea and vomiting</t>
-  </si>
-  <si>
-    <t>An itchy, inflamed bump that forms a few minutes after a bite
-A painful spot that looks like a hive and forms within 24 hours after a bite
-Small blisters
-A large, swollen, inflamed area
-A hive-like rash
-Swelling around the eyes</t>
-  </si>
-  <si>
-    <t>Cause severe discomfort
-Are associated with leg swelling, redness or skin changes
-Are associated with muscle weakness
-Happen frequently
-Don't improve with self-care
-Aren't associated with an obvious cause, such as strenuous exercise</t>
-  </si>
-  <si>
-    <t>Blurry vision when looking at distant objects
-The need to squint or partially close the eyelids to see clearly
-Headaches
-Eyestrain</t>
-  </si>
-  <si>
-    <t>Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
-Muscle tightness and spasms
-Decreased ability to move the head
-Headache</t>
-  </si>
-  <si>
-    <t>Body mass index (BMI) of 23 or higher</t>
-  </si>
-  <si>
-    <t>Fear of contamination or dirt
-Doubting and having difficulty tolerating uncertainty
-Needing things orderly and symmetrical
-Aggressive or horrific thoughts about losing control and harming yourself or others
-Unwanted thoughts, including aggression, or sexual or religious subjects
-Fear of being contaminated by touching objects others have touched
-Doubts that you've locked the door or turned off the stove
-Intense stress when objects aren't orderly or facing a certain way
-Images of driving your car into a crowd of people
-Thoughts about shouting obscenities or acting inappropriately in public
-Unpleasant sexual images
-Avoidance of situations that can trigger obsessions, such as shaking hands</t>
-  </si>
-  <si>
-    <t>Sense of impending doom or danger
-Fear of loss of control or death
-Rapid, pounding heart rate
-Sweating
-Trembling or shaking
-Shortness of breath or tightness in your throat
-Chills
-Hot flashes
-Nausea
-Abdominal cramping
-Chest pain
-Headache
-Dizziness, lightheadedness or faintness
-Numbness or tingling sensation
-Feeling of unreality or detachment</t>
-  </si>
-  <si>
-    <t>Redness in one or both eyes
-Itchiness in one or both eyes
-A gritty feeling in one or both eyes
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
-Tearing</t>
-  </si>
-  <si>
-    <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
-  </si>
-  <si>
-    <t>Joint or muscle pain
-Headache
-Fatigue
-Weight gain related to fluid retention
-Abdominal bloating
-Breast tenderness
-Acne flare-ups
-Constipation or diarrhea
-Alcohol intolerance
-Tension or anxiety
-Depressed mood
-Crying spells
-Mood swings and irritability or anger
-Appetite changes and food cravings
-Trouble falling asleep (insomnia)
-Social withdrawal
-Poor concentration
-Change in libido</t>
-  </si>
-  <si>
-    <t>Witnessed breathing pauses during sleep
-Excessive daytime sleepiness
-Difficulty concentrating
-Morning headaches
-Sore throat upon awakening
-Restless sleep
-Gasping or choking at night
-High blood pressure
-Chest pain at night
-Your snoring is so loud it's disrupting your partner's sleep
-In children, poor attention span, behavioral issues or poor performance in school</t>
-  </si>
-  <si>
-    <t>Fear of situations in which you may be judged negatively
-Worry about embarrassing or humiliating yourself
-Intense fear of interacting or talking with strangers
-Fear that others will notice that you look anxious
-Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
-Avoidance of doing things or speaking to people out of fear of embarrassment
-Avoidance of situations where you might be the center of attention
-Anxiety in anticipation of a feared activity or event
-Intense fear or anxiety during social situations
-Analysis of your performance and identification of flaws in your interactions after a social situation
-Expectation of the worst possible consequences from a negative experience during a social situation</t>
-  </si>
-  <si>
-    <t>Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
-Skin that feels warm or hot to the touch
-Pain, tenderness and itching
-Swelling
-Small, fluid-filled blisters, which may break
-Headache, fever, nausea and fatigue, if the sunburn is severe
-Eyes that feel painful or gritty</t>
-  </si>
-  <si>
-    <t>pins-and-needles feeling in wrist
-tinglinging sensation in wrist
-pain in wrist</t>
   </si>
   <si>
     <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
@@ -1090,488 +104,6 @@
 bitter taste
 discomfort in upper abdomen 
 dry cough</t>
-  </si>
-  <si>
-    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
-Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
-Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
-Whiteheads (closed plugged pores)
-Blackheads (open plugged pores)
-Small red, tender bumps (papules)
-Pimples (pustules), which are papules with pus at their tips
-Large, solid, painful lumps under the skin (nodules)
-Painful, pus-filled lumps under the skin (cystic lesions)</t>
-  </si>
-  <si>
-    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
-With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
-Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
-Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
-Ear pressure
-Headache
-Aching in your teeth
-Altered sense of smell
-Cough
-Bad breath
-Fatigue
-Fever</t>
-  </si>
-  <si>
-    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
-Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
-The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
-a runny nose or sneezing
-pain or tenderness around your cheeks, eyes or forehead
-coughing
-wheezing or breathlessness
-itchy skin or a raised rash 
-diarrhoea
-feeling or being sick
-swollen eyes, lips, mouth or throat</t>
-  </si>
-  <si>
-    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
-Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
-Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
-hair loss
-Circular or patchy bald spots
-Sudden loosening of hair
-Full-body hair loss
-Patches of scaling that spread over the scalp
-Gradual thinning of the hair on your head
-Bald spot that grows slowly
-Receding hairline
-Widening part
-Thinner ponytail</t>
-  </si>
-  <si>
-    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
-Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
-foul-smelling
-Bad breath odors</t>
-  </si>
-  <si>
-    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
-Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
-mild swelling
-puffiness under the eyes
-Loose or sagging skin
-Dark circles</t>
-  </si>
-  <si>
-    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
-You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
-Instant, sharp burning pain at the sting site
-A red welt at the sting area
-Slight swelling around the sting area
-Difficulty breathing
-Swelling of the throat and tongue
-A weak, rapid pulse
-Nausea, vomiting or diarrhea
-Dizziness or fainting
-Loss of consciousness</t>
-  </si>
-  <si>
-    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
-Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
-Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
-intense itching
-small areas of blood and crust on your skin
-bite marks</t>
-  </si>
-  <si>
-    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
-Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
-Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
-sweat much more or less than usual
-sweating disrupts your daily routine
-experience night sweats for no apparent reason
-change in your body odor</t>
-  </si>
-  <si>
-    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
-If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
-Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
-Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
-Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
-Less sensitivity to touch than the surrounding skin (more likely to be callus).
-Raised area of bump may be painful or cause discomfort (more likely to be corn).
-Pain, redness, blisters</t>
-  </si>
-  <si>
-    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
-Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
-If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
-Toothache, spontaneous pain or pain that occurs without any apparent cause
-Tooth sensitivity
-Mild to sharp pain when eating or drinking something sweet, hot or cold
-Visible holes or pits in your teeth
-Brown, black or white staining on any surface of a tooth
-Pain when you bite down</t>
-  </si>
-  <si>
-    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
-More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.
-continuous low mood or sadness
-feeling hopeless and helpless
-having low self-esteem
-feeling tearful
-feeling guilt-ridden
-feeling irritable and intolerant of others
-having no motivation or interest in things
-finding it difficult to make decisions
-not getting any enjoyment out of life
-feeling anxious or worried
-having suicidal thoughts or thoughts of harming yourself
-moving or speaking more slowly than usual
-changes in appetite or weight (usually decreased, but sometimes increased)
-constipation
-unexplained aches and pains
-lack of energy
-low sex drive (loss of libido)
-changes to your menstrual cycle
-disturbed sleep</t>
-  </si>
-  <si>
-    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
-Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
-Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
-Runny or stuffy nose
-Sore throat
-Cough
-Congestion
-Slight body aches or a mild headache
-Sneezing
-Low-grade fever
-Generally feeling unwell</t>
-  </si>
-  <si>
-    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
-Constipation is generally described as having fewer than three bowel movements a week.
-Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
-Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
-Passing fewer than three stools a week
-Having lumpy or hard stools
-Straining to have bowel movements
-Feeling as though there's a blockage in your rectum that prevents bowel movements
-Feeling as though you can't completely empty the stool from your rectum
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
-  </si>
-  <si>
-    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
-Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
-Dandruff is a mild form of seborrheic dermatitis.
-Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
-Itchy scalp
-Scaly, crusty scalp in infants with cradle cap</t>
-  </si>
-  <si>
-    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
-Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
-Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
-high fever
-Headache
-Muscle, bone or joint pain
-Nausea
-Vomiting
-Pain behind the eyes
-Swollen glands
-Rash</t>
-  </si>
-  <si>
-    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
-Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
-Abdominal cramps or pain
-Bloating
-Nausea
-Vomiting
-Fever
-Blood in the stool
-Mucus in the stool
-Urgent need to have a bowel movement</t>
-  </si>
-  <si>
-    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
-Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
-Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
-A false sense of motion or spinning (vertigo)
-Lightheadedness or feeling faint
-Unsteadiness or a loss of balance
-A feeling of floating, wooziness or heavy-headedness</t>
-  </si>
-  <si>
-    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
-The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
-Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
-Nearby objects may appear blurry
-You need to squint to see clearly
-eyestrain, 
-burning eyes
-aching in or around the eyes
-general eye discomfort 
-headache after doing close tasks</t>
-  </si>
-  <si>
-    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
-It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
-Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.
-Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
-Overthinking plans and solutions to all possible worst-case outcomes
-Perceiving situations and events as threatening, even when they aren't
-Difficulty handling uncertainty
-Indecisiveness and fear of making the wrong decision
-Inability to set aside or let go of a worry
-Inability to relax, feeling restless, and feeling keyed up or on edge
-Difficulty concentrating, or the feeling that your mind "goes blank"</t>
-  </si>
-  <si>
-    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
-Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
-Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
-People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
-Itching
-Lice on scalp
-Lice eggs (nits) on hair shafts.
-Sores on the scalp, neck and shoulders</t>
-  </si>
-  <si>
-    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
-Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
-hiccup
-slight tightening sensation in your chest, abdomen or throat</t>
-  </si>
-  <si>
-    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
-Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
-Indigestion may often be relieved with lifestyle changes and medications.
-Early fullness during a meal. 
-Uncomfortable fullness after a meal
-Discomfort in the upper abdomen
-Burning in the upper abdomen 
-Bloating in the upper abdomen
-Nausea</t>
-  </si>
-  <si>
-    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
-Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
-Tiny, swollen bumps where you shave, tweeze or wax
-Small bumps that look like blisters or are filled with pus
-Small bumps that are darker than surrounding skin (hyperpigmentation)
-Burning or stinging
-Itching
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
-  </si>
-  <si>
-    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
-Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
-Pain and tenderness in nails
-Inflamed skin in nails
-Swelling of nails
-Infection in nails</t>
-  </si>
-  <si>
-    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
-For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
-Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
-Throbbing or cramping pain in your lower abdomen that can be intense
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
-Dull, continuous ache
-Pain that radiates to your lower back and thighs
-Nausea
-Loose stools
-Headache
-Dizziness</t>
-  </si>
-  <si>
-    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
-For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
-Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.
-Pain usually on one side of your head, but often on both sides
-Pain that throbs or pulses
-Sensitivity to light, sound, and sometimes smell and touch
-Nausea and vomiting</t>
-  </si>
-  <si>
-    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
-Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
-An itchy, inflamed bump that forms a few minutes after a bite
-A painful spot that looks like a hive and forms within 24 hours after a bite
-Small blisters
-A large, swollen, inflamed area
-A hive-like rash
-Swelling around the eyes</t>
-  </si>
-  <si>
-    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
-Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
-Cause severe discomfort
-Are associated with leg swelling, redness or skin changes
-Are associated with muscle weakness
-Happen frequently
-Don't improve with self-care
-Aren't associated with an obvious cause, such as strenuous exercise</t>
-  </si>
-  <si>
-    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
-Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
-A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
-Blurry vision when looking at distant objects
-The need to squint or partially close the eyelids to see clearly
-Headaches
-Eyestrain</t>
-  </si>
-  <si>
-    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
-Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
-Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
-Muscle tightness and spasms
-Decreased ability to move the head
-Headache</t>
-  </si>
-  <si>
-    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
-There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
-The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
-Body mass index (BMI) of 23 or higher</t>
-  </si>
-  <si>
-    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
-You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
-OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
-If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.
-Fear of contamination or dirt
-Doubting and having difficulty tolerating uncertainty
-Needing things orderly and symmetrical
-Aggressive or horrific thoughts about losing control and harming yourself or others
-Unwanted thoughts, including aggression, or sexual or religious subjects
-Fear of being contaminated by touching objects others have touched
-Doubts that you've locked the door or turned off the stove
-Intense stress when objects aren't orderly or facing a certain way
-Images of driving your car into a crowd of people
-Thoughts about shouting obscenities or acting inappropriately in public
-Unpleasant sexual images
-Avoidance of situations that can trigger obsessions, such as shaking hands</t>
-  </si>
-  <si>
-    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
-Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
-Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
-Sense of impending doom or danger
-Fear of loss of control or death
-Rapid, pounding heart rate
-Sweating
-Trembling or shaking
-Shortness of breath or tightness in your throat
-Chills
-Hot flashes
-Nausea
-Abdominal cramping
-Chest pain
-Headache
-Dizziness, lightheadedness or faintness
-Numbness or tingling sensation
-Feeling of unreality or detachment</t>
-  </si>
-  <si>
-    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
-Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
-Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
-Redness in one or both eyes
-Itchiness in one or both eyes
-A gritty feeling in one or both eyes
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
-Tearing</t>
-  </si>
-  <si>
-    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
-With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
-The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
-Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
-  </si>
-  <si>
-    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
-Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
-Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
-Joint or muscle pain
-Headache
-Fatigue
-Weight gain related to fluid retention
-Abdominal bloating
-Breast tenderness
-Acne flare-ups
-Constipation or diarrhea
-Alcohol intolerance
-Tension or anxiety
-Depressed mood
-Crying spells
-Mood swings and irritability or anger
-Appetite changes and food cravings
-Trouble falling asleep (insomnia)
-Social withdrawal
-Poor concentration
-Change in libido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
-Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
-Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
-</t>
-  </si>
-  <si>
-    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
-Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
-In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
-Witnessed breathing pauses during sleep
-Excessive daytime sleepiness
-Difficulty concentrating
-Morning headaches
-Sore throat upon awakening
-Restless sleep
-Gasping or choking at night
-High blood pressure
-Chest pain at night
-Your snoring is so loud it's disrupting your partner's sleep
-In children, poor attention span, behavioral issues or poor performance in school</t>
-  </si>
-  <si>
-    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
-In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
-Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.
-Fear of situations in which you may be judged negatively
-Worry about embarrassing or humiliating yourself
-Intense fear of interacting or talking with strangers
-Fear that others will notice that you look anxious
-Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
-Avoidance of doing things or speaking to people out of fear of embarrassment
-Avoidance of situations where you might be the center of attention
-Anxiety in anticipation of a feared activity or event
-Intense fear or anxiety during social situations
-Analysis of your performance and identification of flaws in your interactions after a social situation
-Expectation of the worst possible consequences from a negative experience during a social situation</t>
-  </si>
-  <si>
-    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
-You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
-Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
-Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
-Skin that feels warm or hot to the touch
-Pain, tenderness and itching
-Swelling
-Small, fluid-filled blisters, which may break
-Headache, fever, nausea and fatigue, if the sunburn is severe
-Eyes that feel painful or gritty</t>
-  </si>
-  <si>
-    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
-Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.
-pins-and-needles feeling in wrist
-tinglinging sensation in wrist
-pain in wrist</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1703,6 +235,66 @@
 Does food or sour material ever come up in the back of your throat?.
 Do you have trouble swallowing food, or have you had to change your diet to avoid difficulty swallowing?.
 Have you gained or lost weight?</t>
+  </si>
+  <si>
+    <t>**Maintain a healthy weight.** Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
+**Stop smoking.** Smoking decreases the lower esophageal sphincter's ability to function properly.
+**Elevate the head of your bed.** If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches.
+https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg.webp
+**Start on your left side.** When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+**Don't lie down after a meal.** Wait at least three hours after eating before lying down or going to bed.
+**Eat food slowly and chew thoroughly.** Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+**Avoid foods and drinks that trigger reflux.** Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
+**Avoid tight-fitting clothing.** Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>** एक स्वस्थ वजन बनाए रखें। ** अतिरिक्त पाउंड आपके पेट पर दबाव डालते हैं, आपके पेट को धक्का देते हैं और अपने एसोफैगस में रिफ्लक्स के लिए एसिड का कारण बनते हैं।
+** धूम्रपान बंद करो। ** धूम्रपान कम एसोफैगल स्फिंक्टर की ठीक से काम करने की क्षमता को कम कर देता है।
+** अपने बिस्तर के सिर को ऊंचा करें। ** यदि आप नियमित रूप से सोने की कोशिश करते समय नाराज़गी का अनुभव करते हैं, तो अपने बिस्तर के पैरों के नीचे लकड़ी या सीमेंट ब्लॉक रखें ताकि सिर के छोर को 6 से 9 इंच तक उठाया जाए।
+https://www.wikihow.com/images/thumb/3/33/relieve-acid-reflux-with-a-aiaid-bed-step-5-version-2.jpg/v4-460px-relieve-acid-Reflux-with-a-reaized-bed-step-5-version-j.jpg.webp
+** अपनी बाईं ओर शुरू करें। ** जब आप बिस्तर पर जाते हैं, तो अपनी बाईं ओर लेटकर शुरू करें ताकि यह कम हो सके कि आपके पास रिफ्लक्स होगा।
+** भोजन के बाद लेट न जाएं। ** लेटने या बिस्तर पर जाने से पहले खाने से कम से कम तीन घंटे इंतजार करें।
+** धीरे -धीरे खाना खाएं और अच्छी तरह से चबाएं। ** हर काटने के बाद अपने कांटे को नीचे रखें और इसे फिर से उठाएं और एक बार जब आप चबाते हैं और उस काटने को निगल लेते हैं।
+** रिफ्लक्स को ट्रिगर करने वाले खाद्य पदार्थों और पेय से बचें। ** आम ट्रिगर में शराब, चॉकलेट, कैफीन, वसायुक्त खाद्य पदार्थ या पेपरमिंट शामिल हैं।
+https://integrisok.com/-/media/blog/22-q2/oyh_acid-reflux2.ashx
+** तंग-फिटिंग कपड़ों से बचें। ** आपके कमर के चारों ओर कसकर फिट होने वाले कपड़े आपके पेट और निचले एसोफैगल स्फिंक्टर पर दबाव डालते हैं।</t>
+  </si>
+  <si>
+    <t>acne</t>
+  </si>
+  <si>
+    <t>मुंहासा (acne)</t>
+  </si>
+  <si>
+    <t>pimples</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/acne/symptoms-causes/syc-20368047</t>
+  </si>
+  <si>
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.</t>
+  </si>
+  <si>
+    <t>Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
+  </si>
+  <si>
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
+Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
   </si>
   <si>
     <t>Treatment.
@@ -1859,6 +451,63 @@
 Have other family members had isotretinoin treatment or hormone therapy to treat their acne? Has it been effective?</t>
   </si>
   <si>
+    <t>**Wash problem areas with a gentle cleanser.** Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. (https://www.1mg.com/categories/personal-care/skin-care/acne-care-206)
+**Use Tea tree oil.** For acne prone skin mix 2 drops of tea tree oil with 1 tsp coconut oil and apply using a cotton ball to the affected area and wash after 30 mins. (https://www.amazon.in/Old-Tree-Essential-Skin-Hair/dp/B01LF0AXOG?th=1)
+**Avoid irritants.** Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+**Avoid touching or picking acne-prone areas.** Doing so can trigger more acne or lead to infection or scarring.
+**Shower after strenuous activities.** Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>** एक सौम्य क्लीन्ज़र के साथ समस्या क्षेत्रों को धोएं। ** दिन में दो बार, अपने हाथों का उपयोग अपने चेहरे को हल्के साबुन या एक कोमल क्लीन्ज़र (Cetaphil, vanicream, अन्य) और गर्म पानी से धोने के लिए करें।।
+** चाय के पेड़ के तेल का उपयोग करें। ** मुँहासे प्रवण त्वचा के लिए 1 चम्मच नारियल के तेल के साथ चाय के पेड़ के तेल की 2 बूंदों को मिलाएं और प्रभावित क्षेत्र में एक कपास की गेंद का उपयोग करें और 30 मिनट के बाद धोएं।।
+** चिड़चिड़ाहट से बचें। ** तैलीय या चिकना सौंदर्य प्रसाधन, सनस्क्रीन, हेयरस्टाइलिंग उत्पाद या मुँहासे कंसीलर मुँहासे खराब कर सकते हैं।इसके बजाय, पानी-आधारित या नॉनकमेडोजेनिक लेबल वाले उत्पादों का उपयोग करें, जिसका अर्थ है कि वे मुँहासे का कारण बनने की संभावना कम हैं।
+** मुँहासे-प्रवण क्षेत्रों को छूने या लेने से बचें। ** ऐसा करने से अधिक मुँहासे को ट्रिगर किया जा सकता है या संक्रमण या स्कारिंग को जन्म दिया जा सकता है।
+** ज़ोरदार गतिविधियों के बाद स्नान। ** आपकी त्वचा पर तेल और पसीना से ब्रेकआउट हो सकते हैं।</t>
+  </si>
+  <si>
+    <t>acute sinusitis</t>
+  </si>
+  <si>
+    <t>तीव्र साइनस (acute sinusitis)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/acute-sinusitis/symptoms-causes/syc-20351671</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.</t>
+  </si>
+  <si>
+    <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
+Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your doctor may ask about your symptoms. He or she may feel for tenderness in your nose and face and look inside your nose. Your doctor can usually make the diagnosis based on the physical exam.
 Other methods that might be used to diagnose acute sinusitis and rule out other conditions include:
@@ -1957,6 +606,59 @@
 Do you smoke or are you around smoke or other pollutants?</t>
   </si>
   <si>
+    <t>**Rest.** This will help your body fight infection and speed recovery.
+**Drink fluids.** Continue to drink plenty of fluids.
+**Use a warm compress.** A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
+**Moisten your sinus cavities.** Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
+Rinse your nasal passages: Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.
+https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
+  </si>
+  <si>
+    <t>** आराम करें। ** यह आपके शरीर को संक्रमण और गति वसूली से लड़ने में मदद करेगा।
+** तरल पदार्थ पीएं। ** बहुत सारे तरल पदार्थ पीते रहें।
+** एक गर्म संपीड़ित का उपयोग करें। ** अपनी नाक और माथे पर एक गर्म संपीड़ित आपके साइनस में दबाव को दूर करने में मदद कर सकता है।
+** अपने साइनस गुहाओं को नम करें। ** गर्म पानी के कटोरे से वाष्प में सांस लेने के लिए अपने सिर पर एक तौलिया को लपेटें।वाष्प को अपने चेहरे की ओर निर्देशित रखें।या गर्म, नम हवा में सांस लेते हुए, एक गर्म स्नान करें।यह दर्द को कम करने में मदद करेगा और बलगम नाली में मदद करेगा।
+अपने नाक मार्ग को कुल्ला: एक विशेष रूप से डिज़ाइन की गई निचोड़ बोतल (साइनस रिन, अन्य) या नेटी पॉट का उपयोग करें।यह घरेलू उपाय, जिसे नाक लैवेज कहा जाता है, आपके साइनस को साफ करने में मदद कर सकता है।
+https://www.inmunotek.com/wp-content/uploads/2017/06/captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
+  </si>
+  <si>
+    <t>allergies</t>
+  </si>
+  <si>
+    <t>एलर्जी (allergies)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/allergies/symptoms-causes/syc-20351497</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.</t>
+  </si>
+  <si>
+    <t>a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
+a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
     <t>Diagnosis.
 To evaluate whether you have an allergy, your health care provider will likely:
 Ask detailed questions about signs and symptoms
@@ -2047,6 +749,63 @@
 Is there dampness or water damage in your home or workplace?.
 Do you smoke, or are you exposed to secondhand smoke or other pollutants?.
 What treatments have you tried so far? Have they helped?</t>
+  </si>
+  <si>
+    <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
+Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
+Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
+  </si>
+  <si>
+    <t>साइनस कंजेशन के लक्षण अक्सर खारा नाक की सिंचाई के साथ सुधार करते हैं, जो नमक और पानी के घोल के साथ साइनस को बाहर निकालते हैं।
+गर्म पानी में अक्सर बिस्तर और भरवां खिलौनों को धोने के द्वारा धूल के कण या पालतू जानवरों के लिए अपने संपर्क को कम करें, कम आर्द्रता बनाए रखें, नियमित रूप से एक उच्च-दक्षता वाले पार्टिकुलेट एयर (HEPA) फिल्टर जैसे एक बारीक फिल्टर के साथ एक वैक्यूम का उपयोग करें और हार्ड फर्श के साथ कालीन की जगह।
+वेंटिलेशन प्रशंसकों और dehumidifiers का उपयोग करके, अपने स्नान और रसोई जैसे नम क्षेत्रों में नमी को कम करें।अपने घर के अंदर और बाहर लीक को ठीक करें।</t>
+  </si>
+  <si>
+    <t>alopecia</t>
+  </si>
+  <si>
+    <t>खालित्य (alopecia)</t>
+  </si>
+  <si>
+    <t>hair loss</t>
+  </si>
+  <si>
+    <t>baldness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/hair-loss/symptoms-causes/syc-20372926</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.</t>
+  </si>
+  <si>
+    <t>hair loss
+Circular or patchy bald spots
+Sudden loosening of hair
+Full-body hair loss
+Patches of scaling that spread over the scalp
+Gradual thinning of the hair on your head
+Bald spot that grows slowly
+Receding hairline
+Widening part
+Thinner ponytail</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
+hair loss
+Circular or patchy bald spots
+Sudden loosening of hair
+Full-body hair loss
+Patches of scaling that spread over the scalp
+Gradual thinning of the hair on your head
+Bald spot that grows slowly
+Receding hairline
+Widening part
+Thinner ponytail</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2143,6 +902,47 @@
 What, if anything, appears to worsen your hair loss?</t>
   </si>
   <si>
+    <t>**Honey And Lemon.** Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
+**Fenugreek.** Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
+**Onions.** Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
+**Garlic.** Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
+**Hibiscus And Dandelion Oil.** A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
+**Oatmeal.** Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
+**Aloe Vera Extract.** Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
+https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
+  </si>
+  <si>
+    <t>** शहद और नींबू। ** शहद के संभावित जीवाणुरोधी और विरोधी भड़काऊ गुण खोपड़ी और अशुद्धियों को साफ करने में मदद करते हैं जो बालों के रोम को बंद कर सकते हैं।हनी में ह्यूमेक्टेंट गुण भी हैं।ये सभी बालों को मजबूत करने और बालों के विकास को बढ़ाने में सहायता करते हैं।
+** मेथी।डाइहाइड्रोटेस्टोस्टेरोन और बढ़ी हुई डीएचटी गतिविधि का असंतुलन एंड्रोजेनिक एलोपेसिया के कारण बालों के झड़ने के कारणों में से एक है।यहाँ जब छोटे मेथी के बीज बढ़े हुए DHT गतिविधि और असंतुलन को रोककर बचाव के लिए आते हैं।ये पावर-पैक किए गए बीज बालों के विकास को बढ़ावा देते हैं और एंड्रोजेनिक एलोपेसिया की गंभीरता को कम करते हैं।
+** प्याज। ** प्याज किसी भी भारतीय खाना पकाने में एक प्रमुख घटक है।जबकि वे अधिकांश व्यंजनों में स्वाद और स्वाद जोड़ते हैं, आपके रसोई की अलमारियों में प्याज पर स्टॉक करने के कई कारण हैं।एलोपेसिया अरेटा में गंजे पैच का मुकाबला करने के लिए, प्याज एक वरदान है।उनमें उच्च मात्रा में सल्फर होता है जो मुक्त कट्टरपंथी क्षति से लड़ता है, खोपड़ी में रक्त परिसंचरण में सुधार करता है, और किसी भी प्रकार के संक्रमण को रोकता है।
+** लहसुन। ** प्याज की तरह, लहसुन सल्फर-समृद्ध वेजी है और खालित्य के लिए सबसे अच्छा प्राकृतिक उपचारों में से एक है।यह बालों के विकास को बढ़ाता है और कोलेजन उत्पादन को बढ़ाकर बालों के गिरने को रोकता है।
+** हिबिस्कस और डंडेलियन ऑयल। ** एलोपेसिया अरेटा के लिए एक फूलदार हर्बल उपाय, हिबिस्कस फूल बालों के विकास को बढ़ाता है इसके अलावा आपके बालों को सुपर चमकदार दिखता है।
+** ओटमील। ** ओट्स एक सुपरफूड हैं जो बालों को प्यार करने वाले पोषक तत्वों जैसे फाइबर, जस्ता, ओमेगा 3, आयरन और ओमेगा -6 फैटी एसिड के साथ हैं।ओट्स को सैपोनिन, बीटा-ग्लूकन और प्रोटीन के साथ भी समृद्ध किया जाता है।यह सब एक आदर्श नुस्खा बनाता है जो बालों के विकास का समर्थन करता है।अपने शरीर में दलिया जोड़ने का सब</t>
+  </si>
+  <si>
+    <t>bad breath</t>
+  </si>
+  <si>
+    <t>बदबूदार सांस (bad breath)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bad-breath/symptoms-causes/syc-20350922</t>
+  </si>
+  <si>
+    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.</t>
+  </si>
+  <si>
+    <t>foul-smelling
+Bad breath odors</t>
+  </si>
+  <si>
+    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
+foul-smelling
+Bad breath odors</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your dentist will likely smell both the breath from your mouth and the breath from your nose and rate the odor on a scale. Because the back of the tongue is most often the source of the smell, your dentist may also scrape it and rate its odor.
 There are sophisticated detectors that can identify the chemicals responsible for bad breath, though these aren't always available.
@@ -2207,6 +1007,33 @@
 What do you suspect might be causing your bad breath?.
 Have other people noticed and commented on your bad breath?.
 Be ready to answer these questions so that you can make the most of your appointment time.</t>
+  </si>
+  <si>
+    <t>bags under eyes</t>
+  </si>
+  <si>
+    <t>आंखों के नीचे बैग (bags under eyes)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bags-under-eyes/symptoms-causes/syc-20369927</t>
+  </si>
+  <si>
+    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.</t>
+  </si>
+  <si>
+    <t>mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
+  </si>
+  <si>
+    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
+mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
   </si>
   <si>
     <t>Treatment.
@@ -2284,6 +1111,57 @@
 Have you ever had bleeding disorders or blood clots?</t>
   </si>
   <si>
+    <t>**Use a cool compress.** Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
+Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
+**Don't smoke.** Smoking can aggravate the problem of bags under your eyes.
+**Get enough sleep.** For most adults, 7 to 9 hours is a good amount of sleep.
+**Sleep with your head slightly raised.** It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.</t>
+  </si>
+  <si>
+    <t>** एक शांत संपीड़ित का उपयोग करें। ** ठंडे पानी के साथ एक साफ वॉशक्लॉथ को गीला करें।बैठते समय, हल्के दबाव का उपयोग करके कुछ मिनटों के लिए अपनी आंखों के नीचे और अपनी आंखों के आसपास त्वचा पर नम वॉशक्लॉथ लगाएं।
+सोने से पहले तरल पदार्थों पर कटौती करें और अपने आहार में नमक को सीमित करें।यह द्रव प्रतिधारण को कम करेगा जो आंखों के नीचे बैग का कारण बन सकता है।
+** धूम्रपान न करें। ** धूम्रपान आपकी आंखों के नीचे बैग की समस्या को बढ़ा सकता है।
+** पर्याप्त नींद लें। ** अधिकांश वयस्कों के लिए, 7 से 9 घंटे नींद की अच्छी मात्रा है।
+** अपने सिर के साथ थोड़ा उठें। ** यह एक अतिरिक्त तकिया जोड़ने या अपने गद्दे के सिर को ऊपर उठाने में मदद कर सकता है।या बिस्तर के पूरे सिर को कुछ इंच ऊंचा करें।यह तरल पदार्थ को आपकी आंखों के चारों ओर जमा होने से रोकने में मदद करता है क्योंकि आप सोते हैं।</t>
+  </si>
+  <si>
+    <t>bee sting</t>
+  </si>
+  <si>
+    <t>मधुमक्खी के डंक (bee sting)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bee-stings/symptoms-causes/syc-20353869</t>
+  </si>
+  <si>
+    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.</t>
+  </si>
+  <si>
+    <t>Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
+  </si>
+  <si>
+    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
+Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
+  </si>
+  <si>
     <t>Diagnosis.
 If you've had a reaction to bee stings that suggests you might be allergic to bee venom, your doctor may suggest one or both of the following tests:
 Skin test. During skin testing, a small amount of allergen extract (in this case, bee venom) is injected into the skin of your arm or upper back. This test is safe and won't cause any serious reactions. If you're allergic to bee stings, you'll develop a raised bump on your skin at the test site.
@@ -2358,6 +1236,41 @@
 Don't hesitate to ask other questions, as well.</t>
   </si>
   <si>
+    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
+**Aloe vera** is a plant-based gel that naturally soothes and moisturizes the skin. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
+**Honey** contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. Do this indoors, so the smell of the honey does not attract more bees :)</t>
+  </si>
+  <si>
+    <t>मधुमक्खी के डंक के तुरंत बाद, किसी भी शेष मधुमक्खी के विष को हटाने के लिए क्षेत्र को अच्छी तरह से धोएं।फिर, दर्द और सूजन को कम करने के लिए बर्फ लागू करें।हमेशा त्वचा को बर्फ से बचाने के लिए एक कपड़े का उपयोग करें</t>
+  </si>
+  <si>
+    <t>body lice</t>
+  </si>
+  <si>
+    <t>शरीर का जूँ (body lice)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/body-lice/symptoms-causes/syc-20350310</t>
+  </si>
+  <si>
+    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
+Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.</t>
+  </si>
+  <si>
+    <t>intense itching
+small areas of blood and crust on your skin
+bite marks</t>
+  </si>
+  <si>
+    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
+Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
+intense itching
+small areas of blood and crust on your skin
+bite marks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You or your doctor can usually confirm a body lice infestation through a visual examination of your body and clothing items. The presence of eggs and moving lice confirms infestation.
 Treatment.
@@ -2383,6 +1296,54 @@
 Do you have any chronic health problems?.
 What medications and supplements do you take?.
 During the physical exam, your doctor will examine your skin and the seams of your clothes.</t>
+  </si>
+  <si>
+    <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
+Wash infested bedding, clothing and towels with hot, soapy water — at least 130 F (54 C) — and machine dry them on high heat for at least 20 minutes.
+Clothing that can't be washed may be dry cleaned and ironed.
+Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
+Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
+Exposure to infested items should be avoided for two weeks.</t>
+  </si>
+  <si>
+    <t>आप आमतौर पर खुद को और किसी भी व्यक्तिगत सामान को साफ करके शरीर के जूँ से छुटकारा पा सकते हैं जो दूषित हो सकता है।
+गर्म, साबुन के पानी के साथ संक्रमित बिस्तर, कपड़े और तौलिए धोएं - कम से कम 130 एफ (54 सी) - और मशीन उन्हें कम से कम 20 मिनट के लिए उच्च गर्मी पर सूखा।
+कपड़े जो नहीं धोए जा सकते हैं, वे सूखे और इस्त्री किए जा सकते हैं।
+जिन वस्तुओं को धोया या सूख नहीं सकता है, उन्हें प्लास्टिक की थैली में सील किया जाना चाहिए और दो सप्ताह के लिए गर्म क्षेत्र में संग्रहीत किया जाना चाहिए।
+गद्दे, सोफे और अन्य असबाबवाला फर्नीचर वस्तुओं को गर्म इस्त्री किया जाना चाहिए या सीम से अंडे को खत्म करने के लिए जूँ-हत्या के उत्पादों के साथ छिड़काव किया जाना चाहिए।
+संक्रमित वस्तुओं के संपर्क में दो सप्ताह के लिए बचा जाना चाहिए।</t>
+  </si>
+  <si>
+    <t>body odor and sweating</t>
+  </si>
+  <si>
+    <t>शरीर की गंध और पसीना (body odor and sweating)</t>
+  </si>
+  <si>
+    <t>sweating and body odor</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/sweating-and-body-odor/symptoms-causes/syc-20353895</t>
+  </si>
+  <si>
+    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
+Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.</t>
+  </si>
+  <si>
+    <t>sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
+  </si>
+  <si>
+    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
+Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
+sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2429,6 +1390,52 @@
 What, if anything, appears to worsen your symptoms?</t>
   </si>
   <si>
+    <t>**Bathe daily.** Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
+**Choose clothing to suit your activity.** For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
+**Try relaxation techniques.** Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
+**Change your diet.** Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
+  </si>
+  <si>
+    <t>** दैनिक स्नान करें। ** नियमित रूप से स्नान, विशेष रूप से एक जीवाणुरोधी साबुन के साथ, आपकी त्वचा पर बैक्टीरिया के विकास को कम करता है।
+** अपनी गतिविधि के अनुरूप कपड़े चुनें। ** दैनिक पहनने के लिए, प्राकृतिक कपड़े चुनें, जैसे कि कपास, ऊन और रेशम।ये आपकी त्वचा को सांस लेने की अनुमति देते हैं।व्यायाम पहनने के लिए, आप अपनी त्वचा से दूर नमी को दूर करने के लिए विकसित सिंथेटिक कपड़ों को पसंद कर सकते हैं।
+** विश्राम तकनीकों का प्रयास करें। ** विश्राम तकनीकों पर विचार करें, जैसे कि योग, ध्यान या बायोफीडबैक।ये प्रथाएं आपको उस तनाव को नियंत्रित करने के लिए सिखा सकती हैं जो पसीना बहाता है।
+** अपना आहार बदलें। ** कैफीनयुक्त पेय और मसालेदार या मजबूत-महक वाले खाद्य पदार्थ आपको अधिक पसीना बहा सकते हैं या शरीर की गंध है जो सामान्य से अधिक मजबूत है।इन खाद्य पदार्थों को खत्म करने से मदद मिल सकती है।</t>
+  </si>
+  <si>
+    <t>calluses and corns</t>
+  </si>
+  <si>
+    <t>कॉलस और कॉर्न्स (calluses and corns)</t>
+  </si>
+  <si>
+    <t>corns and calluses</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/corns-and-calluses/symptoms-causes/syc-20355946</t>
+  </si>
+  <si>
+    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.</t>
+  </si>
+  <si>
+    <t>Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
+  </si>
+  <si>
+    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
+Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will likely diagnose corns and calluses by examining your feet. This exam helps rule out other causes of thickened skin, such as warts and cysts. Your health care provider might confirm the diagnosis by paring away a bit of hardened skin if it bleeds or reveals black points (dried blood), it's a wart, not a corn.
 Treatment.
@@ -2461,6 +1468,52 @@
 Use corn pads. Apply a donut-shaped foam pad to protect the area where a corn or callus formed. Be careful using nonprescription liquid corn removers or medicated corn pads. These contain salicylic acid, which can irritate healthy skin and lead to infection, especially in people with diabetes or other conditions that cause poor blood flow. You can protect healthy skin by applying petroleum jelly (Vaseline) to the area around the corn or callus before using a medicated pad.
 Moisturize your skin. Use moisturizer on your hands and feet regularly.
 Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.</t>
+  </si>
+  <si>
+    <t>**Soak your hands or feet.** Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
+**Use corn pads.**
+**Moisturize your skin.** Use moisturizer on your hands and feet regularly.</t>
+  </si>
+  <si>
+    <t>** अपने हाथों या पैरों को भिगोएँ। ** गर्म, साबुन के पानी में कॉर्न और कॉलस को भिगोने से उन्हें नरम हो जाता है।इससे मोटी त्वचा को हटाना आसान हो सकता है।एक बार जब आप प्रभावित त्वचा को नरम कर लेते हैं, तो मकई या कॉलस को प्यूमिस स्टोन, नेल फाइल, एमरी बोर्ड या वॉशक्लॉथ के साथ रगड़ें।यह सख्त त्वचा की एक परत को हटाने में मदद करता है।त्वचा को ट्रिम करने के लिए एक तेज वस्तु का उपयोग न करें।यदि आपको मधुमेह है तो एक प्यूमिस पत्थर का उपयोग न करें।
+** मकई पैड का उपयोग करें। **
+** अपनी त्वचा को मॉइस्चराइज़ करें। ** नियमित रूप से अपने हाथों और पैरों पर मॉइस्चराइज़र का उपयोग करें।</t>
+  </si>
+  <si>
+    <t>cavities</t>
+  </si>
+  <si>
+    <t>गुहाओं (cavities)</t>
+  </si>
+  <si>
+    <t>tooth decay</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/cavities/symptoms-causes/syc-20352892</t>
+  </si>
+  <si>
+    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
+Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.</t>
+  </si>
+  <si>
+    <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
+  </si>
+  <si>
+    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
+Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
+Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2544,6 +1597,83 @@
 Use toothpaste designed for sensitive teeth.
 Thoroughly clean all parts of your mouth and teeth — don't avoid painful areas.
 Avoid foods or beverages that are hot, cold or sweet enough to trigger pain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Oil pulling.** Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.
+**Sugar-free gum.** Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
+**Vitamin D.** Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
+**Brush with fluoride toothpaste.** Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
+**Cut out sugary foods.** This is the cavity remedy that no one likes to hear — stop eating so much sugar. </t>
+  </si>
+  <si>
+    <t>** तेल खींचने।
+** चीनी मुक्त गम। ** भोजन के बाद चीनी मुक्त गम चबाना नैदानिक परीक्षणों में तामचीनी को याद करने में मदद करने के लिए दिखाया गया है।
+** विटामिन डी। ** विटामिन डी आपके द्वारा खाए जाने वाले भोजन से कैल्शियम और फॉस्फेट को अवशोषित करने में मदद करने के लिए महत्वपूर्ण है।आप दूध और दही जैसे डेयरी उत्पादों से विटामिन डी प्राप्त कर सकते हैं।आप सूरज से विटामिन डी भी प्राप्त कर सकते हैं।
+** फ्लोराइड टूथपेस्ट के साथ ब्रश। ** फ्लोराइड गुहाओं को रोकने और तामचीनी को याद दिलाने में महत्वपूर्ण भूमिका निभाता है।व्यापक शोध स्रोत यह दिखाने के लिए किया गया है कि नियमित रूप से एक फ्लोराइड टूथपेस्ट के साथ अपने दांतों को ब्रश करना गुहाओं को रोकता है।
+** शक्कर वाले खाद्य पदार्थों को काटें। ** यह गुहा का उपाय है जिसे कोई भी सुनना पसंद नहीं करता है - इतनी चीनी खाना बंद कर दें।</t>
+  </si>
+  <si>
+    <t>clinical depression</t>
+  </si>
+  <si>
+    <t>नैदानिक ​​अवसाद (clinical depression)</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>major depressive disorder</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/depression/symptoms-causes/syc-20356007</t>
+  </si>
+  <si>
+    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.</t>
+  </si>
+  <si>
+    <t>continuous low mood or sadness
+feeling hopeless and helpless
+having low self-esteem
+feeling tearful
+feeling guilt-ridden
+feeling irritable and intolerant of others
+having no motivation or interest in things
+finding it difficult to make decisions
+not getting any enjoyment out of life
+feeling anxious or worried
+having suicidal thoughts or thoughts of harming yourself
+moving or speaking more slowly than usual
+changes in appetite or weight (usually decreased, but sometimes increased)
+constipation
+unexplained aches and pains
+lack of energy
+low sex drive (loss of libido)
+changes to your menstrual cycle
+disturbed sleep</t>
+  </si>
+  <si>
+    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.
+continuous low mood or sadness
+feeling hopeless and helpless
+having low self-esteem
+feeling tearful
+feeling guilt-ridden
+feeling irritable and intolerant of others
+having no motivation or interest in things
+finding it difficult to make decisions
+not getting any enjoyment out of life
+feeling anxious or worried
+having suicidal thoughts or thoughts of harming yourself
+moving or speaking more slowly than usual
+changes in appetite or weight (usually decreased, but sometimes increased)
+constipation
+unexplained aches and pains
+lack of energy
+low sex drive (loss of libido)
+changes to your menstrual cycle
+disturbed sleep</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2757,6 +1887,57 @@
 Does your mood ever swing from feeling down to feeling intensely happy (euphoric) an</t>
   </si>
   <si>
+    <t>**Stick to your treatment plan.** Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
+**Learn about depression.** Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
+**Pay attention to warning signs.** Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
+**Avoid alcohol and recreational drugs.** It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
+**Take care of yourself.** Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
+  </si>
+  <si>
+    <t>** अपने उपचार योजना से चिपके रहें। ** मनोचिकित्सा सत्र या नियुक्तियों को न छोड़ें।यहां तक कि अगर आप अच्छा महसूस कर रहे हैं, तो अपनी दवाओं को न छोड़ें।यदि आप रुकते हैं, तो अवसाद के लक्षण वापस आ सकते हैं, और आप वापसी जैसे लक्षण भी अनुभव कर सकते हैं।पहचानें कि बेहतर महसूस करने में समय लगेगा।
+** अवसाद के बारे में जानें। ** अपनी स्थिति के बारे में शिक्षा आपको सशक्त बना सकती है और आपको अपनी उपचार योजना से चिपके रहने के लिए प्रेरित कर सकती है।अपने परिवार को प्रोत्साहित करें कि आप उन्हें समझने और आपका समर्थन करने में मदद करने के लिए अवसाद के बारे में जानें।
+** चेतावनी के संकेतों पर ध्यान दें। ** अपने डॉक्टर या चिकित्सक के साथ काम करें ताकि यह जान सकें कि आपके अवसाद के लक्षणों को ट्रिगर क्या हो सकता है।एक योजना बनाएं ताकि आप जान सकें कि आपके लक्षण खराब होने पर क्या करना है।यदि आप लक्षणों में कोई बदलाव या आप कैसा महसूस करते हैं, तो अपने डॉक्टर या चिकित्सक से संपर्क करें।रिश्तेदारों या दोस्तों से चेतावनी संकेतों के लिए देखने में मदद करने के लिए कहें।
+** शराब और मनोरंजक दवाओं से बचें। ** यह शराब या ड्रग्स की तरह लग सकता है, अवसाद के लक्षणों को कम करते हैं, लेकिन लंबे समय में वे आम तौर पर लक्षणों को खराब करते हैं और अवसाद का इलाज करने के लिए कठिन बनाते हैं।यदि आपको शराब या पदार्थ के उपयोग में मदद की आवश्यकता है तो अपने डॉक्टर या चिकित्सक से बात करें।
+** अपना ख्याल रखें। ** स्वस्थ खाएं, शारीरिक रूप से सक्रिय रहें और बहुत नींद लें।चलने, जॉगिंग, तैराकी, बागवानी या एक अन्य गतिविधि पर विचार करें जिसका आप आनंद लेते हैं।अच्छी तरह से सोना आपके शारीरिक और मानसिक कल्याण दोनों के लिए महत्वपूर्ण है।यदि आपको सोने में परेशानी हो रही है, तो अपने डॉक्टर से बात करें कि आप क्या कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>common cold</t>
+  </si>
+  <si>
+    <t>सामान्य जुकाम (common cold)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/common-cold/symptoms-causes/syc-20351605</t>
+  </si>
+  <si>
+    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
+Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.</t>
+  </si>
+  <si>
+    <t>Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
+  </si>
+  <si>
+    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
+Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
+Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In general, you don't need to see the doctor for a common cold. But if symptoms worsen or don't go away, it might be time to see your doctor.
 Most people with a common cold can be diagnosed by their signs and symptoms. If your doctor suspects that you have a bacterial infection or other condition, he or she may order a chest X-ray or other tests to rule out other causes of your symptoms.
@@ -2849,6 +2030,58 @@
 What, if anything, seems to improve the symptoms?.
 What, if anything, worsens symptoms?.
 Your doctor will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your time with the doctor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Soothe a sore throat.** A saltwater gargle of 1/4 to 1/2 teaspoon of table salt in 120 to 240 milliliters of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
+https://www.deccanherald.com/sites/dh/files/article_images/2020/05/06/iStock-1204965485-1588785970.jpg
+**Try saline nasal drops or sprays.** Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. In infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. For older children, use a saline nasal spray or saline nasal irrigation.
+**Drink plenty of fluids.** Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
+**Sip warm liquids.** Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
+**Rest.** If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
+</t>
+  </si>
+  <si>
+    <t>** एक गले में खराशसमाधान को गड़गड़ाहट करें और फिर इसे बाहर थूक दें।6 वर्ष से कम उम्र के बच्चों को ठीक से गार्गल करने में सक्षम होने की संभावना नहीं है।
+https://www.deccanherald.com/sites/dh/files/article_images/2020/05/06/istock-1204965485-1588785970.jpg
+** खारा नाक की बूंदों या स्प्रे की कोशिश करें। ** खारा नाक की बूंदें या स्प्रे नाक के मार्ग को नम और ढीला बलगम रख सकते हैं।शिशुओं और छोटे बच्चों में, खारा नाक की बूंदें लागू करें, थोड़ी अवधि की प्रतीक्षा करें और फिर प्रत्येक नथुने से बलगम को खींचने के लिए एक सक्शन बल्ब का उपयोग करें।बड़े बच्चों के लिए, खारा नाक स्प्रे या खारा नाक सिंचाई का उपयोग करें।
+** बहुत सारे तरल पदार्थ पिएं। ** पानी, रस, साफ शोरबा या गर्म नींबू पानी अच्छे विकल्प हैं।कैफीन और अल्कोहल से बचें, जो आपको निर्जलीकृत कर सकता है।
+** गर्म तरल पदार्थ घूंट। ** चिकन सूप और अन्य गर्म तरल पदार्थ, जैसे कि चाय या गर्म सेब का रस, सुखदायक हो सकता है और भीड़ को ढीला कर सकता है।शहद वयस्कों और बच्चों में खांसी में मदद कर सकता है जो उम्र 1 से अधिक उम्र के हैं। इसे गर्म चाय में आज़माएं।
+** आराम करें। ** यदि संभव हो तो, काम या स्कूल से घर रहें यदि आपको बुखार या बुरी खांसी है या दवाएं लेने के बाद सूखा है।यह आपको आराम करने और चंगा करने का मौका देगा, साथ ही उन संभावनाओं को कम करेगा जो आप दूसरों को अपनी ठंड फैलाएंगे।</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>कब्ज़ (constipation)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/constipation/symptoms-causes/syc-20354253</t>
+  </si>
+  <si>
+    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
+Constipation is generally described as having fewer than three bowel movements a week.
+Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.</t>
+  </si>
+  <si>
+    <t>Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
+  </si>
+  <si>
+    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
+Constipation is generally described as having fewer than three bowel movements a week.
+Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
+Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2986,6 +2219,47 @@
 Have you started any new medications or recently changed the dosage of your current medications?</t>
   </si>
   <si>
+    <t>**Try colonic massage.** Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
+**Try natural remedies.** Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studies noting increased stool frequency after taking these supplements.
+**Eat foods for constipation relief.** Eating foods that are high in fiber can help you find relief from constipation. Foods that are high in fiber can include: oats, whole grain bread or cereal, whole wheat pasta, fibrous fruits, such as apples and bananas, fibrous vegetables, such as broccoli, carrots, and leafy greens, brown rice, nuts, such as walnuts, pecans, and almonds.
+**Drink a glass of water.** Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 liters of clear liquid per day.
+**Get some exercise.** Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.</t>
+  </si>
+  <si>
+    <t>** कोलोनिक मालिश की कोशिश करें। ** मैन्युअल रूप से बृहदान्त्र की मालिश करने से उन लोगों के लिए आंतों को उत्तेजित करने में मदद मिल सकती है जिनकी कब्ज बृहदान्त्र के माध्यम से मल के धीमे आंदोलन के कारण होती है।2021 के एक अध्ययन ने सुझाव दिया कि एक स्वचालित पेट की मालिश डिवाइस ने पुरानी कब्ज वाले लोगों में स्टूल पारगमन समय को कम करने में मदद की।
+** प्राकृतिक उपचारों की कोशिश करें। ** कुछ प्राकृतिक उपचार, जैसे कि प्रोबायोटिक्स का सेवन करना, कब्ज के इलाज और रोकने में मददगार हो सकता है, कुछ अध्ययनों के साथ इन सप्लीमेंट्स को लेने के बाद मल आवृत्ति में वृद्धि हुई है।
+** कब्ज से राहत के लिए खाद्य पदार्थ खाएं। ** फाइबर में उच्च होने वाले खाद्य पदार्थ खाने से आपको कब्ज से राहत पाने में मदद मिल सकती है।फाइबर में उच्च होने वाले खाद्य पदार्थों में शामिल हो सकते हैं: जई, साबुत अनाज की रोटी या अनाज, पूरे गेहूं पास्ता, रेशेदार फल, जैसे कि सेब और केले, रेशेदार सब्जियां, जैसे ब्रोकोली, गाजर, और पत्तेदार साग, भूरे रंग के चावल, नट, जैसेअखरोट, पेकान और बादाम।
+** एक गिलास पानी पिएं। ** नियमित रूप से आंत्र आंदोलनों के लिए उचित जलयोजन आवश्यक है।शोधकर्ता प्रति दिन लगभग 1.8 लीटर स्पष्ट तरल की सलाह देते हैं।
+** कुछ व्यायाम प्राप्त करें। ** प्रकाश व्यायाम, जैसे कि चलना, योग, या जॉगिंग, आपके पेट में रक्त प्रवाह को बढ़ाकर आंत्र आंदोलनों को प्रोत्साहित कर सकता है।</t>
+  </si>
+  <si>
+    <t>dandruff</t>
+  </si>
+  <si>
+    <t>रूसी (dandruff)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dandruff/symptoms-causes/syc-20353850</t>
+  </si>
+  <si>
+    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
+Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
+Dandruff is a mild form of seborrheic dermatitis.</t>
+  </si>
+  <si>
+    <t>Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
+  </si>
+  <si>
+    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
+Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
+Dandruff is a mild form of seborrheic dermatitis.
+Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
+  </si>
+  <si>
     <t>Diagnosis.
 A doctor can often diagnose dandruff simply by looking at your hair and scalp.
 Treatment.
@@ -3026,6 +2300,57 @@
 Tea tree oil is included in a number of shampoos, but there is no strong evidence to support its use for dandruff control. It comes from the leaves of the Australian tea tree (Melaleuca alternifolia) and has been used for centuries as an antiseptic, antibiotic and antifungal agent. The oil may cause allergic reactions in some people.
 Preparing for your appointment.
 You don't need any special preparations for an appointment to diagnose dandruff. Your doctor will likely be able to diagnose your dandruff simply by looking at your scalp and skin. If you've started using any new hair care products, bring the bottles with you to your appointment or be prepared to tell your doctor about them, which help in determining the cause of your dandruff.</t>
+  </si>
+  <si>
+    <t>**Apple Cider Vinegar.** Add some apple cider vinegar to water (Equal parts) and keep it aside. After washing your hair, apply the mix to your wet hair. Gently massage your hair with the mix. Leave to dry for 15 minutes and then rinse it off.
+**Mehndi.** Firstly, mix mehndi with curd and a little bit of lemon juice. Once this is formed as a paste, keep the mixture aside for 8 hours. After 8 hours you can apply it on your hair. Let it dry over your hair for two hours and then you can wash it away.
+**Eat a healthy diet.** A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
+**Learn to manage stress.** Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
+**Limit hair-styling products.** Hair-styling products can build up on your hair and scalp, making them oilier.</t>
+  </si>
+  <si>
+    <t>** सेब साइडर सिरका। ** पानी (समान भागों) में कुछ सेब साइडर सिरका जोड़ें और इसे एक तरफ रखें।अपने बालों को धोने के बाद, अपने गीले बालों पर मिश्रण लगाएं।धीरे से मिश्रण के साथ अपने बालों की मालिश करें।15 मिनट के लिए सूखने के लिए छोड़ दें और फिर इसे बंद कर दें।
+** मेहंदी। ** सबसे पहले, मेहंदी को दही के साथ मिलाएं और थोड़ा सा नींबू का रस।एक बार जब यह एक पेस्ट के रूप में बन जाता है, तो मिश्रण को 8 घंटे तक अलग रखें।8 घंटे के बाद आप इसे अपने बालों पर लगा सकते हैं।इसे दो घंटे के लिए अपने बालों पर सूखने दें और फिर आप इसे धो सकते हैं।
+** एक स्वस्थ आहार खाएं। ** एक आहार जो पर्याप्त जस्ता, बी विटामिन और कुछ प्रकार के वसा प्रदान करता है, डैंड्रफ को रोकने में मदद कर सकता है।
+** तनाव का प्रबंधन करना सीखें। ** तनाव आपके समग्र स्वास्थ्य को प्रभावित करता है, जिससे आप कई स्थितियों और बीमारियों के लिए अतिसंवेदनशील होते हैं।यहां तक कि यह डैंड्रफ को ट्रिगर करने या मौजूदा लक्षणों को खराब करने में भी मदद कर सकता है।
+** हेयर-स्टाइलिंग उत्पादों को सीमित करें। ** हेयर-स्टाइलिंग उत्पाद आपके बालों और खोपड़ी पर निर्माण कर सकते हैं, जिससे वे तेल बना सकते हैं।</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>डेंगू बुखार (dengue fever)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dengue-fever/symptoms-causes/syc-20353078</t>
+  </si>
+  <si>
+    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
+Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.</t>
+  </si>
+  <si>
+    <t>high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
+  </si>
+  <si>
+    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
+Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
+high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3096,6 +2421,55 @@
 Where have you traveled in the past month?.
 Were you bitten by mosquitoes while traveling?.
 Have you been in contact recently with anyone who was ill?</t>
+  </si>
+  <si>
+    <t>**Drink Sufficient Water.** Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps.
+**Juice of Papaya Leaves.** Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. All you need to do is crush the leaves and strain the juice from the crushed leaves.
+**Chew Basil Leaves.** Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
+**Neem Leaves.** Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
+**Orange Juice.** Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. It promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body.</t>
+  </si>
+  <si>
+    <t>** पर्याप्त पानी पीना। ** अत्यधिक पसीना, डेंगू बुखार के दौरान परिश्रम से अत्यधिक निर्जलीकरण हो सकता है।नतीजतन, सुनिश्चित करें कि आप बहुत सारे तरल पदार्थ लेते हैं और अच्छी तरह से हाइड्रेटेड रहते हैं।हाइड्रेटेड रहना भी सिरदर्द के लक्षणों को कम करता है, साथ ही मांसपेशियों में ऐंठन भी।
+** पपीते के पत्तों का रस। ** पपीता के पत्तों को डेंगू बुखार के लिए प्राकृतिक इलाज के रूप में जाना जाता है।पत्तियों में पोषक तत्वों और कार्बनिक यौगिकों का मिश्रण होता है जो आपके प्लेटलेट काउंट को बढ़ाने में मदद करते हैं।आपको बस पत्तियों को कुचलने की ज़रूरत है और रस को कुचल दिया गया है।
+** चबाने वाली तुलसी की पत्तियां। ** चबाने से 5-6 तुलसी की पत्तियां आपकी प्रतिरक्षा को बढ़ाती हैं और डेंगू बुखार के लिए एक प्रभावी आयुर्वेदिक उपचार के रूप में सिफारिश की गई है।तुलसी के पत्तों में प्राकृतिक कीटनाशक गुणों के साथ आवश्यक तेल होते हैं जो मच्छरों को खाड़ी में रखते हैं।
+** नीम पत्तियां। ** खड़ी नीम छोड़ देती है और प्लेटलेट और सफेद रक्त कोशिका की गिनती को बढ़ाने के लिए काढ़ा पीते हैं।डेंगू से पीड़ित होने पर ठीक से पीसा नीम के पत्तों को भी प्रतिरक्षा प्रणाली में सुधार होता है।
+** संतरे का रस। ** संतरे एंटीऑक्सिडेंट और विटामिन में समृद्ध होते हैं जो डेंगू के माध्यमिक लक्षणों के इलाज में मदद करते हैं।संतरे का रस भी डेंगू वायरस को खत्म करने में मदद करता है।यह प्रतिरक्षा प्रणाली में एंटीबॉडी को बढ़ावा देता है, पेशाब को बढ़ाता है, जिससे शरीर से विषाक्त पदार्थ जारी होते हैं।</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>डायरिया (diarrhea)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/diarrhea/symptoms-causes/syc-20352241</t>
+  </si>
+  <si>
+    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).</t>
+  </si>
+  <si>
+    <t>Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
+  </si>
+  <si>
+    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
+Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3198,6 +2572,47 @@
 Avoid foods that can aggravate diarrhea. Avoid fatty, high-fiber or highly seasoned foods.
 Drink more fluids. To help avoid dehydration, drink water, juice and broth.
 Avoid foods that can aggravate diarrhea. Avoid fatty, high-fiber or highly seasoned foods.</t>
+  </si>
+  <si>
+    <t>**Drink plenty of liquids**, including water, broths and juices. Avoid caffeine and alcohol.
+Add **semisolid and low-fiber foods** gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
+**Avoid certain foods** such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
+**Consider taking probiotics.** These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
+  </si>
+  <si>
+    <t>** पानी, शोरबा और रस सहित बहुत सारे तरल पदार्थ ** पिएं।कैफीन और शराब से बचें।
+** सेमिसोलिड और कम-फाइबर खाद्य पदार्थ जोड़ें ** धीरे-धीरे अपने आंत्र आंदोलनों के सामान्य रूप से लौटते हैं।सोडा पटाखे, टोस्ट, अंडे, चावल या चिकन का प्रयास करें।
+** कुछ खाद्य पदार्थों से बचें
+** प्रोबायोटिक्स लेने पर विचार करें। ** ये सूक्ष्मजीव अच्छे बैक्टीरिया के स्तर को बढ़ाकर आंतों के मार्ग को एक स्वस्थ संतुलन को बहाल करने में मदद कर सकते हैं, हालांकि यह स्पष्ट नहीं है कि क्या वे दस्त के एक मुकाबले को छोटा करने में मदद कर सकते हैं।प्रोबायोटिक्स कैप्सूल या तरल रूप में उपलब्ध हैं और कुछ खाद्य पदार्थों में भी जोड़े जाते हैं, जैसे कि दही के कुछ ब्रांड।</t>
+  </si>
+  <si>
+    <t>dizziness</t>
+  </si>
+  <si>
+    <t>सिर चकराना (dizziness)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dizziness/symptoms-causes/syc-20371787</t>
+  </si>
+  <si>
+    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
+Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.</t>
+  </si>
+  <si>
+    <t>A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
+  </si>
+  <si>
+    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
+Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
+A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3325,6 +2740,65 @@
 If your dizziness causes you to feel like you might fall, take steps to reduce your risk. Keep your home well lighted and free of hazards that might cause you to trip. Avoid area rugs and exposed electrical cords. Place furniture where you're unlikely to bump into it, and use nonslip mats in the bathtub and on shower floors.</t>
   </si>
   <si>
+    <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
+Avoid moving suddenly and walk with a cane for stability, if needed.
+Fall-proof your home by removing tripping hazards such as area rugs and exposed electrical cords. Use nonslip mats on your bath and shower floors. Use good lighting.
+Sit or lie down immediately when you feel dizzy. Lie still with your eyes closed in a darkened room if you're experiencing a severe episode of vertigo.
+Avoid driving a car or operating heavy machinery if you experience frequent dizziness without warning.
+Avoid using caffeine, alcohol, salt and tobacco. Excessive use of these substances can worsen your signs and symptoms.
+Drink enough fluids, eat a healthy diet, get enough sleep and avoid stress.
+If your dizziness is caused by a medication, talk with your doctor about discontinuing it or lowering the dose.
+If your dizziness comes with nausea, try an over-the-counter (nonprescription) antihistamine, such as meclizine or dimenhydrinate (Dramamine). These may cause drowsiness. Nondrowsy antihistamines aren't as effective.
+If your dizziness is caused by overheating or dehydration, rest in a cool place and drink water or a sports drink (Gatorade, Powerade, others).</t>
+  </si>
+  <si>
+    <t>अपने संतुलन को खोने की संभावना से अवगत रहें, जिससे गिरने और गंभीर चोट लग सकती है।
+यदि आवश्यक हो तो अचानक जाने से बचें और स्थिरता के लिए एक बेंत के साथ चलें।
+क्षेत्र आसनों और उजागर विद्युत डोरियों जैसे ट्रिपिंग खतरों को हटाकर अपने घर को गिराएं।अपने स्नान और शॉवर फर्श पर nonslip मैट का उपयोग करें।अच्छी रोशनी का उपयोग करें।
+जब आप चक्कर महसूस करते हैं तो तुरंत बैठो या लेट जाओ।यदि आप वर्टिगो के एक गंभीर एपिसोड का अनुभव कर रहे हैं, तो अपनी आँखों को एक अंधेरे कमरे में बंद कर दें।
+यदि आप चेतावनी के बिना लगातार चक्कर का अनुभव करते हैं, तो कार चलाने या भारी मशीनरी का संचालन करने से बचें।
+कैफीन, शराब, नमक और तंबाकू का उपयोग करने से बचें।इन पदार्थों के अत्यधिक उपयोग से आपके संकेत और लक्षण खराब हो सकते हैं।
+पर्याप्त तरल पदार्थ पिएं, एक स्वस्थ आहार खाएं, पर्याप्त नींद लें और तनाव से बचें।
+यदि आपका चक्कर किसी दवा के कारण होता है, तो अपने डॉक्टर से इसे बंद करने या खुराक को कम करने के बारे में बात करें।
+यदि आपका चक्कर आना मतली के साथ आता है, तो एक ओवर-द-काउंटर (नॉनप्रेश्रिप्शन) एंटीहिस्टामाइन, जैसे कि मेक्लिज़िन या डिमेनहाइड्रिनेट (ड्रामाइन) का प्रयास करें।ये उनींदापन का कारण बन सकते हैं।Nondrowsy एंटीहिस्टामाइन उतने प्रभावी नहीं हैं।
+यदि आपका चक्कर आना ओवरहीटिंग या निर्जलीकरण के कारण होता है, तो एक ठंडी जगह पर आराम करें और पानी या स्पोर्ट्स ड्रिंक (गेटोरेड, पॉवरडे, अन्य) पीएं।</t>
+  </si>
+  <si>
+    <t>farsightedness</t>
+  </si>
+  <si>
+    <t>दूरदर्शिता (farsightedness)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/farsightedness/symptoms-causes/syc-20372495</t>
+  </si>
+  <si>
+    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
+The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.</t>
+  </si>
+  <si>
+    <t>Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
+    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
+The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
+Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Farsightedness is diagnosed by a basic eye exam, which includes a refraction assessment and an eye health exam.
 A refraction assessment determines if you have vision problems such as nearsightedness or farsightedness, astigmatism, or presbyopia. Your doctor may use various instruments and ask you to look through several lenses to test your distance and close-up vision.
@@ -3413,6 +2887,65 @@
 When did you begin wearing glasses or contacts?.
 Do you have any serious medical problems, such as diabetes?.
 Have you started any new medications, supplements or herbal preparations?</t>
+  </si>
+  <si>
+    <t>Have your eyes checked. Do this regularly even if you see well.
+Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
+Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
+Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
+Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
+Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
+Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
+Use good lighting. Turn up or add light to see better.
+Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes for 20 seconds at something 20 feet away.</t>
+  </si>
+  <si>
+    <t>क्या आपकी आँखों की जाँच की गई है।अगर आप अच्छी तरह से देखते हैं तो भी इसे नियमित रूप से करें।
+पुरानी स्वास्थ्य स्थितियों को नियंत्रित करें।कुछ शर्तें, जैसे कि मधुमेह और उच्च रक्तचाप, इलाज नहीं होने पर आपकी दृष्टि को प्रभावित कर सकते हैं।
+अपनी आँखों को सूरज से बचाएं।धूप का चश्मा पहनें जो पराबैंगनी (यूवी) विकिरण को अवरुद्ध करते हैं।
+आंखों की चोटों को रोकें।कुछ चीजें करते समय सुरक्षात्मक आईवियर पहनें, जैसे कि खेल खेलना, लॉन की घास बनाना, पेंटिंग करना या विषाक्त धुएं के साथ अन्य उत्पादों का उपयोग करना।
+स्वस्थ खाद्य पदार्थ खाएं।बहुत सारे पत्तेदार साग, अन्य सब्जियां और फल खाने की कोशिश करें।और अध्ययनों से पता चलता है कि यदि आप अपने आहार मछली में ओमेगा -3 फैटी एसिड में भी शामिल हैं, जैसे कि ट्यूना और सैल्मन जैसे आपकी आंखें भी लाभान्वित होती हैं।
+धूम्रपान मत करो।जिस तरह धूम्रपान आपके शरीर के बाकी हिस्सों के लिए अच्छा नहीं है, उसी तरह धूम्रपान आपके आंखों के स्वास्थ्य पर भी प्रतिकूल प्रभाव डाल सकता है।
+सही सुधारात्मक लेंस का उपयोग करें।सही लेंस आपकी दृष्टि का अनुकूलन करते हैं।नियमित परीक्षा देने से यह सुनिश्चित होगा कि आपका नुस्खा सही है।
+अच्छी रोशनी का उपयोग करें।बेहतर देखने के लिए ऊपर या प्रकाश जोड़ें।
+आईस्ट्रेन को कम करें।अपने कंप्यूटर या निकट-कार्य के काम से दूर देखें, जिसमें पढ़ना शामिल है, 20 सेकंड के लिए हर 20 मिनट में 20 फीट दूर।</t>
+  </si>
+  <si>
+    <t>generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t>सामान्यीकृत चिंता विकार (generalized anxiety disorder)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/generalized-anxiety-disorder/symptoms-causes/syc-20360803</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.</t>
+  </si>
+  <si>
+    <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.
+Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3530,6 +3063,53 @@
 Do you have any blood relatives with anxiety or other mental health conditions, such as depression?</t>
   </si>
   <si>
+    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
+Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
+Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
+Eat healthy. Healthy eating such as focusing on vegetables, fruits, whole grains and fish may be linked to reduced anxiety, but more research is needed.
+Avoid alcohol and recreational drugs. These substances can worsen anxiety.
+Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
+  </si>
+  <si>
+    <t>शारीरिक रूप से सक्रिय रखें।एक दिनचर्या विकसित करें ताकि आप सप्ताह के अधिकांश दिनों में शारीरिक रूप से सक्रिय हों।व्यायाम एक शक्तिशाली तनाव कम करने वाला है।यह आपके मूड में सुधार कर सकता है और आपको स्वस्थ रहने में मदद कर सकता है।धीरे -धीरे शुरू करें और धीरे -धीरे अपनी गतिविधियों की मात्रा और तीव्रता बढ़ाएं।
+नींद को प्राथमिकता दें।यह सुनिश्चित करने के लिए कि आप आराम महसूस करने के लिए पर्याप्त नींद ले रहे हैं।यदि आप अच्छी तरह से नहीं सो रहे हैं, तो अपने डॉक्टर को देखें।
+विश्राम तकनीकों का उपयोग करें।विज़ुअलाइज़ेशन तकनीक, ध्यान और योग विश्राम तकनीकों के उदाहरण हैं जो चिंता को कम कर सकते हैं।
+स्वस्थ खाओ।स्वस्थ भोजन जैसे कि सब्जियों, फलों, साबुत अनाज और मछली पर ध्यान केंद्रित करना कम चिंता से जुड़ा हो सकता है, लेकिन अधिक शोध की आवश्यकता है।
+शराब और मनोरंजक दवाओं से बचें।ये पदार्थ चिंता को खराब कर सकते हैं।
+धूम्रपान छोड़ें और वापस काट लें या कॉफी पीना छोड़ दें।निकोटीन और कैफीन दोनों चिंता को खराब कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>head lice</t>
+  </si>
+  <si>
+    <t>सिर की जूं (head lice)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/head-lice/symptoms-causes/syc-20356180</t>
+  </si>
+  <si>
+    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
+Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
+Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.</t>
+  </si>
+  <si>
+    <t>Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
+  </si>
+  <si>
+    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
+Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
+Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
+Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
+  </si>
+  <si>
     <t>Diagnosis.
 According to the American Academy of Pediatrics guidelines, the gold standard for diagnosing head lice is to identify a live nymph or adult louse.
 The guidelines recommend examining wet hair lubricated with hair conditioner or another product. Your child's health care provider will carefully comb your child's hair with a fine-toothed comb (nit comb) from the scalp to the end of the hair. If no live louse is found, the provider will likely repeat the entire exam at a second appointment.
@@ -3596,6 +3176,34 @@
 Vacuum. Give the floor and upholstered furniture a good vacuuming.
 Preparing for your appointment.
 See your family's health care provider or pediatrician if you suspect that your child has head lice. The provider will examine your child's scalp and look for a live nymph or adult louse to determine if he or she has head lice. The provider can carefully inspect your child's hair. If necessary, the provider can examine suspect items under a microscope before confirming that head lice are present.</t>
+  </si>
+  <si>
+    <t>**Tea tree oil.** Tea tree oil is a popular home remedy for many skin conditions because of its antimicrobial properties.
+**Anise oil.** Anise oil may coat and suffocate liceTrusted Source. A 2018 study of natural remedies for lice in children found that anise oil was one of the most effective natural remedies.
+**Coconut oil.** Research has shown that applying pure coconut oil killed an average of 80% of the head lice within 4 hours of applying the oil.</t>
+  </si>
+  <si>
+    <t>hiccups</t>
+  </si>
+  <si>
+    <t>हिचकी (hiccups)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/hiccups/symptoms-causes/syc-20352613</t>
+  </si>
+  <si>
+    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.</t>
+  </si>
+  <si>
+    <t>hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
+  </si>
+  <si>
+    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
+hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3686,6 +3294,51 @@
 Have you had a sore throat or changes in your voice?.
 Have you had chest pain, a cough or difficulty breathing?.
 Do you have headaches or other neurological symptoms?</t>
+  </si>
+  <si>
+    <t>Breathe into a paper bag
+Gargle with ice water
+Hold your breath
+Sip cold water</t>
+  </si>
+  <si>
+    <t>एक पेपर बैग में सांस लें
+बर्फ के पानी से घिरना
+अपनी सांस रोके
+ठंडा पानी</t>
+  </si>
+  <si>
+    <t>indigestion</t>
+  </si>
+  <si>
+    <t>खट्टी डकार (indigestion)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/indigestion/symptoms-causes/syc-20352211</t>
+  </si>
+  <si>
+    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
+Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
+Indigestion may often be relieved with lifestyle changes and medications.</t>
+  </si>
+  <si>
+    <t>Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
+  </si>
+  <si>
+    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
+Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
+Indigestion may often be relieved with lifestyle changes and medications.
+Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3808,6 +3461,57 @@
 Have you had nausea or vomiting or both?</t>
   </si>
   <si>
+    <t>Eating smaller, more-frequent meals. Chew your food slowly and thoroughly.
+Avoiding triggers. Fatty and spicy foods, processed foods, carbonated beverages, caffeine, alcohol, and smoking can trigger indigestion.
+Maintaining a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to back up into your esophagus.
+Exercising regularly. Exercise helps you keep off extra weight and promotes better digestion.
+Managing stress. Create a calm environment at mealtime. Practice relaxation techniques, such as deep breathing, meditation or yoga. 
+Spend time doing things you enjoy. 
+Get plenty of sleep.
+Changing your medications. With your doctor's approval, stop or cut back on pain relievers or other medications that may irritate your stomach lining. If that's not an option, be sure to take these medications with food.</t>
+  </si>
+  <si>
+    <t>छोटे, अधिक-अक्सर भोजन खाने से।अपने भोजन को धीरे -धीरे और अच्छी तरह से चबाएं।
+ट्रिगर से बचना।वसायुक्त और मसालेदार खाद्य पदार्थ, प्रसंस्कृत खाद्य पदार्थ, कार्बोनेटेड पेय, कैफीन, शराब और धूम्रपान अपच को ट्रिगर कर सकते हैं।
+एक स्वस्थ वजन बनाए रखना।अतिरिक्त पाउंड आपके पेट पर दबाव डालते हैं, आपके पेट को धक्का देते हैं और एसिड को आपके अन्नप्रणाली में वापस ले जाते हैं।
+नियमित रूप से व्यायाम करना।व्यायाम आपको अतिरिक्त वजन रखने में मदद करता है और बेहतर पाचन को बढ़ावा देता है।
+प्रबंधन तनाव।भोजन के समय एक शांत वातावरण बनाएं।विश्राम तकनीक का अभ्यास करें, जैसे गहरी श्वास, ध्यान या योग।
+उन चीजों को करने में समय बिताएं जिनका आप आनंद लेते हैं।
+पूरी नींद लें।
+अपनी दवाओं को बदलना।अपने डॉक्टर की स्वीकृति के साथ, दर्द निवारक या अन्य दवाओं पर रोक या कटौती करें जो आपके पेट के अस्तर को परेशान कर सकते हैं।यदि यह एक विकल्प नहीं है, तो इन दवाओं को भोजन के साथ लेना सुनिश्चित करें।</t>
+  </si>
+  <si>
+    <t>ingrown hair</t>
+  </si>
+  <si>
+    <t>अंतर्वर्धी बाल (ingrown hair)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-hair/symptoms-causes/syc-20373893</t>
+  </si>
+  <si>
+    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.</t>
+  </si>
+  <si>
+    <t>Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
+  </si>
+  <si>
+    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
+Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider is likely to diagnose ingrown hair by looking at your skin and asking about your hair removal habits.
 Treatment.
@@ -3897,6 +3601,59 @@
 In the days before your medical appointment, if possible, stop shaving or using any form of hair removal. Ingrown hair may worsen at first as the hair grows back. But eventually it improves.</t>
   </si>
   <si>
+    <t>Shave at least twice a week.
+Don't tweeze ingrown hairs.
+Before shaving wash the affected area using a warm washcloth or soft-bristled toothbrush. Use a circular motion for a few minutes.
+Apply a warm, damp cloth for a few more minutes.
+Apply shaving cream, don't let it dry out and use a sharp, single-blade razor.
+Don't pull your skin while shaving.
+Shave in the direction of hair growth.
+Rinse the blade after each stroke.
+Release visible ingrown hairs by inserting a sterile needle under each hair loop and gently lifting the tip that has grown back into the skin.
+Rinse your skin and apply a cool, wet cloth for a few minutes. Then use a soothing after-shave product. If needed, try using a 1% hydrocortisone cream for no more than four weeks.</t>
+  </si>
+  <si>
+    <t>सप्ताह में कम से कम दो बार दाढ़ी।
+घुसपैठ के बालों को ट्वीज़ न करें।
+शेविंग से पहले एक गर्म वॉशक्लॉथ या नरम-ब्रिसल्ड टूथब्रश का उपयोग करके प्रभावित क्षेत्र को धोएं।कुछ मिनटों के लिए एक परिपत्र गति का उपयोग करें।
+कुछ और मिनटों के लिए एक गर्म, नम कपड़ा लगाएं।
+शेविंग क्रीम लगाएं, इसे सूखने न दें और एक तेज, सिंगल-ब्लेड रेजर का उपयोग करें।
+शेविंग करते समय अपनी त्वचा को न खींचें।
+बालों के विकास की दिशा में दाढ़ी।
+प्रत्येक स्ट्रोक के बाद ब्लेड को कुल्ला।
+प्रत्येक हेयर लूप के नीचे एक बाँझ सुई डालकर और धीरे -धीरे उस टिप को उठाते हुए जो त्वचा में वापस आ गया है, को उठाते हैं।
+अपनी त्वचा को रगड़ें और कुछ मिनटों के लिए एक शांत, गीला कपड़ा लगाएं।फिर एक सुखदायक के बाद की शेव उत्पाद का उपयोग करें।यदि आवश्यक हो, तो चार सप्ताह से अधिक के लिए 1% हाइड्रोकार्टिसोन क्रीम का उपयोग करने का प्रयास करें।</t>
+  </si>
+  <si>
+    <t>ingrown toenails</t>
+  </si>
+  <si>
+    <t>अंतर्वर्धित toenails (ingrown toenails)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-toenails/symptoms-causes/syc-20355903</t>
+  </si>
+  <si>
+    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
+Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.</t>
+  </si>
+  <si>
+    <t>Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
+  </si>
+  <si>
+    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
+Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
+Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider can diagnose an ingrown toenail based on your symptoms and a physical examination of the nail and the surrounding skin.
 Treatment.
@@ -3952,6 +3709,57 @@
 Do you have the symptoms all the time?.
 What at-home treatments have you used?.
 Do you have diabetes or another condition that causes poor blood flow to your legs or feet?</t>
+  </si>
+  <si>
+    <t>Soak your feet in warm, soapy water. Do this for 10 to 20 minutes 3 to 4 times a day until the toe improves.
+Place cotton or dental floss under your toenail. After each soaking, put fresh bits of cotton or waxed dental floss under the ingrown edge. This will help the nail grow above the skin edge.
+Apply petroleum jelly. Put petroleum jelly (Vaseline) on the tender area and bandage the toe.
+Choose sensible footwear. Consider wearing open-toed shoes or sandals until your toe feels better.
+Take pain relievers. A nonprescription pain reliever such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) may help ease the toe pain.</t>
+  </si>
+  <si>
+    <t>अपने पैरों को गर्म, साबुन के पानी में भिगोएँ।जब तक पैर की अंगुली में सुधार न हो जाए, तब तक 10 से 20 मिनट 3 से 4 बार ऐसा करें।
+अपने toenail के नीचे कपास या डेंटल फ्लॉस रखें।प्रत्येक भिगोने के बाद, अंतर्वर्धित किनारे के नीचे कपास या लच्छेदार दंत फ्लॉस के ताजा बिट्स डालें।यह नाखून को त्वचा के किनारे से ऊपर बढ़ने में मदद करेगा।
+पेट्रोलियम जेली लागू करें।टेंडर क्षेत्र पर पेट्रोलियम जेली (वैसलीन) डालें और पैर की अंगुली को पट्टी करें।
+समझदार जूते चुनें।खुले-पैर वाले जूते या सैंडल पहनने पर विचार करें जब तक कि आपके पैर की अंगुली बेहतर न लगे।
+दर्द निवारक लें।एक नॉनप्रेशक्रिप्शन दर्द रिलीवर जैसे कि एसिटामिनोफेन (टाइलेनॉल, अन्य) या इबुप्रोफेन (एडविल, मोट्रिन आईबी, अन्य) पैर की अंगुली दर्द को कम करने में मदद कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>menstrual cramps</t>
+  </si>
+  <si>
+    <t>मासिक धर्म ऐंठन (menstrual cramps)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/menstrual-cramps/symptoms-causes/syc-20374938</t>
+  </si>
+  <si>
+    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
+For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.</t>
+  </si>
+  <si>
+    <t>Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
+  </si>
+  <si>
+    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
+For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
+Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4046,6 +3854,49 @@
 What treatments have you tried so far, if any? Has anything helped?.
 Do women in your family have a history of similar symptoms?.
 When you have cramps, try taking a warm bath or applying a heating pad, hot water bottle or heat patch to your abdomen. Over-the-counter pain relievers, such as ibuprofen, also might help.</t>
+  </si>
+  <si>
+    <t>**Exercise regularly.** Physical activity, including sex, helps ease menstrual cramps for some women.
+**Yoga.** Certain yoga poses can help relieve the pain.
+https://medhyaherbals.com/wp-content/uploads/2022/04/Yoga-for-Period-Pain-Relief-min-683x1024.png
+**Use heat.** Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
+**Reduce stress.** Psychological stress might increase your risk of menstrual cramps and their severity.</t>
+  </si>
+  <si>
+    <t>** नियमित रूप से व्यायाम करें। ** सेक्स सहित शारीरिक गतिविधि, कुछ महिलाओं के लिए मासिक धर्म की ऐंठन को कम करने में मदद करती है।
+** योग। ** कुछ योग पोज़ दर्द को दूर करने में मदद कर सकते हैं।
+https://medhaherbals.com/wp-content/uploads/2022/04/yoga-for-period-pain-relief-min-683x1024.png
+** गर्मी का उपयोग करें। ** गर्म स्नान में भिगोने या अपने निचले पेट पर गर्म पानी की बोतल या गर्मी पैच का उपयोग करके मासिक धर्म की ऐंठन को कम कर सकता है।
+** तनाव को कम करें। ** मनोवैज्ञानिक तनाव से मासिक धर्म की ऐंठन और उनकी गंभीरता के आपके जोखिम को बढ़ा सकता है।</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>माइग्रेन (migraine)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/migraine-headache/symptoms-causes/syc-20360201</t>
+  </si>
+  <si>
+    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
+For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.</t>
+  </si>
+  <si>
+    <t>Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
+  </si>
+  <si>
+    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
+For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.
+Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4186,6 +4037,53 @@
 Does anyone else in your family have migraines?</t>
   </si>
   <si>
+    <t>Try relaxation techniques. Biofeedback and other forms of relaxation training teach you ways to deal with stressful situations, which might help reduce the number of migraines you have.
+Develop a sleeping and eating routine. Don't sleep too much or too little. Set and follow a consistent sleep and wake schedule daily. Try to eat meals at the same time every day.
+Drink plenty of fluids. Staying hydrated, particularly with water, might help.
+Keep a headache diary. Recording your symptoms in a headache diary will help you learn more about what triggers your migraines and what treatment is most effective. It will also help your doctor diagnose your condition and track your progress in between visits.
+Exercise regularly. Regular aerobic exercise reduces tension and can help prevent a migraine. If your doctor agrees, choose aerobic activity you enjoy, such as walking, swimming and cycling. Warm up slowly, however, because sudden, intense exercise can cause headaches.
+Regular exercise can also help you lose weight or maintain a healthy body weight, and obesity is thought to be a factor in migraines.</t>
+  </si>
+  <si>
+    <t>विश्राम तकनीकों का प्रयास करें।बायोफीडबैक और विश्राम प्रशिक्षण के अन्य रूप आपको तनावपूर्ण स्थितियों से निपटने के तरीके सिखाते हैं, जो आपके पास मौजूद माइग्रेन की संख्या को कम करने में मदद कर सकते हैं।
+एक नींद और खाने की दिनचर्या विकसित करें।बहुत ज्यादा या बहुत कम नींद न लें।एक सुसंगत नींद और प्रतिदिन शेड्यूल का पालन करें।हर दिन एक ही समय में भोजन खाने की कोशिश करें।
+अधिक मात्रा में तरल पदार्थ पीओ।विशेष रूप से पानी के साथ हाइड्रेटेड रहना, मदद कर सकता है।
+सिरदर्द डायरी रखें।एक सिरदर्द डायरी में अपने लक्षणों को रिकॉर्ड करने से आपको यह जानने में मदद मिलेगी कि आपके माइग्रेन को ट्रिगर क्या है और क्या उपचार सबसे प्रभावी है।यह आपके डॉक्टर को आपकी स्थिति का निदान करने और यात्राओं के बीच आपकी प्रगति को ट्रैक करने में भी मदद करेगा।
+नियमित रूप से व्यायाम करें।नियमित एरोबिक व्यायाम तनाव को कम करता है और एक माइग्रेन को रोकने में मदद कर सकता है।यदि आपका डॉक्टर सहमत हैं, तो एरोबिक गतिविधि का चयन करें, जैसे कि चलना, तैराकी और साइकिल चलाना।हालांकि, धीरे -धीरे गर्म अप करें, क्योंकि अचानक, तीव्र व्यायाम सिरदर्द का कारण बन सकता है।
+नियमित व्यायाम आपको वजन कम करने या स्वस्थ शरीर के वजन को बनाए रखने में भी मदद कर सकता है, और मोटापे को माइग्रेन में एक कारक माना जाता है।</t>
+  </si>
+  <si>
+    <t>mosquito bites</t>
+  </si>
+  <si>
+    <t>मच्छर का काटा (mosquito bites)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/mosquito-bites/symptoms-causes/syc-20375310</t>
+  </si>
+  <si>
+    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).</t>
+  </si>
+  <si>
+    <t>An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
+  </si>
+  <si>
+    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
+An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Doctors can usually identify mosquito bites by sight.
 The red, itchy, painful swelling referred to as skeeter syndrome is sometimes mistaken for a secondary bacterial infection brought on by scratching and broken skin. Skeeter syndrome is actually the result of an allergic reaction to proteins in mosquito saliva. There's no simple blood test to detect mosquito antibodies in blood, so mosquito allergy is diagnosed by determining whether the large, red areas of swelling and itching occurred after you were bitten by mosquitoes.
@@ -4217,6 +4115,45 @@
 Does the medication you're prescribing have any side effects?.
 How will I know if I need additional care?.
 If itching is a problem, an over-the-counter antihistamine (Benadryl, Chlor-Trimeton, others) may help.</t>
+  </si>
+  <si>
+    <t>**Apply a lotion, cream or paste.** Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch.  Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
+**Apply a cool compress.** Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.</t>
+  </si>
+  <si>
+    <t>** एक लोशन, क्रीम या पेस्ट लागू करें। ** काटने पर कैलामाइन लोशन या नॉनप्रेस्रिप्शन हाइड्रोकार्टिसोन क्रीम डालने से खुजली को कम करने में मदद मिल सकती है।या बेकिंग सोडा और पानी से बने पेस्ट के साथ काटने की कोशिश करें।जब तक आपके लक्षण दूर न हो जाएं, तब तक कई बार दैनिक करें।
+** एक शांत संपीड़ित लागू करें। ** कुछ मिनटों के लिए एक कोल्ड पैक या एक शांत, नम कपड़े को लागू करके काटने की कोशिश करें।</t>
+  </si>
+  <si>
+    <t>muscle cramp</t>
+  </si>
+  <si>
+    <t>मांसपेशी ऐंठन (muscle cramp)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/muscle-cramp/symptoms-causes/syc-20350820</t>
+  </si>
+  <si>
+    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.</t>
+  </si>
+  <si>
+    <t>Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
+  </si>
+  <si>
+    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
+Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
   </si>
   <si>
     <t>Treatment.
@@ -4279,6 +4216,52 @@
 Does stretching relieve your cramps?.
 Do you have other symptoms, such as muscle weakness or numbness?.
 Have you noticed changes in your urine after exercise?</t>
+  </si>
+  <si>
+    <t>Ice-pack: You may also undo a muscle cramp with ice as it acts an effective pain reliever and an anti-inflammatory agent. All you need to do is massage the area with ice for no more than 10 minutes or until the area is bright red, which indicates that blood cells have returned to heat the cramped muscle.
+Turmeric and alum: Turmeric is one of the potentantiseptic compounds which is widely used as a pain reliever, while alum is well-known for its soothing and blood thinning property. When the two are combined, they provide effective result against muscle cramp. Apply a thick past of turmeric and alum over the affected area. Do not massage the area and leave it to dry. Doing this at least twice a day for two days aid in reducing pain and swelling due to muscle cramps. 
+Warm compress: Another age-old remedy to combat muscle pain caused due to crampsis to try warm compress. This is because, heat improves superficial blood circulation and makes muscles more flexible, so some people find that heat is more soothing for muscle cramps than ice. 
+Salt: Easily available in any household, common salt is an amazing home remedy to get rid of muscle cramps. As lack of sodium in the body triggers muscle cramping, intake of fluids containing salt might do the trick. All you need to do is add 2-3 teaspoon sugar and 1/2 teaspoon salt and lemon juice to a litre of water and drink this solution at intervals to get rid of cramps. You can also apply salt pack (heat a fistful of salt over a pan, put it in a cloth) over the affected for relief.
+Stretching: Stretching is one of the most effective home remedy to beat muscle cramps of various parts of the body namely legs, arms, thighs, calf and palm. Do some stretching exercises for at least 5 to 10 minutes (as warm-up and cool-down periods) to combat pain. Read in detail about how to get rid of those muscle cramps for good!</t>
+  </si>
+  <si>
+    <t>आइस-पैक: आप बर्फ के साथ एक मांसपेशी ऐंठन को भी पूर्ववत कर सकते हैं क्योंकि यह एक प्रभावी दर्द रिलीवर और एक विरोधी भड़काऊ एजेंट का कार्य करता है।आपको बस इतना करने की आवश्यकता है कि 10 मिनट से अधिक या जब तक क्षेत्र उज्ज्वल लाल न हो, तब तक बर्फ के साथ क्षेत्र की मालिश करें, जो इंगित करता है कि रक्त कोशिकाएं तंग मांसपेशियों को गर्म करने के लिए वापस आ गई हैं।
+हल्दी और फिटकिरी: हल्दी पोटेंपेंटिसेप्टिक यौगिकों में से एक है जो व्यापक रूप से एक दर्द निवारक के रूप में उपयोग किया जाता है, जबकि फिटकिरी अपनी सुखदायक और रक्त पतले संपत्ति के लिए अच्छी तरह से जाना जाता है।जब दोनों को संयुक्त किया जाता है, तो वे मांसपेशियों में ऐंठन के खिलाफ प्रभावी परिणाम प्रदान करते हैं।प्रभावित क्षेत्र पर हल्दी और फिटकिरी के एक मोटे अतीत को लागू करें।क्षेत्र की मालिश न करें और इसे सूखने के लिए छोड़ दें।मांसपेशियों में ऐंठन के कारण दर्द और सूजन को कम करने में दो दिनों के लिए दिन में कम से कम दो बार ऐसा करना।
+वार्म संपीड़ित: गर्म संपीड़न की कोशिश करने के लिए क्रैम्पिस के कारण मांसपेशियों के दर्द का मुकाबला करने के लिए एक और सदियों पुराना उपाय।ऐसा इसलिए है, क्योंकि गर्मी सतही रक्त परिसंचरण में सुधार करती है और मांसपेशियों को अधिक लचीला बनाती है, इसलिए कुछ लोग पाते हैं कि गर्मी बर्फ की तुलना में मांसपेशियों में ऐंठन के लिए अधिक सुखदायक है।
+नमक: आसानी से किसी भी घर में उपलब्ध है, आम नमक मांसपेशियों में ऐंठन से छुटकारा पाने के लिए एक अद्भुत घरेलू उपाय है।जैसा कि शरीर में सोडियम की कमी मांसपेशियों में ऐंठन को ट्रिगर करती है, नमक युक्त तरल पदार्थों का सेवन चाल कर सकता है।आपको बस एक लीटर पानी में 2-3 चम्मच चीनी और 1/2 चम्मच नमक और नींबू का रस जोड़ने की जरूरत है और ऐंठन से छुटकारा पाने के लिए इस समाधान को अंतराल पर पीना है।आप राहत के लिए प्रभावित होने वाले नमक पैक (एक पैन के ऊपर एक मुट्ठी भर नमक, एक कपड़े में डालें) भी लगा सकते हैं।
+स्ट्रेचिंग: स्ट्रेचिंग शरीर के विभिन्न हिस्सों की मांसपेशियों में ऐंठन को हराने के लिए सबसे प्रभावी घरेलू उपाय है, अर्थात् पैर, हाथ, जांघ, बछड़ा और हथेली।दर्द से निपटने के लिए कम से कम 5 से 10 मिनट (वार्म-अप और कूल-डाउन अवधि के रूप में) के लिए कुछ स्ट्रेचिंग अभ्यास करें।अच्छे के लिए उन मांसपेशियों में ऐंठन से छुटकारा पाने के बारे में विस्तार से पढ़ें!</t>
+  </si>
+  <si>
+    <t>myopia</t>
+  </si>
+  <si>
+    <t>निकट दृष्टि दोष (myopia)</t>
+  </si>
+  <si>
+    <t>nearsightedness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/nearsightedness/symptoms-causes/syc-20375556</t>
+  </si>
+  <si>
+    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
+Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.</t>
+  </si>
+  <si>
+    <t>Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
+  </si>
+  <si>
+    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
+Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
+Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4399,6 +4382,59 @@
 Have you started to take any new medications, supplements or herbal preparations?</t>
   </si>
   <si>
+    <t>Get regular eye exams.
+Protect your eyes from the sun.
+Wear protective eyewear during sports or work that can result in eye injuries.
+Use good lighting when reading and working.
+Wear prescription lenses as directed.
+Care for prescription glasses or contact lenses as directed.
+Rest your eyes from computer or other close-up work every 20 minutes by looking at something 20 feet away for 20 seconds.
+Eat healthy foods.
+Get regular exercise.
+Control health conditions, such as high blood pressure or diabetes, that can affect your vision.
+Don't smoke.</t>
+  </si>
+  <si>
+    <t>नियमित नेत्र परीक्षा प्राप्त करें।
+अपनी आँखों को सूरज से बचाएं।
+खेल या काम के दौरान सुरक्षात्मक आईवियर पहनें जिसके परिणामस्वरूप आंखों की चोटें हो सकती हैं।
+पढ़ने और काम करते समय अच्छी रोशनी का उपयोग करें।
+निर्देशित के रूप में पर्चे लेंस पहनें।
+निर्देशित के रूप में पर्चे के चश्मे या संपर्क लेंस की देखभाल करें।
+20 सेकंड के लिए 20 फीट दूर कुछ देखकर हर 20 मिनट में कंप्यूटर या अन्य क्लोज-अप काम से अपनी आँखें आराम करें।
+स्वस्थ खाद्य पदार्थ खाएं।
+नियमित व्यायाम करें।
+उच्च रक्तचाप या मधुमेह जैसे स्वास्थ्य की स्थिति को नियंत्रित करें, जो आपकी दृष्टि को प्रभावित कर सकता है।
+धूम्रपान मत करो।</t>
+  </si>
+  <si>
+    <t>neck pain</t>
+  </si>
+  <si>
+    <t>गर्दन में दर्द (neck pain)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/neck-pain/symptoms-causes/syc-20375581</t>
+  </si>
+  <si>
+    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.</t>
+  </si>
+  <si>
+    <t>Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
+  </si>
+  <si>
+    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
+Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will take a medical history and do an exam. The exam will include checking for tenderness, numbness and muscle weakness. And it will test how far you can move your head forward, backward and side to side.
 Imaging tests might help find the cause of the neck pain. Examples include:
@@ -4475,6 +4511,39 @@
 Does the pain radiate into your arm?.
 Is the pain made worse by straining, coughing or sneezing?.
 Do you have other physical problems?</t>
+  </si>
+  <si>
+    <t>Alternate heat and cold massage. Reduce inflammation by applying cold, such as an ice pack or ice wrapped in a towel, for up to 15 minutes several times a day during the first 48 hours. After that, use heat. Try taking a warm shower or using a heating pad on the low setting.
+Home exercises. Keeping the neck moving is important. Begin daily gentle stretching, including neck rolls and shoulder rolls, once the worst of the pain lessens. 
+Gently tilt, bend and rotate the neck. Warm the neck and back with a heating pad or in the shower or bath before doing these exercises.</t>
+  </si>
+  <si>
+    <t>वैकल्पिक गर्मी और ठंड की मालिश।पहले 48 घंटों के दौरान दिन में कई बार 15 मिनट के लिए, ठंड, जैसे कि एक आइस पैक या एक तौलिया में लपेटी बर्फ को लागू करके सूजन को कम करें।उसके बाद, गर्मी का उपयोग करें।एक गर्म शॉवर लेने या कम सेटिंग पर हीटिंग पैड का उपयोग करने का प्रयास करें।
+घर के व्यायाम।गर्दन को हिलाना महत्वपूर्ण है।दैनिक कोमल स्ट्रेचिंग शुरू करें, जिसमें गर्दन के रोल और कंधे के रोल शामिल हैं, एक बार सबसे खराब दर्द कम होता है।
+धीरे से झुकाव, झुकें और गर्दन को घुमाएं।इन अभ्यासों को करने से पहले एक हीटिंग पैड या शॉवर या स्नान में गर्दन और पीठ को गर्म करें।</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>मोटापा (obesity)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/obesity/symptoms-causes/syc-20375742</t>
+  </si>
+  <si>
+    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
+There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.</t>
+  </si>
+  <si>
+    <t>Body mass index (BMI) of 23 or higher</t>
+  </si>
+  <si>
+    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
+There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
+Body mass index (BMI) of 23 or higher</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4631,6 +4700,70 @@
 Increasing your activity level. Try to get up and move around your home more frequently. Start gradually if you aren't in good shape or aren't used to exercising. Even a 10-minute daily walk can help. If you have any health conditions or are over a certain age — over 40 for men and over 50 for women — wait until you've talked to your doctor before you start a new exercise program.</t>
   </si>
   <si>
+    <t>Learning about your condition. Education about obesity can help you learn more about why you developed obesity and what you can do about it. You may feel more empowered to take control and stick to your treatment plan. Read reputable self-help books and consider talking about them with your doctor or therapist.
+Setting realistic goals. When you have to lose a lot of weight, you may set goals that are unrealistic, such as trying to lose too much too fast. Don't set yourself up for failure. Set daily or weekly goals for exercise and weight loss. Make small changes in your diet instead of attempting drastic changes that you're not likely to stick with for the long haul.
+Sticking to your treatment plan. Changing a lifestyle you may have lived with for many years can be difficult. Be honest with your doctor, therapist or other health care professionals if you find your activity or eating goals slipping. You can work together to come up with new ideas or new approaches.
+Enlisting support. Get your family and friends on board with your weight-loss goals. Surround yourself with people who will support you and help you, not sabotage your efforts. Make sure they understand how important weight loss is to your health. You might also want to join a weight-loss support group.
+Keeping a record. Keep a food and activity log. This record can help you remain accountable for your eating and exercise habits. You can discover behavior that may be holding you back and, conversely, what works well for you. You can also use your log to track other important health parameters such as blood pressure and cholesterol levels and overall fitness.</t>
+  </si>
+  <si>
+    <t>अपनी स्थिति के बारे में सीखना।मोटापे के बारे में शिक्षा आपको इस बारे में अधिक जानने में मदद कर सकती है कि आपने मोटापा क्यों विकसित किया है और आप इसके बारे में क्या कर सकते हैं।आप नियंत्रण लेने और अपने उपचार योजना पर रहने के लिए अधिक सशक्त महसूस कर सकते हैं।प्रतिष्ठित स्व-सहायता पुस्तकें पढ़ें और अपने डॉक्टर या चिकित्सक के साथ उनके बारे में बात करने पर विचार करें।
+यथार्थवादी लक्ष्य निर्धारित करना।जब आपको बहुत अधिक वजन कम करना होता है, तो आप ऐसे लक्ष्य निर्धारित कर सकते हैं जो अवास्तविक हैं, जैसे कि बहुत अधिक तेजी से खोने की कोशिश करना।विफलता के लिए खुद को सेट न करें।व्यायाम और वजन घटाने के लिए दैनिक या साप्ताहिक लक्ष्य निर्धारित करें।कठोर बदलावों का प्रयास करने के बजाय अपने आहार में छोटे बदलाव करें, जो आपको लंबी दौड़ के लिए छड़ी करने की संभावना नहीं है।
+अपने उपचार योजना से चिपके हुए।कई वर्षों तक आप एक जीवनशैली को बदलना हो सकता है, मुश्किल हो सकता है।यदि आप अपनी गतिविधि या खाने के लक्ष्यों को फिसलते हुए पाते हैं, तो अपने डॉक्टर, चिकित्सक या अन्य स्वास्थ्य देखभाल पेशेवरों के साथ ईमानदार रहें।आप नए विचारों या नए दृष्टिकोणों के साथ आने के लिए एक साथ काम कर सकते हैं।
+समर्थन का समर्थन।अपने वजन घटाने के लक्ष्यों के साथ अपने परिवार और दोस्तों को बोर्ड पर प्राप्त करें।अपने आप को उन लोगों के साथ घेरें जो आपका समर्थन करेंगे और आपकी मदद करेंगे, न कि आपके प्रयासों को तोड़फोड़ करें।सुनिश्चित करें कि वे समझते हैं कि आपके स्वास्थ्य के लिए वजन कम करना कितना महत्वपूर्ण है।आप एक वेट-लॉस सपोर्ट ग्रुप में भी शामिल होना चाह सकते हैं।
+एक रिकॉर्ड रखना।एक भोजन और गतिविधि लॉग रखें।यह रिकॉर्ड आपको अपने खाने और व्यायाम की आदतों के लिए जवाबदेह बने रहने में मदद कर सकता है।आप ऐसे व्यवहार की खोज कर सकते हैं जो आपको वापस पकड़ सकता है और, इसके विपरीत, आपके लिए क्या अच्छा काम करता है।आप अपने लॉग का उपयोग अन्य महत्वपूर्ण स्वास्थ्य मापदंडों जैसे रक्तचाप और कोलेस्ट्रॉल के स्तर और समग्र फिटनेस को ट्रैक करने के लिए भी कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>obsessive-compulsive disorder</t>
+  </si>
+  <si>
+    <t>जुनूनी बाध्यकारी विकार (obsessive-compulsive disorder)</t>
+  </si>
+  <si>
+    <t>ocd</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/obsessive-compulsive-disorder/symptoms-causes/syc-20354432</t>
+  </si>
+  <si>
+    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
+You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
+OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.</t>
+  </si>
+  <si>
+    <t>Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
+  </si>
+  <si>
+    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
+You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
+OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.
+Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Steps to help diagnose obsessive-compulsive disorder may include:
 Psychological evaluation. This includes discussing your thoughts, feelings, symptoms and behavior patterns to determine if you have obsessions or compulsive behaviors that interfere with your quality of life. With your permission, this may include talking to your family or friends.
@@ -4762,6 +4895,69 @@
 Your doctor or mental health professional will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your appointment time.</t>
   </si>
   <si>
+    <t>Practice what you learn. Work with your mental health professional to identify techniques and skills that help manage symptoms, and practice these regularly.
+Take your medications as directed. Even if you're feeling well, resist any temptation to skip your medications. If you stop, OCD symptoms are likely to return.
+Pay attention to warning signs. You and your doctor may have identified issues that can trigger your OCD symptoms. Make a plan so that you know what to do if symptoms return. Contact your doctor or therapist if you notice any changes in symptoms or how you feel.
+Check first before taking other medications. Contact the doctor who's treating you for OCD before you take medications prescribed by another doctor or before taking any over-the-counter medications, vitamins, herbal remedies or other supplements to avoid possible interactions.</t>
+  </si>
+  <si>
+    <t>आप जो सीखते हैं उसका अभ्यास करें।उन तकनीकों और कौशल की पहचान करने के लिए अपने मानसिक स्वास्थ्य पेशेवर के साथ काम करें जो लक्षणों को प्रबंधित करने में मदद करते हैं, और इन नियमित रूप से अभ्यास करते हैं।
+अपनी दवाओं को निर्देशित के रूप में लें।यहां तक कि अगर आप अच्छी तरह से महसूस कर रहे हैं, तो अपनी दवाओं को छोड़ने के लिए किसी भी प्रलोभन का विरोध करें।यदि आप रुकते हैं, तो ओसीडी के लक्षण लौटने की संभावना है।
+चेतावनी के संकेतों पर ध्यान दें।आपने और आपके डॉक्टर ने उन मुद्दों की पहचान की हो सकती है जो आपके ओसीडी लक्षणों को ट्रिगर कर सकते हैं।एक योजना बनाएं ताकि आप जान सकें कि लक्षण वापस आने पर क्या करना है।यदि आप लक्षणों में कोई बदलाव या आप कैसा महसूस करते हैं, तो अपने डॉक्टर या चिकित्सक से संपर्क करें।
+अन्य दवाओं को लेने से पहले पहले जाँच करें।किसी अन्य डॉक्टर द्वारा निर्धारित दवाएं लेने से पहले या संभावित इंटरैक्शन से बचने के लिए किसी भी ओवर-द-काउंटर दवाओ</t>
+  </si>
+  <si>
+    <t>panic attacks and panic disorder</t>
+  </si>
+  <si>
+    <t>आतंक हमले और आतंक विकार (panic attacks and panic disorder)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/panic-attacks/symptoms-causes/syc-20376021</t>
+  </si>
+  <si>
+    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
+Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.</t>
+  </si>
+  <si>
+    <t>Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
+  </si>
+  <si>
+    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
+Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
+Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your primary care provider will determine if you have panic attacks, panic disorder or another condition, such as heart or thyroid problems, with symptoms that resemble panic attacks.
 To help pinpoint a diagnosis, you may have:
@@ -4890,6 +5086,56 @@
 Your primary care provider or mental health professional will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your appointment time.</t>
   </si>
   <si>
+    <t>Stick to your treatment plan. Facing your fears can be difficult, but treatment can help you feel like you're not a hostage in your own home.
+Join a support group. Joining a group for people with panic attacks or anxiety disorders can connect you with others facing the same problems.
+Avoid caffeine, alcohol, smoking and recreational drugs. All of these can trigger or worsen panic attacks.
+Practice stress management and relaxation techniques. For example, yoga, deep breathing and progressive muscle relaxation, tensing one muscle at a time, and then completely releasing the tension until every muscle in the body is relaxed also may be helpful.
+Get physically active. Aerobic activity may have a calming effect on your mood.
+Get sufficient sleep. Get enough sleep so that you don't feel drowsy during the day.</t>
+  </si>
+  <si>
+    <t>अपने उपचार योजना से चिपके रहें।अपने डर का सामना करना मुश्किल हो सकता है, लेकिन उपचार आपको यह महसूस करने में मदद कर सकता है कि आप अपने घर में बंधक नहीं हैं।
+एक सहायता समूह में शामिल हों।आतंक के हमलों या चिंता विकार वाले लोगों के लिए एक समूह में शामिल होने से आप दूसरों को समान समस्याओं का सामना कर सकते हैं।
+कैफीन, शराब, धूम्रपान और मनोरंजक दवाओं से बचें।ये सभी आतंक के हमलों को ट्रिगर या बिगड़ सकते हैं।
+तनाव प्रबंधन और विश्राम तकनीकों का अभ्यास करें।उदाहरण के लिए, योग, गहरी श्वास और प्रगतिशील मांसपेशियों में छूट, एक समय में एक मांसपेशी को टेंसिंग करना, और फिर पूरी तरह से तनाव को जारी करना जब तक कि शरीर में हर मांसपेशियों को आराम न दिया जाए, यह भी सहायक हो सकता है।
+शारीरिक रूप से सक्रिय हो जाओ।एरोबिक गतिविधि का आपके मूड पर एक शांत प्रभाव पड़ सकता है।
+पर्याप्त नींद लें।पर्याप्त नींद लें ताकि आप दिन के दौरान सूखा महसूस न करें।</t>
+  </si>
+  <si>
+    <t>pink eye</t>
+  </si>
+  <si>
+    <t>गुलाबी आँखे (pink eye)</t>
+  </si>
+  <si>
+    <t>conjunctivitis</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/pink-eye/symptoms-causes/syc-20376355</t>
+  </si>
+  <si>
+    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
+Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.</t>
+  </si>
+  <si>
+    <t>Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
+  </si>
+  <si>
+    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
+Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
+Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In most cases, your doctor can diagnose pink eye by asking questions about your symptoms and recent health history. An office visit is usually not needed.
 Rarely, your doctor may take a sample of the liquid that drains from your eye for laboratory analysis (culture). A culture may be needed if your symptoms are severe or if your doctor suspects a high-risk cause, such as a foreign body in your eye, a serious bacterial infection or a sexually transmitted infection.
@@ -4962,6 +5208,48 @@
 How often do you replace your contact lens storage case?.
 Have you had close contact with anyone who has pink eye or cold or flu symptoms?.
 Stop using contact lenses until you can see your doctor. Wash your hands frequently to lessen the chance of infecting other people. Don't share towels with other people for the same reason.</t>
+  </si>
+  <si>
+    <t>**Apply a compress to your eyes.** To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
+If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
+**Try eyedrops.** Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
+**Stop wearing contact lenses.** If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis.</t>
+  </si>
+  <si>
+    <t>** अपनी आँखों में एक संपीड़ित लागू करें। ** एक संपीड़ित बनाने के लिए, पानी में एक साफ, लिंट-मुक्त कपड़े को भिगोएँ और इसे अपनी बंद पलकों पर धीरे से लगाने से पहले इसे बाहर निकालें।आम तौर पर, एक शांत पानी संपीड़ित सबसे सुखदायक महसूस करेगा, लेकिन आप एक गर्म संपीड़न का भी उपयोग कर सकते हैं यदि यह आपको बेहतर लगता है।
+यदि गुलाबी आंख केवल एक आंख को प्रभावित करती है, तो दोनों आंखों को एक ही कपड़े से न छुएं।यह एक आंख से दूसरी आंख में गुलाबी आंख फैलाने के जोखिम को कम करता है।
+** आईड्रॉप्स की कोशिश करें। ** कृत्रिम आँसू नामक ओवर-द-काउंटर आईड्रॉप्स लक्षणों को राहत दे सकते हैं।कुछ आईड्रॉप में एंटीहिस्टामाइन या अन्य दवाएं होती हैं जो एलर्जी कंजंक्टिवाइटिस वाले लोगों के लिए सहायक हो सकती हैं।
+** संपर्क लेंस पहनना बंद कर दें। ** यदि आप संपर्क लेंस पहनते हैं, तो आपको उन्हें पहनने से रोकने की आवश्यकता हो सकती है जब तक कि आपकी आँखें बेहतर न महसूस करें।संपर्क लेंस के बिना आपको कब तक जाने की आवश्यकता होगी, यह इस बात पर निर्भर करता है कि आपके नेत्रश्लेष्मलाशोथ क्या है।</t>
+  </si>
+  <si>
+    <t>polycystic ovary syndrome</t>
+  </si>
+  <si>
+    <t>पॉलीसिस्टिक अंडाशय सिंड्रोम (polycystic ovary syndrome)</t>
+  </si>
+  <si>
+    <t>pcos</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/pcos/symptoms-causes/syc-20353439</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
+With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.</t>
+  </si>
+  <si>
+    <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
+With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
+Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -5068,6 +5356,80 @@
 Has any close blood relative, such as your mother or a sister, ever been diagnosed with PCOS?</t>
   </si>
   <si>
+    <t>Stay at a healthy weight. Weight loss can lower insulin and androgen levels. It also may restore ovulation. 
+Ask your health care provider about a weight-control program, if you need one. Meet with a registered dietitian for help in reaching weight-loss goals.
+Limit carbohydrates. High-carbohydrate diets might make insulin levels go higher. Ask your provider if a low-carbohydrate diet could help if you have PCOS. 
+Choose complex carbohydrates, which raise your blood sugar levels more slowly. Complex carbohydrates are found in fruits, vegetables, whole grains and cooked dry beans and peas.
+Be active. Exercise helps lower blood sugar levels. If you have PCOS, increasing your daily activity and getting regular exercise may treat or even prevent insulin resistance. Being active may also help you keep your weight under control and avoid developing diabetes.</t>
+  </si>
+  <si>
+    <t>एक स्वस्थ वजन पर रहें।वजन घटाने से इंसुलिन और एण्ड्रोजन का स्तर कम हो सकता है।यह ओव्यूलेशन को भी बहाल कर सकता है।
+यदि आपको एक की आवश्यकता है, तो अपने स्वास्थ्य देखभाल प्रदाता से वजन-नियंत्रण कार्यक्रम के बारे में पूछें।वजन घटाने के लक्ष्यों तक पहुंचने में मदद के लिए एक पंजीकृत आहार विशेषज्ञ से मिलें।
+कार्बोहाइड्रेट को सीमित करें।उच्च-कार्बोहाइड्रेट आहार इंसुलिन का स्तर अधिक हो सकता है।अपने प्रदाता से पूछें कि क्या कम कार्बोहाइड्रेट आहार में मदद मिल सकती है यदि आपके पास पीसीओएस है।
+जटिल कार्बोहाइड्रेट चुनें, जो आपके रक्त शर्करा के स्तर को अधिक धीरे -धीरे बढ़ाते हैं।जटिल कार्बोहाइड्रेट फलों, सब्जियों, साबुत अनाज और पके हुए सूखी बीन्स और मटर में पाए जाते हैं।
+सक्रिय होना।व्यायाम रक्त शर्करा के स्तर को कम करने में मदद करता है।यदि आपके पास पीसीओएस है, तो अपनी दैनिक गतिविधि को बढ़ाना और नियमित व्यायाम प्राप्त करना इंसुलिन प्रतिरोध का इलाज कर सकता है या यहां तक कि इंसुलिन प्रतिरोध को रोक सकता है।सक्रिय होने से आप अपने वजन को नियंत्रण में रखने और मधुमेह को विकसित करने से बचने में भी मदद कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>premenstrual syndrome</t>
+  </si>
+  <si>
+    <t>प्रागार्तव (premenstrual syndrome)</t>
+  </si>
+  <si>
+    <t>pms</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/premenstrual-syndrome/symptoms-causes/syc-20376780</t>
+  </si>
+  <si>
+    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
+Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.</t>
+  </si>
+  <si>
+    <t>Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
+    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
+Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
+Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
     <t>Diagnosis.
 There are no unique physical findings or lab tests to positively diagnose premenstrual syndrome. Your doctor may attribute a particular symptom to PMS if it's part of your predictable premenstrual pattern.
 To help establish a premenstrual pattern, your doctor may have you record your signs and symptoms on a calendar or in a diary for at least two menstrual cycles. Note the day that you first notice PMS symptoms, as well as the day they disappear. Also be sure to mark the days your period starts and ends.
@@ -5161,6 +5523,43 @@
 What treatments have you tried so far? How have they worked?</t>
   </si>
   <si>
+    <t>Eat smaller, more-frequent meals to reduce bloating and the sensation of fullness.
+Limit salt and salty foods to reduce bloating and fluid retention.
+Choose foods high in complex carbohydrates, such as fruits, vegetables and whole grains.
+Choose foods rich in calcium. If you can't tolerate dairy products or aren't getting adequate calcium in your diet, a daily calcium supplement may help.
+Avoid caffeine and alcohol.</t>
+  </si>
+  <si>
+    <t>सूजन को कम करने और पूर्णता की सनसनी को कम करने के लिए छोटे, अधिक-अक्सर भोजन खाएं।
+ब्लोटिंग और द्रव प्रतिधारण को कम करने के लिए नमक और नमकीन खाद्य पदार्थों को सीमित करें।
+जटिल कार्बोहाइड्रेट में उच्च खाद्य पदार्थ चुनें, जैसे कि फल, सब्जियां और साबुत अनाज।
+कैल्शियम से भरपूर खाद्य पदार्थ चुनें।यदि आप डेयरी उत्पादों को बर्दाश्त नहीं कर सकते हैं या अपने आहार में पर्याप्त कैल्शियम प्राप्त नहीं कर रहे हैं, तो एक दैनिक कैल्शियम पूरक मदद कर सकता है।
+कैफीन और शराब से बचें।</t>
+  </si>
+  <si>
+    <t>prickly heat</t>
+  </si>
+  <si>
+    <t>तेज गर्मी के कारण दाने निकलना (prickly heat)</t>
+  </si>
+  <si>
+    <t>heat rash</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/heat-rash/symptoms-causes/syc-20373276</t>
+  </si>
+  <si>
+    <t>Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
+</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You don't need tests to diagnose heat rash. Your health care provider is usually able to diagnose it by examining the skin. A condition that looks like heat rash is transient neonatal pustular melanosis (TNPM). TNPM mainly affects newborns with brown or Black skin. It's harmless and clears up in a couple days without treatment.
 Treatment.
@@ -5182,6 +5581,59 @@
 How can I treat it?.
 Do I need to limit physical activity until the rash clears?.
 How can I prevent it in the future?</t>
+  </si>
+  <si>
+    <t>Press a cool cloth on your skin or take a cool shower or bath. It may help to let your skin air-dry.
+Avoid using oily or greasy moisturizers, cosmetics, sunscreens and other products that can block pores further. 
+Instead use a moisturizer with wool fat (anhydrous lanolin), which helps prevent sweat ducts from getting clogged.</t>
+  </si>
+  <si>
+    <t>अपनी त्वचा पर एक ठंडा कपड़ा दबाएं या एक शांत स्नान या स्नान करें।यह आपकी त्वचा को हवा देने में मदद कर सकता है।
+तैलीय या चिकना मॉइस्चराइज़र, सौंदर्य प्रसाधन, सनस्क्रीन और अन्य उत्पादों का उपयोग करने से बचें जो छिद्रों को आगे अवरुद्ध कर सकते हैं।
+इसके बजाय ऊन वसा (निर्जल लैनोलिन) के साथ एक मॉइस्चराइज़र का उपयोग करें, जो पसीने के नलिकाओं को बंद होने से रोकने में मदद करता है।</t>
+  </si>
+  <si>
+    <t>snoring</t>
+  </si>
+  <si>
+    <t>खर्राटों (snoring)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/snoring/symptoms-causes/syc-20377694</t>
+  </si>
+  <si>
+    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
+Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.</t>
+  </si>
+  <si>
+    <t>Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
+  </si>
+  <si>
+    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
+Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
+Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -5342,6 +5794,72 @@
 Try over-the-counter nasal strips.
 Sleep on your side, instead of your back.
 If nasal congestion is an issue, try an over-the-counter decongestant for a day or two.</t>
+  </si>
+  <si>
+    <t>If you're overweight, lose weight. People who are overweight may have extra tissues in the throat that contribute to snoring. Losing weight can help reduce snoring.
+Sleep on your side. Lying on your back allows your tongue to fall backward into your throat, narrowing your airway and partially obstructing airflow. Try sleeping on your side. If you find that you always end up on your back in the middle of the night, try sewing a tennis ball in the back of your pajama top.
+Raise the head of your bed. Raising the head of your bed by about 4 inches may help.
+Nasal strips or an external nasal dilator. Adhesive strips applied to the bridge of the nose help many people increase the area of their nasal passage, enhancing their breathing. 
+Treat nasal congestion or obstruction. Having allergies or a deviated septum can limit airflow through your nose. This forces you to breathe through your mouth, increasing the likelihood of snoring.
+Limit or avoid alcohol and sedatives. Avoid drinking alcoholic beverages at least two hours before bedtime, and let your doctor know about your snoring before taking sedatives. Sedatives and alcohol depress your central nervous system, causing excessive relaxation of muscles, including the tissues in your throat.
+Quit smoking. Smoking cessation may reduce snoring, in addition to having numerous other health benefits.
+Get enough sleep. Adults should aim for at least seven hours of sleep per night. The recommended hours of sleep for children vary by age. Preschool-aged children should get 10 to 13 hours a day. School-age children need nine to 12 hours a day, and teens should have eight to 10 hours a day.</t>
+  </si>
+  <si>
+    <t>यदि आप अधिक वजन वाले हैं, तो वजन कम करें।जो लोग अधिक वजन वाले हैं, उनके गले में अतिरिक्त ऊतक हो सकते हैं जो खर्राटों में योगदान करते हैं।वजन कम करने से खर्राटों को कम करने में मदद मिल सकती है।
+अपनी तरफ सो जाओ।अपनी पीठ पर झूठ बोलने से आपकी जीभ को आपके गले में पीछे की ओर गिरने, आपके वायुमार्ग को संकीर्ण करने और आंशिक रूप से एयरफ्लो में बाधा डालने की अनुमति मिलती है।अपनी तरफ से सोने की कोशिश करें।यदि आप पाते हैं कि आप हमेशा रात के बीच में अपनी पीठ पर समाप्त होते हैं, तो अपने पजामा टॉप के पीछे एक टेनिस बॉल को सिलाई करने का प्रयास करें।
+अपने बिस्तर का सिर उठाओ।अपने बिस्तर के सिर को लगभग 4 इंच तक बढ़ाने से मदद मिल सकती है।
+नाक स्ट्रिप्स या एक बाहरी नाक dilator।नाक के पुल पर लागू चिपकने वाली स्ट्रिप्स कई लोगों को उनके नाक के मार्ग के क्षेत्र को बढ़ाने में मदद करते हैं, जिससे उनकी सांस बढ़ जाती है।
+नाक की भीड़ या रुकावट का इलाज करें।एलर्जी या एक विचलित सेप्टम होने से आपकी नाक के माध्यम से एयरफ्लो को सीमित किया जा सकता है।यह आपको अपने मुंह से सांस लेने के लिए मजबूर करता है, जिससे खर्राटे की संभावना बढ़ जाती है।
+शराब और शामक को सीमित या बचें।सोते समय कम से कम दो घंटे पहले मादक पेय पीने से बचें, और अपने डॉक्टर को शामक लेने से पहले अपने खर्राटों के बारे में बताएं।सेडिटिव और अल्कोहल आपके केंद्रीय तंत्रिका तंत्र को दबाते हैं, जिससे मांसपेशियों में अत्यधिक छूट मिलती है, जिसमें आपके गले में ऊतक भी शामिल हैं।
+धूम्रपान छोड़ने।कई अन्य स्वास्थ्य लाभ होने के अलावा, धूम्रपान समाप्ति खर्राटों को कम कर सकती है।
+पर्याप्त नींद लो।वयस्कों को प्रति रात कम से कम सात घंटे की नींद का लक्ष्य रखना चाहिए।बच्चों के लिए नींद के अनुशंसित घंटे उम्र से भिन्न होते हैं।पूर्वस्कूली आयु वर्ग के बच्चों को दिन में 10 से 13 घंटे मिलना चाहिए।स्कूल-आयु के बच्चों को दिन में नौ से 12 घंटे की आवश्यकता होती है, और किशोर में दिन में आठ से 10 घंटे होने चाहिए।</t>
+  </si>
+  <si>
+    <t>social anxiety disorder</t>
+  </si>
+  <si>
+    <t>सामाजिक चिंता विकार (social anxiety disorder)</t>
+  </si>
+  <si>
+    <t>social phobia</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/social-anxiety-disorder/symptoms-causes/syc-20353561</t>
+  </si>
+  <si>
+    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
+In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.</t>
+  </si>
+  <si>
+    <t>Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
+  </si>
+  <si>
+    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
+In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.
+Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -5516,6 +6034,59 @@
 Do you drink alcohol or use recreational drugs? If so, how often?</t>
   </si>
   <si>
+    <t>Learn stress-reduction skills.
+Get physical exercise or be physically active on a regular basis.
+Get enough sleep.
+Eat a healthy, well-balanced diet.
+Avoid alcohol.
+Limit or avoid caffeine.
+Participate in social situations by reaching out to people with whom you feel comfortable.</t>
+  </si>
+  <si>
+    <t>तनाव-कमी कौशल सीखें।
+शारीरिक व्यायाम प्राप्त करें या नियमित रूप से शारीरिक रूप से सक्रिय रहें।
+पर्याप्त नींद लो।
+एक स्वस्थ, अच्छी तरह से संतुलित आहार खाएं।
+शराब से बचें।
+कैफीन को सीमित या बचें।
+उन लोगों तक पहुंचकर सामाजिक स्थितियों में भाग लें, जिनके साथ आप सहज महसूस करते हैं।</t>
+  </si>
+  <si>
+    <t>sunburn</t>
+  </si>
+  <si>
+    <t>धूप की कालिमा (sunburn)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/sunburn/symptoms-causes/syc-20355922</t>
+  </si>
+  <si>
+    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
+You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.</t>
+  </si>
+  <si>
+    <t>Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
+  </si>
+  <si>
+    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
+You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
+Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Diagnosing sunburn generally includes a physical exam. Your health care provider might also ask about your symptoms, current medications, UV exposure and sunburn history.
 If you have sunburn or a skin reaction after only a short time in the sun, your health care provider might suggest phototesting. This is a test where small areas of skin are exposed to measured amounts of UVA and UVB light to mimic the problem. If your skin reacts to phototesting, you're considered sensitive to sunlight (photosensitive).
@@ -5561,6 +6132,47 @@
 What skin care routines do you suggest while the sunburn heals?.
 What suspicious changes in my skin might I watch for?.
 If your sunburn is severe or your health care provider notices unusual skin signs, you might be referred to a doctor who specializes in skin diseases (dermatologist).</t>
+  </si>
+  <si>
+    <t>**Apply a moisturizer, lotion or gel.** An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
+**Drink extra water for a day.** This helps prevent dehydration.
+**Leave blisters alone.** An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
+**Treat peeling skin gently.** Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
+**Treat sunburned eyes.** Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
+**Protect yourself from further sun exposure.** While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.</t>
+  </si>
+  <si>
+    <t>** एक मॉइस्चराइज़र, लोशन या जेल लागू करें। ** एक एलो वेरा लोशन या जेल या कैलामाइन लोशन सुखदायक हो सकता है।आवेदन करने से पहले रेफ्रिजरेटर में उत्पाद को ठंडा करने का प्रयास करें।शराब से बने उत्पादों से बचें।
+** एक दिन के लिए अतिरिक्त पानी पिएं। ** यह निर्जलीकरण को रोकने में मदद करता है।
+** फफोले को अकेला छोड़ दें। ** एक बरकरार छाला त्वचा को ठीक करने में मदद कर सकता है।यदि कोई छाला टूट जाता है, तो एक साफ, छोटी कैंची के साथ मृत त्वचा को ट्रिम करें।हल्के साबुन और पानी के साथ क्षेत्र को धीरे से साफ करें।फिर घाव के लिए एक एंटीबायोटिक मरहम लगाएं और इसे एक नॉनस्टिक बैंडेज के साथ कवर करें।
+** त्वचा को धीरे से छीलने का इलाज करें। ** कुछ दिनों के भीतर, प्रभावित क्षेत्र छीलने लग सकता है।यह आपके शरीर को क्षतिग्रस्त त्वचा की शीर्ष परत से छुटकारा पाने का तरीका है।जबकि आपकी त्वचा छील रही है, मॉइस्चराइज़र का उपयोग करते रहें।
+** धूप की कालीन की आंखों का इलाज करें। ** ठंडे नल के पानी के साथ एक साफ तौलिया लगाएं।जब तक आपकी आंखों के लक्षण दूर नहीं हो जाते, तब तक संपर्क न पहनें।अपनी आँखें मत रगड़ो।
+** अपने आप को आगे के सूरज के संपर्क से बचाएं। ** जब आपका सनबर्न ठीक हो जाता है, तो सूरज से बाहर रहें या अन्य सूर्य-सुरक्षा उपायों का उपयोग करें।आप एक ऐसे उत्पाद की कोशिश कर सकते हैं जिसमें मॉइस्चराइज़र और सनस्क्रीन हो।</t>
+  </si>
+  <si>
+    <t>wrist pain</t>
+  </si>
+  <si>
+    <t>कलाई का दर्द (wrist pain)</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
+  </si>
+  <si>
+    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.</t>
+  </si>
+  <si>
+    <t>pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
+  </si>
+  <si>
+    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.
+pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -5629,177 +6241,6 @@
 Do you participate in any sports or hobbies that put stress on your wrist?</t>
   </si>
   <si>
-    <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
-Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
-Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
-  </si>
-  <si>
-    <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
-Wash infested bedding, clothing and towels with hot, soapy water — at least 130 F (54 C) — and machine dry them on high heat for at least 20 minutes.
-Clothing that can't be washed may be dry cleaned and ironed.
-Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
-Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
-Exposure to infested items should be avoided for two weeks.</t>
-  </si>
-  <si>
-    <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
-Avoid moving suddenly and walk with a cane for stability, if needed.
-Fall-proof your home by removing tripping hazards such as area rugs and exposed electrical cords. Use nonslip mats on your bath and shower floors. Use good lighting.
-Sit or lie down immediately when you feel dizzy. Lie still with your eyes closed in a darkened room if you're experiencing a severe episode of vertigo.
-Avoid driving a car or operating heavy machinery if you experience frequent dizziness without warning.
-Avoid using caffeine, alcohol, salt and tobacco. Excessive use of these substances can worsen your signs and symptoms.
-Drink enough fluids, eat a healthy diet, get enough sleep and avoid stress.
-If your dizziness is caused by a medication, talk with your doctor about discontinuing it or lowering the dose.
-If your dizziness comes with nausea, try an over-the-counter (nonprescription) antihistamine, such as meclizine or dimenhydrinate (Dramamine). These may cause drowsiness. Nondrowsy antihistamines aren't as effective.
-If your dizziness is caused by overheating or dehydration, rest in a cool place and drink water or a sports drink (Gatorade, Powerade, others).</t>
-  </si>
-  <si>
-    <t>Have your eyes checked. Do this regularly even if you see well.
-Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
-Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
-Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
-Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
-Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
-Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
-Use good lighting. Turn up or add light to see better.
-Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes for 20 seconds at something 20 feet away.</t>
-  </si>
-  <si>
-    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
-Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
-Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
-Eat healthy. Healthy eating such as focusing on vegetables, fruits, whole grains and fish may be linked to reduced anxiety, but more research is needed.
-Avoid alcohol and recreational drugs. These substances can worsen anxiety.
-Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
-  </si>
-  <si>
-    <t>Breathe into a paper bag
-Gargle with ice water
-Hold your breath
-Sip cold water</t>
-  </si>
-  <si>
-    <t>Eating smaller, more-frequent meals. Chew your food slowly and thoroughly.
-Avoiding triggers. Fatty and spicy foods, processed foods, carbonated beverages, caffeine, alcohol, and smoking can trigger indigestion.
-Maintaining a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to back up into your esophagus.
-Exercising regularly. Exercise helps you keep off extra weight and promotes better digestion.
-Managing stress. Create a calm environment at mealtime. Practice relaxation techniques, such as deep breathing, meditation or yoga. 
-Spend time doing things you enjoy. 
-Get plenty of sleep.
-Changing your medications. With your doctor's approval, stop or cut back on pain relievers or other medications that may irritate your stomach lining. If that's not an option, be sure to take these medications with food.</t>
-  </si>
-  <si>
-    <t>Shave at least twice a week.
-Don't tweeze ingrown hairs.
-Before shaving wash the affected area using a warm washcloth or soft-bristled toothbrush. Use a circular motion for a few minutes.
-Apply a warm, damp cloth for a few more minutes.
-Apply shaving cream, don't let it dry out and use a sharp, single-blade razor.
-Don't pull your skin while shaving.
-Shave in the direction of hair growth.
-Rinse the blade after each stroke.
-Release visible ingrown hairs by inserting a sterile needle under each hair loop and gently lifting the tip that has grown back into the skin.
-Rinse your skin and apply a cool, wet cloth for a few minutes. Then use a soothing after-shave product. If needed, try using a 1% hydrocortisone cream for no more than four weeks.</t>
-  </si>
-  <si>
-    <t>Soak your feet in warm, soapy water. Do this for 10 to 20 minutes 3 to 4 times a day until the toe improves.
-Place cotton or dental floss under your toenail. After each soaking, put fresh bits of cotton or waxed dental floss under the ingrown edge. This will help the nail grow above the skin edge.
-Apply petroleum jelly. Put petroleum jelly (Vaseline) on the tender area and bandage the toe.
-Choose sensible footwear. Consider wearing open-toed shoes or sandals until your toe feels better.
-Take pain relievers. A nonprescription pain reliever such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) may help ease the toe pain.</t>
-  </si>
-  <si>
-    <t>Try relaxation techniques. Biofeedback and other forms of relaxation training teach you ways to deal with stressful situations, which might help reduce the number of migraines you have.
-Develop a sleeping and eating routine. Don't sleep too much or too little. Set and follow a consistent sleep and wake schedule daily. Try to eat meals at the same time every day.
-Drink plenty of fluids. Staying hydrated, particularly with water, might help.
-Keep a headache diary. Recording your symptoms in a headache diary will help you learn more about what triggers your migraines and what treatment is most effective. It will also help your doctor diagnose your condition and track your progress in between visits.
-Exercise regularly. Regular aerobic exercise reduces tension and can help prevent a migraine. If your doctor agrees, choose aerobic activity you enjoy, such as walking, swimming and cycling. Warm up slowly, however, because sudden, intense exercise can cause headaches.
-Regular exercise can also help you lose weight or maintain a healthy body weight, and obesity is thought to be a factor in migraines.</t>
-  </si>
-  <si>
-    <t>Ice-pack: You may also undo a muscle cramp with ice as it acts an effective pain reliever and an anti-inflammatory agent. All you need to do is massage the area with ice for no more than 10 minutes or until the area is bright red, which indicates that blood cells have returned to heat the cramped muscle.
-Turmeric and alum: Turmeric is one of the potentantiseptic compounds which is widely used as a pain reliever, while alum is well-known for its soothing and blood thinning property. When the two are combined, they provide effective result against muscle cramp. Apply a thick past of turmeric and alum over the affected area. Do not massage the area and leave it to dry. Doing this at least twice a day for two days aid in reducing pain and swelling due to muscle cramps. 
-Warm compress: Another age-old remedy to combat muscle pain caused due to crampsis to try warm compress. This is because, heat improves superficial blood circulation and makes muscles more flexible, so some people find that heat is more soothing for muscle cramps than ice. 
-Salt: Easily available in any household, common salt is an amazing home remedy to get rid of muscle cramps. As lack of sodium in the body triggers muscle cramping, intake of fluids containing salt might do the trick. All you need to do is add 2-3 teaspoon sugar and 1/2 teaspoon salt and lemon juice to a litre of water and drink this solution at intervals to get rid of cramps. You can also apply salt pack (heat a fistful of salt over a pan, put it in a cloth) over the affected for relief.
-Stretching: Stretching is one of the most effective home remedy to beat muscle cramps of various parts of the body namely legs, arms, thighs, calf and palm. Do some stretching exercises for at least 5 to 10 minutes (as warm-up and cool-down periods) to combat pain. Read in detail about how to get rid of those muscle cramps for good!</t>
-  </si>
-  <si>
-    <t>Get regular eye exams.
-Protect your eyes from the sun.
-Wear protective eyewear during sports or work that can result in eye injuries.
-Use good lighting when reading and working.
-Wear prescription lenses as directed.
-Care for prescription glasses or contact lenses as directed.
-Rest your eyes from computer or other close-up work every 20 minutes by looking at something 20 feet away for 20 seconds.
-Eat healthy foods.
-Get regular exercise.
-Control health conditions, such as high blood pressure or diabetes, that can affect your vision.
-Don't smoke.</t>
-  </si>
-  <si>
-    <t>Alternate heat and cold massage. Reduce inflammation by applying cold, such as an ice pack or ice wrapped in a towel, for up to 15 minutes several times a day during the first 48 hours. After that, use heat. Try taking a warm shower or using a heating pad on the low setting.
-Home exercises. Keeping the neck moving is important. Begin daily gentle stretching, including neck rolls and shoulder rolls, once the worst of the pain lessens. 
-Gently tilt, bend and rotate the neck. Warm the neck and back with a heating pad or in the shower or bath before doing these exercises.</t>
-  </si>
-  <si>
-    <t>Learning about your condition. Education about obesity can help you learn more about why you developed obesity and what you can do about it. You may feel more empowered to take control and stick to your treatment plan. Read reputable self-help books and consider talking about them with your doctor or therapist.
-Setting realistic goals. When you have to lose a lot of weight, you may set goals that are unrealistic, such as trying to lose too much too fast. Don't set yourself up for failure. Set daily or weekly goals for exercise and weight loss. Make small changes in your diet instead of attempting drastic changes that you're not likely to stick with for the long haul.
-Sticking to your treatment plan. Changing a lifestyle you may have lived with for many years can be difficult. Be honest with your doctor, therapist or other health care professionals if you find your activity or eating goals slipping. You can work together to come up with new ideas or new approaches.
-Enlisting support. Get your family and friends on board with your weight-loss goals. Surround yourself with people who will support you and help you, not sabotage your efforts. Make sure they understand how important weight loss is to your health. You might also want to join a weight-loss support group.
-Keeping a record. Keep a food and activity log. This record can help you remain accountable for your eating and exercise habits. You can discover behavior that may be holding you back and, conversely, what works well for you. You can also use your log to track other important health parameters such as blood pressure and cholesterol levels and overall fitness.</t>
-  </si>
-  <si>
-    <t>Practice what you learn. Work with your mental health professional to identify techniques and skills that help manage symptoms, and practice these regularly.
-Take your medications as directed. Even if you're feeling well, resist any temptation to skip your medications. If you stop, OCD symptoms are likely to return.
-Pay attention to warning signs. You and your doctor may have identified issues that can trigger your OCD symptoms. Make a plan so that you know what to do if symptoms return. Contact your doctor or therapist if you notice any changes in symptoms or how you feel.
-Check first before taking other medications. Contact the doctor who's treating you for OCD before you take medications prescribed by another doctor or before taking any over-the-counter medications, vitamins, herbal remedies or other supplements to avoid possible interactions.</t>
-  </si>
-  <si>
-    <t>Stick to your treatment plan. Facing your fears can be difficult, but treatment can help you feel like you're not a hostage in your own home.
-Join a support group. Joining a group for people with panic attacks or anxiety disorders can connect you with others facing the same problems.
-Avoid caffeine, alcohol, smoking and recreational drugs. All of these can trigger or worsen panic attacks.
-Practice stress management and relaxation techniques. For example, yoga, deep breathing and progressive muscle relaxation, tensing one muscle at a time, and then completely releasing the tension until every muscle in the body is relaxed also may be helpful.
-Get physically active. Aerobic activity may have a calming effect on your mood.
-Get sufficient sleep. Get enough sleep so that you don't feel drowsy during the day.</t>
-  </si>
-  <si>
-    <t>Stay at a healthy weight. Weight loss can lower insulin and androgen levels. It also may restore ovulation. 
-Ask your health care provider about a weight-control program, if you need one. Meet with a registered dietitian for help in reaching weight-loss goals.
-Limit carbohydrates. High-carbohydrate diets might make insulin levels go higher. Ask your provider if a low-carbohydrate diet could help if you have PCOS. 
-Choose complex carbohydrates, which raise your blood sugar levels more slowly. Complex carbohydrates are found in fruits, vegetables, whole grains and cooked dry beans and peas.
-Be active. Exercise helps lower blood sugar levels. If you have PCOS, increasing your daily activity and getting regular exercise may treat or even prevent insulin resistance. Being active may also help you keep your weight under control and avoid developing diabetes.</t>
-  </si>
-  <si>
-    <t>Eat smaller, more-frequent meals to reduce bloating and the sensation of fullness.
-Limit salt and salty foods to reduce bloating and fluid retention.
-Choose foods high in complex carbohydrates, such as fruits, vegetables and whole grains.
-Choose foods rich in calcium. If you can't tolerate dairy products or aren't getting adequate calcium in your diet, a daily calcium supplement may help.
-Avoid caffeine and alcohol.</t>
-  </si>
-  <si>
-    <t>Press a cool cloth on your skin or take a cool shower or bath. It may help to let your skin air-dry.
-Avoid using oily or greasy moisturizers, cosmetics, sunscreens and other products that can block pores further. 
-Instead use a moisturizer with wool fat (anhydrous lanolin), which helps prevent sweat ducts from getting clogged.</t>
-  </si>
-  <si>
-    <t>If you're overweight, lose weight. People who are overweight may have extra tissues in the throat that contribute to snoring. Losing weight can help reduce snoring.
-Sleep on your side. Lying on your back allows your tongue to fall backward into your throat, narrowing your airway and partially obstructing airflow. Try sleeping on your side. If you find that you always end up on your back in the middle of the night, try sewing a tennis ball in the back of your pajama top.
-Raise the head of your bed. Raising the head of your bed by about 4 inches may help.
-Nasal strips or an external nasal dilator. Adhesive strips applied to the bridge of the nose help many people increase the area of their nasal passage, enhancing their breathing. 
-Treat nasal congestion or obstruction. Having allergies or a deviated septum can limit airflow through your nose. This forces you to breathe through your mouth, increasing the likelihood of snoring.
-Limit or avoid alcohol and sedatives. Avoid drinking alcoholic beverages at least two hours before bedtime, and let your doctor know about your snoring before taking sedatives. Sedatives and alcohol depress your central nervous system, causing excessive relaxation of muscles, including the tissues in your throat.
-Quit smoking. Smoking cessation may reduce snoring, in addition to having numerous other health benefits.
-Get enough sleep. Adults should aim for at least seven hours of sleep per night. The recommended hours of sleep for children vary by age. Preschool-aged children should get 10 to 13 hours a day. School-age children need nine to 12 hours a day, and teens should have eight to 10 hours a day.</t>
-  </si>
-  <si>
-    <t>Learn stress-reduction skills.
-Get physical exercise or be physically active on a regular basis.
-Get enough sleep.
-Eat a healthy, well-balanced diet.
-Avoid alcohol.
-Limit or avoid caffeine.
-Participate in social situations by reaching out to people with whom you feel comfortable.</t>
-  </si>
-  <si>
     <t>rest the affected hand and wrist for at least 2 weeks
 use of anti-vibration products with vibrating tools
 wear a wrist splint or brace to rest the median nerve
@@ -5816,413 +6257,20 @@
 take over-the-counter (OTC) pain relievers, such as ibuprofen or naproxen</t>
   </si>
   <si>
-    <t>स्वस्थ वजन बनाए रखें। अतिरिक्त पाउंड आपके पेट पर दबाव डालते हैं, आपके पेट को धक्का देते हैं और एसिड को आपके एसोफैगस में रिफ्लक्स कर देते हैं।
-धूम्रपान बंद करो। धूम्रपान निचले एसोफेजियल स्फिंक्टर की ठीक से काम करने की क्षमता को कम करता है।
-अपने बिस्तर का सिरा ऊपर उठाएं।
-यदि आप नियमित रूप से सोने की कोशिश करते समय नाराज़गी का अनुभव करते हैं, तो अपने बिस्तर के पैरों के नीचे लकड़ी या सीमेंट के ब्लॉक रखें ताकि सिर का सिरा 6 से 9 इंच ऊपर उठ जाए।
-https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid- भाटा-साथ-एक-उठाया-बिस्तर-चरण-5-संस्करण-2.jpg.webp
-अपनी बाईं ओर से शुरू करें। जब आप बिस्तर पर जाएं, तो अपनी बाईं करवट लेट कर शुरुआत करें, ताकि आपको रिफ्लक्स होने की संभावना कम हो सके।
-भोजन के बाद लेटें नहीं। खाने के बाद लेटने या बिस्तर पर जाने से पहले कम से कम तीन घंटे प्रतीक्षा करें।
-खाना धीरे-धीरे खाएं और अच्छी तरह चबाकर खाएं। प्रत्येक काटने के बाद अपने कांटे को नीचे रखें और जब आप उस काटने को चबा लें और निगल लें तो उसे फिर से उठा लें।
-रिफ्लक्स ट्रिगर करने वाले खाद्य पदार्थों और पेय से बचें। सामान्य ट्रिगर्स में शराब, चॉकलेट, कैफीन, वसायुक्त भोजन या पेपरमिंट शामिल हैं।
-https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
-टाइट-फिटिंग कपड़ों से बचें। आपकी कमर के चारों ओर कसकर फिट होने वाले कपड़े आपके पेट और निचले एसोफेजल स्फिंक्टर पर दबाव डालते हैं।</t>
-  </si>
-  <si>
-    <t>समस्या वाले क्षेत्रों को सौम्य क्लीन्ज़र से धोएं। दिन में दो बार, अपने हाथों का उपयोग अपने चेहरे को हल्के साबुन या सौम्य क्लीन्ज़र (सेटाफिल, वैनीक्रीम, अन्य) और गर्म पानी से धोने के लिए करें।
-टी ट्री ऑयल का इस्तेमाल करें। कम से कम 5% चाय के पेड़ के तेल वाले जैल 5% बेंज़ॉयल पेरोक्साइड युक्त लोशन के रूप में प्रभावी हो सकते हैं, हालांकि चाय के पेड़ के तेल अधिक धीमी गति से काम कर सकते हैं।
-सक्रिय अवयवों के रूप में बेंज़ोयल पेरोक्साइड और एडापेलीन युक्त ओवर-द-काउंटर मुँहासे उत्पादों का प्रयास करें।
-चिड़चिड़ेपन से बचें। तैलीय या चिकना सौंदर्य प्रसाधन, सनस्क्रीन, हेयरस्टाइलिंग उत्पाद या मुंहासों को छुपाने वाले उत्पाद मुंहासों को और खराब कर सकते हैं।
-इसके बजाय, पानी आधारित या गैर-कॉमेडोजेनिक लेबल वाले उत्पादों का उपयोग करें, जिसका अर्थ है कि वे मुँहासे पैदा करने की संभावना कम हैं।
-फोन, हेलमेट, टाइट कॉलर या स्ट्रैप, और बैकपैक्स जैसी चीजों के संपर्क में आने से अपनी मुंहासे वाली त्वचा को सुरक्षित रखें।
-मुहांसे वाले क्षेत्रों को छूने या चुनने से बचें. ऐसा करने से अधिक मुहांसे हो सकते हैं या संक्रमण या घाव हो सकते हैं।
-कठिन गतिविधियों के बाद स्नान करें। आपकी त्वचा पर तेल और पसीना ब्रेकआउट का कारण बन सकता है।</t>
-  </si>
-  <si>
-    <t>विश्राम। यह आपके शरीर को संक्रमण से लड़ने और तेजी से ठीक होने में मदद करेगा।
-तरल पदार्थ पीना। खूब सारे तरल पदार्थ पीना जारी रखें।
-एक गर्म सेक का प्रयोग करें। आपकी नाक और माथे पर एक गर्म सेक आपके साइनस में दबाव को कम करने में मदद कर सकता है।
-अपने साइनस गुहाओं को नम करें। जैसे ही आप गर्म पानी के कटोरे से भाप लेते हैं, अपने सिर पर एक तौलिया लपेट लें। वाष्प को अपने चेहरे की ओर निर्देशित रखें।
-या गर्म स्नान करें, गर्म, नम हवा में सांस लें। यह दर्द को कम करने और बलगम को निकालने में मदद करेगा।
-अपने नासिका मार्ग को धोएं। विशेष रूप से डिज़ाइन की गई स्क्वीज़ बोतल (साइनस रिंस, अन्य) या नेटी पॉट का उपयोग करें। यह घरेलू उपचार, जिसे नेसल लवेज कहा जाता है, आपके साइनस को साफ करने में मदद कर सकता है।
-https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
-  </si>
-  <si>
-    <t>साइनस की भीड़ के लक्षण अक्सर नमक और पानी के घोल से साइनस को साफ करने वाली खारी नाक की सिंचाई से सुधर जाते हैं।
-गर्म पानी में बिस्तर और भरवां खिलौनों को बार-बार धोने, कम आर्द्रता बनाए रखने, उच्च दक्षता वाले कण हवा (HEPA) फिल्टर जैसे एक ठीक फिल्टर के साथ वैक्यूम का उपयोग करके और कठोर फर्श के साथ कालीन को बदलने से धूल के कण या पालतू जानवरों के डेंडर के संपर्क में आना कम हो जाता है। .
-वेंटिलेशन पंखे और डीह्यूमिडिफ़ायर का उपयोग करके, अपने स्नान और रसोई जैसे नम क्षेत्रों में नमी कम करें। अपने घर के अंदर और बाहर लीकेज ठीक करें।</t>
-  </si>
-  <si>
-    <t>शहद और नींबू। शहद के संभावित जीवाणुरोधी और विरोधी भड़काऊ गुण खोपड़ी और अशुद्धियों को साफ करने में मदद करते हैं जो बालों के रोम छिद्रों को बंद कर सकते हैं। शहद में ह्यूमेक्टेंट गुण भी होते हैं। ये सभी बालों को मजबूत बनाने और बालों के विकास को बढ़ावा देने में सहायता करते हैं।
-मेंथी। डायहाइड्रोटेस्टोस्टेरोन एक महत्वपूर्ण हार्मोन है जो बालों की साइकिलिंग को नियंत्रित करता है। डायहाइड्रोटेस्टोस्टेरोन का असंतुलन और बढ़ी हुई DHT गतिविधि एंड्रोजेनिक खालित्य के कारण बालों के झड़ने के कारणों में से एक है। यह वह समय है जब छोटे मेथी के बीज बढ़ी हुई DHT गतिविधि और असंतुलन को रोककर बचाव में आते हैं। ये पावर-पैक बीज बालों के विकास को बढ़ावा देते हैं और एंड्रोजेनिक खालित्य की गंभीरता को कम करते हैं।
-प्याज। किसी भी भारतीय खाना पकाने में प्याज एक प्रमुख सामग्री है। जबकि वे अधिकांश व्यंजनों में स्वाद और स्वाद जोड़ते हैं, आपकी रसोई की अलमारियों में प्याज का स्टॉक करने के कई कारण हैं। एलोपेसिया एरीटा में गंजेपन से निपटने के लिए प्याज एक वरदान है। इनमें उच्च मात्रा में सल्फर होता है जो मुक्त कणों से होने वाले नुकसान से लड़ता है, खोपड़ी में रक्त परिसंचरण में सुधार करता है और किसी भी तरह के संक्रमण को रोकता है।
-लहसुन। प्याज की तरह ही, लहसुन भी सल्फर से भरपूर सब्जी है और गंजापन के लिए सबसे अच्छे प्राकृतिक उपचारों में से एक है। यह बालों के विकास को बढ़ाता है और कोलेजन उत्पादन को बढ़ाकर बालों के झड़ने को रोकता है।
-हिबिस्कस और सिंहपर्णी तेल। एलोपेसिया एरीटा के लिए एक फूलदार हर्बल उपचार, गुड़हल का फूल आपके बालों को चमकदार बनाने के अलावा बालों के विकास को बढ़ाता है।
-जई का दलिया। ओट्स एक सुपरफूड है जो फाइबर, जिंक, ओमेगा 3, आयरन और ओमेगा-6 फैटी एसिड जैसे बालों को प्यार करने वाले पोषक तत्वों से भरपूर है। ओट्स सैपोनिन, बीटा-ग्लूकन और प्रोटीन से भी समृद्ध होते हैं। यह सब एक उत्तम नुस्खा है जो बालों के विकास का समर्थन करता है। ओटमील को अपने शरीर में शामिल करने का सबसे अच्छा तरीका यह है कि इसे अपने दैनिक भोजन के किसी हिस्से में शामिल करें।
-मुसब्बर वेरा निकालने। स्कैल्प पर लगाने के लिए अक्सर एलोवेरा जेल की सिफारिश की जाती है, यह बहुत फायदेमंद होता है।
-दुग्ध रोम। दूध थीस्ल एक लोकप्रिय हर्बल उपचार है जिसका उपयोग सदियों से इसके उपचारात्मक प्रभावों के लिए किया जाता रहा है। कई एंटीऑक्सिडेंट से भरपूर, यह बालों के झड़ने को रोकने और जड़ों को मजबूत करने के लिए कहा जाता है।
-https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
-  </si>
-  <si>
-    <t>खाने के बाद अपने दाँत ब्रश करें। खाने के बाद उपयोग करने के लिए टूथब्रश को कार्यस्थल पर रखें। दिन में कम से कम दो बार फ्लोराइड युक्त टूथपेस्ट का उपयोग करके ब्रश करें, खासकर भोजन के बाद। जीवाणुरोधी गुणों वाले टूथपेस्ट को सांसों की दुर्गंध को कम करने के लिए दिखाया गया है।
-एक दिन में कम से कम एक बार फ्लॉस करें। उचित फ्लॉसिंग आपके दांतों के बीच से भोजन के कणों और प्लाक को हटाता है, जिससे सांसों की बदबू को नियंत्रित करने में मदद मिलती है।
-अपनी जीभ को ब्रश करें। आपकी जीभ में बैक्टीरिया होते हैं, इसलिए इसे सावधानी से ब्रश करने से दुर्गंध कम हो सकती है। जिन लोगों की जीभ पर जीवाणुओं की अत्यधिक वृद्धि (उदाहरण के लिए, धूम्रपान या शुष्क मुँह से) के कारण जीभ पर परत चढ़ी होती है, उन्हें टंग स्क्रेपर का उपयोग करने से लाभ हो सकता है। या ऐसे टूथब्रश का इस्तेमाल करें जिसमें बिल्ट-इन टंग क्लीनर हो।
-स्वच्छ डेन्चर या दंत उपकरण। यदि आप एक पुल या नकली दांत पहनते हैं, तो इसे दिन में कम से कम एक बार या अपने दंत चिकित्सक के निर्देशानुसार अच्छी तरह से साफ करें। यदि आपके पास डेंटल रिटेनर या माउथ गार्ड है, तो इसे अपने मुंह में डालने से पहले हर बार साफ करें। आपका दंत चिकित्सक सर्वोत्तम सफाई उत्पाद की सिफारिश कर सकता है।
-शुष्क मुँह से बचें। अपने मुंह को नम रखने के लिए, तम्बाकू से बचें और खूब पानी पिएं, न कि कॉफी, शीतल पेय या शराब, जिससे मुंह सूख सकता है। लार को उत्तेजित करने के लिए गम चबाएं या कैंडी (अधिमानतः चीनी रहित) चूसें। पुराने सूखे मुंह के लिए, आपका दंत चिकित्सक या चिकित्सक एक कृत्रिम लार की तैयारी या एक मौखिक दवा लिख ​​सकता है जो लार के प्रवाह को उत्तेजित करता है।
-अपना आहार समायोजित करें। प्याज और लहसुन जैसे खाद्य पदार्थों से बचें जो सांसों की दुर्गंध का कारण बन सकते हैं। बहुत अधिक मीठे खाद्य पदार्थ खाने से भी सांसों की दुर्गंध होती है।
-नियमित रूप से नया टूथब्रश लें। जब आपका टूथब्रश खराब हो जाए तो इसे हर तीन से चार महीने में बदल दें और एक नरम ब्रिसल वाला टूथब्रश चुनें।
-नियमित डेंटल चेकअप शेड्यूल करें। अपने दंत चिकित्सक को नियमित रूप से अपने दांतों या डेन्चर की जांच और सफाई के लिए साल में दो बार देखें।</t>
-  </si>
-  <si>
-    <t>कूल कंप्रेस का इस्तेमाल करें। एक साफ कपड़े को ठंडे पानी से गीला करें। बैठने के दौरान, हल्के दबाव का उपयोग करते हुए कुछ मिनट के लिए अपनी आंखों के नीचे और आसपास की त्वचा पर नम कपड़े को लगाएं।
-सोने से पहले तरल पदार्थों का सेवन कम करें और अपने आहार में नमक को सीमित करें। यह द्रव प्रतिधारण को कम करेगा जो आंखों के नीचे बैग पैदा कर सकता है।
-धूम्रपान मत करो। धूम्रपान आपकी आंखों के नीचे बैग की समस्या को बढ़ा सकता है।
-पर्याप्त नींद। अधिकांश वयस्कों के लिए, 7 से 9 घंटे की नींद अच्छी मात्रा में होती है।
-अपने सिर को थोड़ा ऊपर उठाकर सोएं। यह एक अतिरिक्त तकिया जोड़ने या आपके गद्दे के सिर को ऊपर उठाने में मदद कर सकता है। या बिस्तर के पूरे सिर को कुछ इंच ऊपर उठाएं। यह सोते समय आपकी आंखों के आसपास तरल पदार्थ को जमा होने से रोकने में मदद करता है।
-एलर्जी के लक्षणों को कम करें। जब संभव हो एलर्जी से बचें। गैर-नुस्खे एलर्जी दवाओं का प्रयास करें। यदि आप बालों के रंग, साबुन, सौंदर्य प्रसाधन या अन्य एलर्जी के कारण आंखों के नीचे प्रतिक्रिया विकसित करते हैं तो रोकथाम रणनीतियों के बारे में अपने स्वास्थ्य देखभाल प्रदाता से बात करें।
-सौंदर्य प्रसाधनों का प्रयोग करें। अगर आप अपने अंडर-आई सर्कल को मास्क करना चाहती हैं, तो मेकअप का इस्तेमाल करके देखें।</t>
-  </si>
-  <si>
-    <t>मधुमक्खी के डंक मारने के तुरंत बाद, किसी भी शेष मधुमक्खी के जहर को हटाने के लिए क्षेत्र को अच्छी तरह धो लें। फिर दर्द और सूजन को कम करने के लिए बर्फ लगाएं। त्वचा को बर्फ से बचाने के लिए हमेशा कपड़े का इस्तेमाल करें। बर्फ अगर सीधे छू जाए तो यह त्वचा को नुकसान पहुंचा सकती है।
-कई आवश्यक तेलों में एंटीसेप्टिक, जीवाणुरोधी, या एंटीफंगल गुण होते हैं। हालांकि घरेलू उपचार में आवश्यक तेलों का लंबे समय से उपयोग किया जाता है, यह सुझाव देने के लिए बहुत कम उच्च गुणवत्ता वाले सबूत हैं कि मधुमक्खी के डंक के दर्द या सूजन से राहत मिल सकती है।
-एलोवेरा एक पौधे पर आधारित जेल है जो त्वचा को प्राकृतिक रूप से मुलायम और मॉइस्चराइज़ करता है। 2015 के एक अध्ययन के अनुसार, एलोवेरा के अर्क में एंटी-इंफ्लेमेटरी और जीवाणुरोधी गुण होते हैं। मधुमक्खी के डंक पर थोड़ा सा जेल लगाने से सूजन कम हो सकती है और उस स्थान को संक्रमित होने से रोका जा सकता है।
-शहद में कई औषधीय गुण होते हैं। इसमें यौगिक होते हैं जो सूजन से लड़ते हैं, इसलिए यह सूजन को कम करने में मदद कर सकता है। शहद में प्राकृतिक जीवाणुरोधी एजेंट भी संक्रमण और गति उपचार को रोकने में मदद कर सकते हैं। इन कारणों से, कुछ चिकित्सा पेशेवर घाव की ड्रेसिंग में शहद के अर्क का उपयोग करते हैं। डंक पर थोड़ी मात्रा में शहद लगाने की कोशिश करें। इसे घर के अंदर ही करें, ताकि शहद की महक मधुमक्खियों को ज्यादा आकर्षित न करे।</t>
-  </si>
-  <si>
-    <t>आप आमतौर पर खुद को और दूषित हो सकने वाले किसी भी निजी सामान को साफ करके शरीर की जूँ से छुटकारा पा सकते हैं।
-संक्रमित बिस्तर, कपड़े और तौलिये को गर्म, साबुन वाले पानी से धोएं - कम से कम 130 F (54 C) - और उन्हें कम से कम 20 मिनट के लिए उच्च ताप पर मशीन में सुखाएं।
-जो कपड़े धोए नहीं जा सकते उन्हें ड्राईक्लीन और इस्त्री किया जा सकता है।
-जिन वस्तुओं को धोया या सुखाया नहीं जा सकता है, उन्हें प्लास्टिक की थैली में सील करके दो सप्ताह के लिए गर्म क्षेत्र में संग्रहित किया जाना चाहिए।
-गद्दे, सोफे और अन्य असबाबवाला फर्नीचर वस्तुओं को गर्म इस्त्री किया जाना चाहिए या सीम से अंडे को खत्म करने के लिए जूँ-मारने वाले उत्पादों के साथ छिड़काव किया जाना चाहिए।
-संक्रमित वस्तुओं के संपर्क में आने से दो सप्ताह तक बचना चाहिए।</t>
-  </si>
-  <si>
-    <t>प्रतिदिन स्नान करें। नियमित स्नान, विशेष रूप से जीवाणुरोधी साबुन से, आपकी त्वचा पर बैक्टीरिया के विकास को कम करता है।
-अपनी गतिविधि के अनुरूप कपड़ों का चयन करें। दैनिक पहनने के लिए, कपास, ऊनी और रेशम जैसे प्राकृतिक कपड़े चुनें। ये आपकी त्वचा को सांस लेने की अनुमति देते हैं। व्यायाम पहनने के लिए, आप अपनी त्वचा से नमी को दूर करने के लिए विकसित सिंथेटिक कपड़े पसंद कर सकते हैं।
-विश्राम तकनीकों का प्रयास करें। योग, ध्यान या बायोफीडबैक जैसी विश्राम तकनीकों पर विचार करें। ये अभ्यास आपको पसीने को ट्रिगर करने वाले तनाव को नियंत्रित करना सिखा सकते हैं।
-अपना आहार बदलें। कैफीन युक्त पेय पदार्थ और मसालेदार या तेज महक वाले खाद्य पदार्थ आपको अधिक पसीना दे सकते हैं या शरीर की गंध सामान्य से अधिक मजबूत हो सकती है। इन खाद्य पदार्थों को खत्म करने से मदद मिल सकती है।</t>
-  </si>
-  <si>
-    <t>अपने हाथ या पैर भिगोएँ। कॉर्न्स और कॉलस को गर्म, साबुन वाले पानी में भिगोने से वे नरम हो जाते हैं। इससे गाढ़ी त्वचा को हटाना आसान हो सकता है।
-पतली घनी त्वचा। एक बार जब आप प्रभावित त्वचा को नरम कर लेते हैं, तो मकई या कॉलस को प्यूमिस स्टोन, नेल फाइल, एमरी बोर्ड या वॉशक्लॉथ से रगड़ें। यह सख्त त्वचा की एक परत को हटाने में मदद करता है। त्वचा को ट्रिम करने के लिए किसी नुकीली चीज का इस्तेमाल न करें। यदि आपको मधुमेह है तो प्यूमिक स्टोन का प्रयोग न करें।
-कॉर्न पैड का इस्तेमाल करें।
-अपनी त्वचा को मॉइस्चराइज़ करें। अपने हाथों और पैरों पर नियमित रूप से मॉइस्चराइजर का प्रयोग करें।
-आरामदायक जूते और मोज़े पहनें। कम से कम जब तक आपके कॉर्न या कैलस गायब नहीं हो जाते, तब तक अच्छी तरह से फिट होने वाले, गद्देदार जूते और मोज़े पहनें।</t>
-  </si>
-  <si>
-    <t>शुगर फ्री गम। खाने के बाद शुगर-फ्री गम चबाना क्लिनिकल ट्रायल में दिखाया गया है कि यह दांतों के इनेमल को फिर से मिनरलाइज करने में मदद करता है।
-विटामिन डी। विटामिन डी आपके द्वारा खाए जाने वाले भोजन से कैल्शियम और फॉस्फेट को अवशोषित करने में मदद करने के लिए महत्वपूर्ण है। आप दूध और दही जैसे डेयरी उत्पादों से विटामिन डी प्राप्त कर सकते हैं। धूप से भी आप विटामिन डी प्राप्त कर सकते हैं।
-फ्लोराइड टूथपेस्ट से ब्रश करें। गुहाओं को रोकने और तामचीनी को फिर से भरने में फ्लोराइड महत्वपूर्ण भूमिका निभाता है। व्यापक शोध यह दिखाने के लिए किया गया है कि नियमित रूप से अपने दांतों को फ्लोराइड टूथपेस्ट से ब्रश करने से कैविटी से बचाव होता है।
-मीठे खाद्य पदार्थों को काट दें। यह है कैविटी का उपाय जिसे कोई सुनना पसंद नहीं करता-इतनी चीनी खाना बंद कर दें।
-तेल निकालना। ऑयल पुलिंग एक प्राचीन प्रथा है जिसमें लगभग 20 मिनट के लिए अपने मुंह में तिल या नारियल जैसे तेल के चारों ओर घूमना शामिल है, फिर इसे थूक देना।</t>
-  </si>
-  <si>
-    <t>अपनी उपचार योजना पर टिके रहें। मनोचिकित्सा सत्र या नियुक्तियों को न छोड़ें। यहां तक ​​कि अगर आप अच्छा महसूस कर रहे हैं, तो भी अपनी दवाओं को न छोड़ें। यदि आप रुकते हैं, तो अवसाद के लक्षण वापस आ सकते हैं, और आप वापसी जैसे लक्षणों का भी अनुभव कर सकते हैं। पहचानें कि बेहतर महसूस करने में समय लगेगा।
-अवसाद के बारे में जानें। आपकी स्थिति के बारे में शिक्षा आपको सशक्त बना सकती है और आपको अपनी उपचार योजना पर टिके रहने के लिए प्रेरित कर सकती है। अपने परिवार को अवसाद के बारे में जानने के लिए प्रोत्साहित करें ताकि वे आपको समझ सकें और आपकी सहायता कर सकें।
-चेतावनी के संकेतों पर ध्यान दें। यह जानने के लिए अपने चिकित्सक या चिकित्सक के साथ काम करें कि आपके अवसाद के लक्षणों को क्या ट्रिगर कर सकता है। एक योजना बनाएं ताकि आप जान सकें कि यदि आपके लक्षण बदतर हो जाएं तो क्या करें। यदि आप लक्षणों में कोई बदलाव देखते हैं या आप कैसा महसूस करते हैं, तो अपने चिकित्सक या चिकित्सक से संपर्क करें। चेतावनी के संकेतों को देखने में मदद करने के लिए रिश्तेदारों या दोस्तों से पूछें।
-शराब और मनोरंजक दवाओं से बचें। ऐसा लग सकता है कि शराब या ड्रग्स अवसाद के लक्षणों को कम करते हैं, लेकिन लंबे समय में वे आम तौर पर लक्षणों को खराब करते हैं और इलाज के लिए अवसाद को कठिन बनाते हैं। यदि आपको शराब या मादक द्रव्यों के सेवन में सहायता की आवश्यकता है, तो अपने डॉक्टर या चिकित्सक से बात करें।
-अपना ख्याल। स्वस्थ खाएं, शारीरिक रूप से सक्रिय रहें और भरपूर नींद लें। चलने, जॉगिंग, तैराकी, बागवानी या किसी अन्य गतिविधि पर विचार करें जिसमें आप आनंद लेते हैं। अच्छी नींद आपके शारीरिक और मानसिक स्वास्थ्य दोनों के लिए महत्वपूर्ण है। अगर आपको सोने में परेशानी हो रही है, तो अपने डॉक्टर से बात करें कि आप क्या कर सकते हैं।</t>
-  </si>
-  <si>
-    <t>अधिक मात्रा में तरल पदार्थ पीओ। पानी, जूस, साफ शोरबा या गर्म नींबू पानी अच्छे विकल्प हैं। कैफीन और अल्कोहल से बचें, जो आपको निर्जलित कर सकते हैं।
-गर्म तरल पदार्थ पिएं। चिकन सूप और अन्य गर्म तरल पदार्थ, जैसे चाय या गर्म सेब का रस, सुखदायक हो सकते हैं और जमाव को कम कर सकते हैं। शहद वयस्कों और 1 वर्ष से अधिक उम्र के बच्चों में खांसी में मदद कर सकता है। इसे गर्म चाय में मिलाकर देखें।
-विश्राम। यदि संभव हो, तो यदि आपको बुखार या खांसी है या दवा लेने के बाद नींद आ रही है तो काम या स्कूल से घर पर रहें। यह आपको आराम करने और ठीक होने का मौका देगा, साथ ही इस संभावना को कम करेगा कि आप अपनी ठंड को दूसरों तक फैलाएंगे।
-अपने कमरे के तापमान और आर्द्रता को समायोजित करें। अपने कमरे को गर्म रखें, लेकिन ज़्यादा गरम न करें। यदि हवा शुष्क है, तो एक कूल-मिस्ट ह्यूमिडिफायर या वेपोराइज़र हवा को नम कर सकता है और भीड़ और खाँसी को कम करने में मदद कर सकता है। बैक्टीरिया और मोल्ड्स के विकास को रोकने के लिए निर्माता के निर्देशों के अनुसार अपने ह्यूमिडिफायर को साफ करें।
-गले की खराश शांत करे। 4 से 8 औंस (120 से 240 मिलीलीटर) गर्म पानी में 1/4 से 1/2 चम्मच (1250-2500 मिलीग्राम) नमक के पानी के गरारे से गले की खराश को शांत करने में मदद मिल सकती है। घोल को गरारे करें और फिर इसे थूक दें। 6 साल से छोटे बच्चों के ठीक से गार्गल करने में सक्षम होने की संभावना नहीं है।
-खारा नाक की बूंदों या स्प्रे का प्रयास करें। खारा नाक की बूंदें या स्प्रे नाक के मार्ग को नम और ढीला बलगम रख सकते हैं। आप इन उत्पादों को काउंटर से खरीद सकते हैं, और वे बच्चों में भी लक्षणों से राहत दिलाने में मदद कर सकते हैं। प्रत्येक नथुने। बल्ब सिरिंज को लगभग 1/4 से 1/2 इंच (6 से 12 मिलीमीटर) डालें। बड़े बच्चों के लिए, खारा नाक स्प्रे या खारा नाक सिंचाई का उपयोग करें।</t>
-  </si>
-  <si>
-    <t>फाइबर सप्लीमेंट लें। यदि कम फाइबर आहार आपके कब्ज का कारण है, तो फाइबर की खुराक आसानी से उपलब्ध है और आंत्र आंदोलनों को प्रेरित करने में प्रभावी है। वे आपके स्टूल में बल्क या वॉल्यूम जोड़कर काम करते हैं। यह आपकी आंतों के माध्यम से और आपके शरीर से मल को बाहर निकालने में मदद करता है।
-आप स्टोर या ऑनलाइन फाइबर सप्लीमेंट खरीद सकते हैं। यहाँ कुछ सामान्य हैं:
-कैल्शियम पॉलीकार्बोफिल (फाइबरकॉन)
-साइलियम (मेटाम्यूसिल, कॉन्सिल)
-मिथाइलसेलुलोज (साइट्रुसेल)
-कब्ज दूर करने के लिए खाद्य पदार्थों का सेवन करें। नेशनल इंस्टीट्यूट ऑफ डायबिटीज एंड डाइजेस्टिव एंड किडनी डिजीज (NIDDK) के विश्वसनीय स्रोत के अनुसार, फाइबर से भरपूर खाद्य पदार्थ खाने से आपको कब्ज से राहत पाने में मदद मिल सकती है।
-फाइबर में उच्च खाद्य पदार्थ शामिल हो सकते हैं:
-जई
-साबुत अनाज की रोटी या अनाज
-पूरे गेहूं का पास्ता
-रेशेदार फल, जैसे सेब और केले
-रेशेदार सब्जियां, जैसे ब्रोकोली, गाजर, और पत्तेदार साग
-भूरे रंग के चावल
-सेम और दाल
-विभाजित मटर
-अखरोट, जैसे अखरोट, पेकान और बादाम
-एक गिलास पानी पिएं। नियमित मल त्याग के लिए उचित जलयोजन आवश्यक है। शोधकर्ता लगभग 1.8 लीटर - या लगभग सात से आठ 8-औंस गिलास - प्रति दिन स्पष्ट तरल की सलाह देते हैं। आपके शरीर की सटीक मात्रा आपके आकार, लिंग और आप गर्भवती हैं या स्तनपान करा रही हैं या नहीं, इस पर निर्भर कर सकती हैं।
-एक एनीमा का प्रयास करें। आप कई प्रकार के एनीमा आजमा सकते हैं। मल त्याग करने के लिए एनीमा मल को पर्याप्त नरम करके काम करता है। एनीमा मल को मलाशय से बाहर धकेलने के लिए द्रव का उपयोग करता है। कुछ सामान्य प्रकार के एनीमा में शामिल हैं: सोडियम फॉस्फेट (फ्लीट), सोपसुड, नल का पानी एनीमा।
-एक सपोसिटरी का प्रयास करें। कब्ज के लिए कुछ उपचार रेक्टल सपोसिटरी के रूप में उपलब्ध हैं। मल को नरम करके मल त्याग को प्रोत्साहित करने में मदद करने के लिए इन सपोसिटरी को मलाशय में डाला जाता है।
-थोड़ा व्यायाम करो। हल्का व्यायाम, जैसे टहलना, योग या जॉगिंग, आपके पूरे पेट में रक्त के प्रवाह को बढ़ाकर मल त्याग को प्रोत्साहित कर सकता है।
-कॉलोनिक मालिश का प्रयास करें। कोलन को मैन्युअल रूप से मालिश करने से उन लोगों के लिए आंत्र को उत्तेजित करने में मदद मिल सकती है जिनके कब्ज को कोलन के माध्यम से मल की धीमी गति के कारण होता है। 2021 के एक अध्ययन ने सुझाव दिया कि एक स्वचालित उदर मालिश उपकरण ने पुरानी कब्ज वाले लोगों में मल पारगमन समय को कम करने में मदद की।
-प्राकृतिक उपचार आजमाएं। कुछ प्राकृतिक उपचार, जैसे कि प्रोबायोटिक्स का सेवन, कब्ज के इलाज और रोकथाम में सहायक हो सकता है, कुछ अध्ययनों के अनुसार इन पूरक आहारों को लेने के बाद मल की आवृत्ति में वृद्धि हुई है। जबकि अधिकांश लोगों के लिए सुरक्षित माना जाता है, ऐसे कुछ उदाहरण हैं जिनमें प्रोबायोटिक्स हानिकारक हो सकते हैं। उदाहरण के लिए, उन्हें आम तौर पर प्रतिरक्षा में अक्षम व्यक्तियों में इस्तेमाल नहीं किया जाना चाहिए।</t>
-  </si>
-  <si>
-    <t>तनाव को मैनेज करना सीखें। तनाव आपके समग्र स्वास्थ्य को प्रभावित करता है, जिससे आप कई स्थितियों और बीमारियों के प्रति अतिसंवेदनशील हो जाते हैं। यह डैंड्रफ को ट्रिगर करने या मौजूदा लक्षणों को खराब करने में भी मदद कर सकता है।
-स्वस्थ आहार लें। एक आहार जो पर्याप्त जस्ता, बी विटामिन और कुछ प्रकार के वसा प्रदान करता है, रूसी को रोकने में मदद कर सकता है।
-एक बाल और खोपड़ी की देखभाल की दिनचर्या विकसित करें जो आपको सूट करे। अगर आपकी स्कैल्प ऑयली है, तो रोजाना शैंपू करने से डैंड्रफ को रोकने में मदद मिल सकती है। गुच्छे को ढीला करने के लिए धीरे से अपने सिर की मालिश करें। अच्छी तरह कुल्ला करें। यदि आपके बाल शुष्क होते हैं और आपकी खोपड़ी संवेदनशील है, तो कम बार शैम्पू करें और धोने के बीच अपनी खोपड़ी को कंडीशन करें (डिज़ाइन एसेंशियल्स, मेलानिन हेयरकेयर, स्कैल्पब्लिस)।
-थोड़ा सूरज लो। रूसी को नियंत्रित करने के लिए धूप अच्छी हो सकती है। लेकिन क्योंकि पराबैंगनी प्रकाश के संपर्क में आने से आपकी त्वचा को नुकसान पहुंचता है और आपकी त्वचा के कैंसर का खतरा बढ़ जाता है, इसलिए धूप सेंकें नहीं। इसके बजाय, बस थोड़ा सा समय बाहर बिताएं। और अपने चेहरे और शरीर पर सनस्क्रीन जरूर लगाएं।
-हेयर-स्टाइलिंग उत्पादों को सीमित करें। हेयर-स्टाइलिंग उत्पाद आपके बालों और खोपड़ी पर जमा हो सकते हैं, जिससे वे अधिक तैलीय हो सकते हैं।</t>
-  </si>
-  <si>
-    <t>पर्याप्त पानी पियें। अत्यधिक पसीना, डेंगू बुखार के दौरान परिश्रम अत्यधिक निर्जलीकरण का कारण बन सकता है। नतीजतन, सुनिश्चित करें कि आप बहुत सारे तरल पदार्थ लेते हैं और अच्छी तरह से हाइड्रेटेड रहते हैं। अपने शरीर को अच्छी तरह से हाइड्रेटेड रखने के लिए थोड़े-थोड़े अंतराल पर पानी पिएं। हाइड्रेटेड रहने से सिरदर्द के लक्षणों के साथ-साथ मांसपेशियों में ऐंठन भी कम होती है। जब आपको डेंगू बुखार होता है, तो आपके शरीर में विषाक्त पदार्थ वायरल रोगजनकों के प्रभाव को जटिल बना देते हैं। पानी आपके शरीर से इन अतिरिक्त विषाक्त पदार्थों को बाहर निकालने में भी मदद करता है जिससे आपको ठीक होने में मदद मिलती है। भारत में कई आरओ वाटर प्यूरीफायर सिस्टम की उपलब्धता के साथ, आप आसानी से घर पर प्यूरीफायर स्थापित कर सकते हैं, यह सुनिश्चित करते हुए कि आप पानी के किसी अन्य स्रोत से बचें। आरओ का पानी दूषित पदार्थों से मुक्त होता है और किसी अन्य बीमारी के संपर्क में आने की संभावना को कम करता है।
-पपीते के पत्तों का रस। पपीते के पत्तों का रस पीना एक और बहुत ही प्रभावी उपाय है। पपीते के पत्तों को डेंगू बुखार के लिए प्राकृतिक इलाज माना जाता है। पत्तियों में पोषक तत्वों और कार्बनिक यौगिकों का मिश्रण होता है जो आपके प्लेटलेट काउंट को बढ़ाने में मदद करता है। डेंगू के लिए पपीते के पत्तों के रस में भी उच्च स्तर का विटामिन सी होता है जो प्रतिरक्षा प्रणाली को उत्तेजित करता है जबकि एंटीऑक्सिडेंट तनाव को कम करने और शरीर से विषाक्त पदार्थों को निकालने में मदद करते हैं। आपको बस इतना करना है कि पत्तियों को कुचल दें और कुचले हुए पत्तों से रस निकाल लें।
-तुलसी के पत्ते चबाएं। तुलसी के पत्ते चमत्कारी जड़ी-बूटियाँ हैं जो न केवल डेंगू बुखार के दौरान मदद करती हैं, बल्कि आपकी समग्र प्रतिरक्षा में भी सुधार करती हैं। 5-6 तुलसी के पत्ते चबाने से आपकी रोग प्रतिरोधक क्षमता बढ़ती है और डेंगू बुखार के लिए एक प्रभावी आयुर्वेदिक उपचार के रूप में इसकी सिफारिश की गई है। तुलसी के पत्तों में प्राकृतिक कीटनाशक गुणों वाले आवश्यक तेल होते हैं जो मच्छरों को दूर रखते हैं।
-नीम के पत्ते। नीम के पत्तों में औषधीय गुण होते हैं, यही वजह है कि कई तरह की बीमारियों के लिए इसकी सलाह दी जाती है। प्लेटलेट और वाइट ब्लड सेल काउंट बढ़ाने के लिए नीम की पत्तियों को भिगोकर काढ़ा बनाकर पिएं। डेंगू से पीड़ित होने पर नीम के पत्तों को अच्छी तरह से पीसा भी प्रतिरक्षा प्रणाली में सुधार करता है।
-संतरे का रस। संतरे एंटीऑक्सीडेंट और विटामिन से भरपूर होते हैं जो डेंगू के दूसरे लक्षणों के इलाज में मदद करते हैं। संतरे का जूस डेंगू के वायरस को खत्म करने में भी मदद करता है। चमत्कारी पेय प्रतिरक्षा प्रणाली में एंटीबॉडी को बढ़ावा देता है, पेशाब बढ़ाता है, जिससे शरीर से विषाक्त पदार्थों को बाहर निकाला जाता है। संतरे का रस आपके शरीर की कोशिकाओं की मरम्मत भी करता है क्योंकि इसमें विटामिन सी होता है जो कोलेजन बनाने में महत्वपूर्ण होता है।</t>
-  </si>
-  <si>
-    <t>पानी, शोरबा और जूस सहित बहुत सारे तरल पदार्थ पिएं। कैफीन और शराब से बचें।
-अर्ध ठोस और कम फाइबर वाले खाद्य पदार्थ धीरे-धीरे जोड़ें क्योंकि आपकी मल त्याग सामान्य हो जाती है। सोडा पटाखे, टोस्ट, अंडे, चावल या चिकन का प्रयास करें।
-कुछ दिनों के लिए डेयरी उत्पादों, वसायुक्त खाद्य पदार्थों, उच्च फाइबर वाले खाद्य पदार्थों या अत्यधिक अनुभवी खाद्य पदार्थों से बचें।
-एंटी-डायरियल दवाओं के बारे में पूछें। ओवर-द-काउंटर एंटी-डायरियल दवाएं, जैसे कि लोपरामाइड और बिस्मथ सबसालिसिलेट, पानी से भरे मल त्याग की संख्या को कम करने और गंभीर लक्षणों को नियंत्रित करने में मदद कर सकती हैं। इन दवाओं को लेने या बच्चे को देने से पहले अपने डॉक्टर से जाँच करें।
-प्रोबायोटिक्स लेने पर विचार करें। ये सूक्ष्मजीव अच्छे बैक्टीरिया के स्तर को बढ़ाकर आंतों के मार्ग में स्वस्थ संतुलन बहाल करने में मदद कर सकते हैं, हालांकि यह स्पष्ट नहीं है कि क्या वे दस्त के दौरे को कम करने में मदद कर सकते हैं। प्रोबायोटिक्स कैप्सूल या तरल रूप में उपलब्ध हैं और कुछ खाद्य पदार्थों में भी जोड़े जाते हैं, जैसे कि दही के कुछ ब्रांड।</t>
-  </si>
-  <si>
-    <t>अपना संतुलन खोने की संभावना से अवगत रहें, जिससे गिरने और गंभीर चोट लग सकती है।
-अचानक हिलने से बचें और जरूरत पड़ने पर स्थिरता के लिए बेंत लेकर चलें।
-क्षेत्र के गलीचे और उजागर विद्युत डोरियों जैसे ट्रिपिंग खतरों को हटाकर अपने घर को गिरने से सुरक्षित रखें। अपने नहाने और शॉवर के फर्श पर फिसलन रहित चटाई का प्रयोग करें। अच्छी रोशनी का प्रयोग करें।
-चक्कर आने पर तुरंत बैठ जाएं या लेट जाएं। यदि आप चक्कर के एक गंभीर प्रकरण का अनुभव कर रहे हैं, तो एक अंधेरे कमरे में अपनी आँखें बंद करके लेटे रहें।
-अगर आपको बिना किसी चेतावनी के बार-बार चक्कर आते हैं तो कार चलाने या भारी मशीनरी चलाने से बचें।
-कैफीन, शराब, नमक और तंबाकू के सेवन से बचें। इन पदार्थों का अत्यधिक उपयोग आपके संकेत और लक्षणों को खराब कर सकता है।
-पर्याप्त तरल पदार्थ पिएं, स्वस्थ आहार लें, पर्याप्त नींद लें और तनाव से बचें।
-यदि आपका चक्कर किसी दवा के कारण होता है, तो इसे बंद करने या खुराक कम करने के बारे में अपने डॉक्टर से बात करें।
-यदि आपका चक्कर आना मतली के साथ आता है, तो एक ओवर-द-काउंटर (गैर-नुस्खे) एंटीहिस्टामाइन, जैसे मेक्लिज़िन या डिमेनहाइड्रिनेट (ड्रामामाइन) का प्रयास करें। इससे उनींदापन हो सकता है। बिना नींद वाली एंटीथिस्टेमाइंस उतनी प्रभावी नहीं होती हैं।
-यदि आपका चक्कर ज़्यादा गरम होने या निर्जलीकरण के कारण होता है, तो किसी ठंडी जगह पर आराम करें और पानी या स्पोर्ट्स ड्रिंक (गेटोरेड, पॉवरडे, अन्य) पियें।</t>
-  </si>
-  <si>
-    <t>अपनी आंखों की जांच कराएं। यदि आप अच्छी तरह देखते हैं तो भी इसे नियमित रूप से करें।
-पुरानी स्वास्थ्य स्थितियों को नियंत्रित करें। मधुमेह और उच्च रक्तचाप जैसी कुछ स्थितियां, यदि उपचार न किया जाए तो आपकी दृष्टि को प्रभावित कर सकती हैं।
-अपनी आंखों को धूप से बचाएं। धूप का चश्मा पहनें जो पराबैंगनी (यूवी) विकिरण को रोकता है।
-आंखों की चोटों को रोकें। खेल खेलने, लॉन की घास काटने, पेंटिंग करने या जहरीले धुएं वाले अन्य उत्पादों का उपयोग करने जैसे कुछ काम करते समय सुरक्षात्मक आईवियर पहनें।
-स्वस्थ भोजन खाओ। खूब सारे पत्तेदार साग, अन्य सब्जियां और फल खाने की कोशिश करें। और अध्ययनों से पता चलता है कि यदि आप अपने आहार में ओमेगा -3 फैटी एसिड जैसे टूना और सैल्मन जैसे उच्च मछली भी शामिल करते हैं तो आपकी आंखों को लाभ होता है।
-धूम्रपान मत करो। जैसे धूम्रपान आपके शरीर के बाकी हिस्सों के लिए अच्छा नहीं है, वैसे ही धूम्रपान आपकी आंखों के स्वास्थ्य पर भी प्रतिकूल प्रभाव डाल सकता है।
-सही सुधारात्मक लेंस का प्रयोग करें। सही लेंस आपकी दृष्टि को अनुकूलित करते हैं। नियमित परीक्षा होने से यह सुनिश्चित होगा कि आपका नुस्खा सही है।
-अच्छी रोशनी का प्रयोग करें। बेहतर देखने के लिए ऊपर मुड़ें या प्रकाश डालें।
-आंखों का तनाव कम करें। अपने कंप्यूटर या निकट-कार्य के काम से दूर देखें, जिसमें पढ़ना भी शामिल है, 20 सेकंड के लिए 20 फीट की दूरी पर हर 20 मिनट में देखें।</t>
-  </si>
-  <si>
-    <t>शारीरिक रूप से सक्रिय रहें। एक दिनचर्या विकसित करें ताकि आप सप्ताह के अधिकांश दिनों में शारीरिक रूप से सक्रिय रहें। व्यायाम एक शक्तिशाली तनाव निवारण है। यह आपके मूड को बेहतर कर सकता है और आपको स्वस्थ रहने में मदद कर सकता है। धीरे-धीरे शुरू करें और धीरे-धीरे अपनी गतिविधियों की मात्रा और तीव्रता बढ़ाएं।
-नींद को प्राथमिकता बनाएं। यह सुनिश्चित करने के लिए कि आप आराम महसूस करने के लिए पर्याप्त नींद ले रहे हैं, वह करें जो आप कर सकते हैं। यदि आप अच्छी नींद नहीं ले रहे हैं, तो अपने डॉक्टर को दिखाएँ।
-विश्राम तकनीकों का प्रयोग करें। विज़ुअलाइज़ेशन तकनीक, ध्यान और योग विश्राम तकनीकों के उदाहरण हैं जो चिंता को कम कर सकते हैं।
-स्वस्थ खाओ। सब्जियों, फलों, साबुत अनाज और मछली पर ध्यान केंद्रित करने जैसे स्वस्थ भोजन को कम चिंता से जोड़ा जा सकता है, लेकिन अधिक शोध की आवश्यकता है।
-शराब और मनोरंजक दवाओं से बचें। ये पदार्थ चिंता को बढ़ा सकते हैं।
-धूम्रपान छोड़ें और कम करें या कॉफी पीना छोड़ दें। निकोटीन और कैफीन दोनों ही चिंता को बढ़ा सकते हैं।</t>
-  </si>
-  <si>
-    <t>चाय के पेड़ की तेल
-सौंफ का तेल
-इलंग-इलंग तेल</t>
-  </si>
-  <si>
-    <t>पेपर बैग में सांस लें
-बर्फ के पानी से गरारे करें
-अपनी सांस रोके
-ठंडा पानी पिएं</t>
-  </si>
-  <si>
-    <t>छोटे, अधिक बार-बार भोजन करना। अपने भोजन को धीरे-धीरे और अच्छी तरह चबाएं।
-ट्रिगर्स से बचना। वसायुक्त और मसालेदार भोजन, प्रसंस्कृत खाद्य पदार्थ, कार्बोनेटेड पेय पदार्थ, कैफीन, शराब और धूम्रपान अपच को ट्रिगर कर सकते हैं।
-स्वस्थ वजन बनाए रखना। अतिरिक्त पाउंड आपके पेट पर दबाव डालते हैं, आपके पेट को धक्का देते हैं और एसिड को आपके एसोफैगस में बैक अप लेते हैं।
-नियमित व्यायाम करना। व्यायाम आपको अतिरिक्त वजन कम करने में मदद करता है और बेहतर पाचन को बढ़ावा देता है।
-प्रबंधन तनाव। भोजन के समय शांत वातावरण बनाएं। विश्राम तकनीकों का अभ्यास करें, जैसे गहरी साँस लेना, ध्यान या योग।
-उन चीजों को करने में समय व्यतीत करें जिन्हें आप पसंद करते हैं।
-पूरी नींद लें।
-अपनी दवाएं बदलना। अपने डॉक्टर की स्वीकृति के साथ, दर्द निवारक या अन्य दवाओं को बंद करें या कम करें जो आपके पेट की परत को परेशान कर सकती हैं। यदि वह विकल्प नहीं है, तो इन दवाओं को भोजन के साथ लेना सुनिश्चित करें।</t>
-  </si>
-  <si>
-    <t>हफ्ते में कम से कम दो बार शेव करें।
-अंतर्वर्धित बालों को ट्वीज़ न करें।
-शेविंग करने से पहले प्रभावित क्षेत्र को गर्म वॉशक्लॉथ या सॉफ्ट-ब्रिसल वाले टूथब्रश से धो लें। कुछ मिनट के लिए सर्कुलर मोशन का इस्तेमाल करें।
-कुछ और मिनटों के लिए एक गर्म, नम कपड़ा लगाएँ।
-शेविंग क्रीम लगाएं, इसे सूखने न दें और एक तेज, सिंगल-ब्लेड रेज़र का उपयोग करें।
-शेविंग करते समय अपनी त्वचा को खींचे नहीं।
-बालों के बढ़ने की दिशा में शेव करें।
-प्रत्येक स्ट्रोक के बाद ब्लेड को धो लें।
-प्रत्येक बाल पाश के नीचे एक बाँझ सुई डालने और त्वचा में वापस उगने वाली नोक को धीरे-धीरे उठाकर दिखाई देने वाले अंतर्वर्धित बालों को छोड़ दें।
-अपनी त्वचा को धो लें और कुछ मिनटों के लिए एक ठंडा, गीला कपड़ा लगा लें। फिर सुखदायक आफ्टर-शेव उत्पाद का उपयोग करें। यदि आवश्यक हो, तो चार सप्ताह से अधिक समय तक 1% हाइड्रोकार्टिसोन क्रीम का उपयोग करने का प्रयास करें।</t>
-  </si>
-  <si>
-    <t>अपने पैरों को गर्म, साबुन वाले पानी में भिगोएँ। ऐसा 10 से 20 मिनट तक दिन में 3 से 4 बार करें जब तक कि पैर के अंगूठे में सुधार न हो जाए।
-अपने पैर के नाखून के नीचे कॉटन या डेंटल फ्लॉस लगाएं। प्रत्येक भिगोने के बाद, अंतर्वर्धित किनारे के नीचे कपास या मोमयुक्त डेंटल फ्लॉस के ताजे टुकड़े डालें। इससे नाखून को त्वचा के किनारे से ऊपर बढ़ने में मदद मिलेगी।
-पेट्रोलियम जेली लगाएं। टेंडर वाली जगह पर पेट्रोलियम जेली (वैसलीन) लगाएं और पैर के अंगूठे पर पट्टी बांध लें।
-समझदार फुटवियर चुनें। जब तक आपके पैर का अंगूठा बेहतर महसूस न करे तब तक खुले पैर के जूते या सैंडल पहनने पर विचार करें।
-दर्द निवारक लें। एक गैर-नुस्खे दर्द निवारक जैसे कि एसिटामिनोफेन (टाइलेनॉल, अन्य) या इबुप्रोफेन (एडविल, मोट्रिन आईबी, अन्य) पैर की अंगुली के दर्द को कम करने में मदद कर सकते हैं।</t>
-  </si>
-  <si>
-    <t>नियमित रूप से व्यायाम करें। सेक्स सहित शारीरिक गतिविधि, कुछ महिलाओं के मासिक धर्म में ऐंठन को कम करने में मदद करती है।
-गर्मी का प्रयोग करें। गर्म स्नान में भिगोने या हीटिंग पैड, गर्म पानी की बोतल या पेट के निचले हिस्से पर हीट पैच का उपयोग करने से मासिक धर्म में ऐंठन कम हो सकती है।
-पूरक आहार का प्रयास करें। कई अध्ययनों ने संकेत दिया है कि विटामिन ई, ओमेगा -3 फैटी एसिड, विटामिन बी -1 (थियामिन), विटामिन बी -6 और मैग्नीशियम की खुराक मासिक धर्म की ऐंठन को कम कर सकती है।
-तनाव कम करना। मनोवैज्ञानिक तनाव आपके मासिक धर्म में ऐंठन और उनकी गंभीरता के जोखिम को बढ़ा सकता है।</t>
-  </si>
-  <si>
-    <t>विश्राम तकनीकों का प्रयास करें। बायोफीडबैक और विश्राम प्रशिक्षण के अन्य रूप आपको तनावपूर्ण स्थितियों से निपटने के तरीके सिखाते हैं, जो आपके पास होने वाले माइग्रेन की संख्या को कम करने में मदद कर सकते हैं।
-सोने और खाने की दिनचर्या विकसित करें। बहुत अधिक या बहुत कम न सोएं। रोजाना सोने और जागने का शेड्यूल सेट करें और उसका पालन करें। प्रतिदिन एक ही समय पर भोजन करने का प्रयास करें।
-अधिक मात्रा में तरल पदार्थ पीओ। हाइड्रेटेड रहना, विशेष रूप से पानी के साथ, मदद कर सकता है।
-सिर दर्द की डायरी रखें। सिरदर्द की डायरी में अपने लक्षणों को दर्ज करने से आपको यह जानने में मदद मिलेगी कि आपके माइग्रेन को क्या ट्रिगर करता है और कौन सा उपचार सबसे प्रभावी है। यह आपके डॉक्टर को आपकी स्थिति का निदान करने और यात्राओं के बीच में आपकी प्रगति को ट्रैक करने में भी मदद करेगा।
-नियमित रूप से व्यायाम करें। नियमित एरोबिक व्यायाम तनाव कम करता है और माइग्रेन को रोकने में मदद कर सकता है। यदि आपका डॉक्टर सहमत है, तो ऐसी एरोबिक गतिविधि चुनें जिसका आप आनंद लेते हैं, जैसे चलना, तैरना और साइकिल चलाना। हालाँकि, धीरे-धीरे वार्म अप करें, क्योंकि अचानक, तीव्र व्यायाम से सिरदर्द हो सकता है।
-नियमित व्यायाम भी आपको वजन कम करने या स्वस्थ शरीर के वजन को बनाए रखने में मदद कर सकता है, और मोटापे को माइग्रेन का एक कारक माना जाता है।</t>
-  </si>
-  <si>
-    <t>लोशन, क्रीम या पेस्ट लगाएं। काटने पर कैलामाइन लोशन या बिना नुस्खे के हाइड्रोकार्टिसोन क्रीम लगाने से खुजली कम हो सकती है।
-या बेकिंग सोडा और पानी से बने पेस्ट से काटने की कोशिश करें। जब तक आपके लक्षण दूर नहीं हो जाते, तब तक रोजाना कई बार दोबारा लगाएं।
-कूल कंप्रेस लगाएं। कुछ मिनटों के लिए एक ठंडा पैक या एक ठंडा, नम कपड़ा लगाकर काटने को शांत करने का प्रयास करें।
-एक मौखिक एंटीहिस्टामाइन लें। तेज प्रतिक्रियाओं के लिए, बिना नुस्खे के एंटीहिस्टामाइन (बेनाड्रिल, क्लोर-ट्रिमेटन, अन्य) लेने की कोशिश करें।</t>
-  </si>
-  <si>
-    <t>आइस-पैक: आप बर्फ के साथ मांसपेशियों की ऐंठन को भी पूर्ववत कर सकते हैं क्योंकि यह एक प्रभावी दर्द निवारक और एक विरोधी भड़काऊ एजेंट के रूप में कार्य करता है। आपको केवल 10 मिनट से अधिक समय तक या क्षेत्र के चमकदार लाल होने तक बर्फ से मालिश करने की आवश्यकता है, जो इंगित करता है कि रक्त कोशिकाएं ऐंठन वाली मांसपेशियों को गर्म करने के लिए वापस आ गई हैं।
-हल्दी और फिटकरी: हल्दी शक्तिशाली एंटीसेप्टिक यौगिकों में से एक है जिसका व्यापक रूप से दर्द निवारक के रूप में उपयोग किया जाता है, जबकि फिटकरी अपने सुखदायक और रक्त को पतला करने वाले गुणों के लिए प्रसिद्ध है। जब दोनों संयुक्त होते हैं, तो वे मांसपेशियों में ऐंठन के खिलाफ प्रभावी परिणाम प्रदान करते हैं। प्रभावित जगह पर हल्दी और फिटकरी का लेप लगाएं। प्रभावित जगह पर मसाज न करें और इसे सूखने के लिए छोड़ दें। दो दिनों तक दिन में कम से कम दो बार ऐसा करने से मांसपेशियों में ऐंठन के कारण होने वाले दर्द और सूजन को कम करने में मदद मिलती है।
-वार्म कंप्रेस: ​​क्रैम्पिस के कारण होने वाले मांसपेशियों के दर्द से निपटने के लिए एक और सदियों पुराना उपाय वार्म कंप्रेस आजमाया जा सकता है। ऐसा इसलिए है, क्योंकि गर्मी सतही रक्त परिसंचरण में सुधार करती है और मांसपेशियों को अधिक लचीला बनाती है, इसलिए कुछ लोगों को लगता है कि बर्फ की तुलना में गर्मी मांसपेशियों की ऐंठन के लिए अधिक सुखदायक है।
-नमक: किसी भी घर में आसानी से उपलब्ध, आम नमक मांसपेशियों की ऐंठन से छुटकारा पाने का एक अद्भुत घरेलू उपाय है। चूंकि शरीर में सोडियम की कमी से मांसपेशियों में ऐंठन शुरू हो जाती है, इसलिए नमक युक्त तरल पदार्थ का सेवन कर सकता है। आपको बस इतना करना है कि ऐंठन से छुटकारा पाने के लिए एक लीटर पानी में 2-3 चम्मच चीनी और 1/2 चम्मच नमक और नींबू का रस मिलाएं और इस घोल को अंतराल पर पीते रहें। आप राहत के लिए प्रभावित व्यक्ति के ऊपर नमक का लेप भी लगा सकते हैं (एक मुट्ठी नमक तवे पर गरम करके कपड़े में रख दें)।
-स्ट्रेचिंग: शरीर के विभिन्न हिस्सों जैसे पैर, हाथ, जांघ, पिंडली और हथेली की मांसपेशियों में ऐंठन को दूर करने के लिए स्ट्रेचिंग सबसे प्रभावी घरेलू उपचारों में से एक है। दर्द से निपटने के लिए कम से कम 5 से 10 मिनट (वार्म-अप और कूल-डाउन पीरियड्स के रूप में) के लिए कुछ स्ट्रेचिंग एक्सरसाइज करें। उन मांसपेशियों की ऐंठन से हमेशा के लिए छुटकारा पाने के बारे में विस्तार से पढ़ें!</t>
-  </si>
-  <si>
-    <t>नियमित आंखों की जांच करवाएं।
-अपनी आंखों को धूप से बचाएं।
-खेल या काम के दौरान सुरक्षात्मक आईवियर पहनें जिससे आंखों में चोट लग सकती है।
-पढ़ते और काम करते समय अच्छी रोशनी का प्रयोग करें।
-निर्देशानुसार प्रिस्क्रिप्शन लेंस पहनें।
-निर्देशित चश्मे या कॉन्टैक्ट लेंस की देखभाल करें।
-20 सेकंड के लिए 20 फीट दूर किसी चीज को देखकर हर 20 मिनट में अपनी आंखों को कंप्यूटर या अन्य क्लोज-अप काम से आराम दें।
-स्वस्थ भोजन खाओ।
-नियमित व्यायाम करें।
-उच्च रक्तचाप या मधुमेह जैसी स्वास्थ्य स्थितियों को नियंत्रित करें, जो आपकी दृष्टि को प्रभावित कर सकती हैं।
-धूम्रपान मत करो।</t>
-  </si>
-  <si>
-    <t>वैकल्पिक गर्म और ठंडी मालिश। पहले 48 घंटों के दौरान दिन में कई बार 15 मिनट तक ठंडक लगाकर सूजन कम करें, जैसे आइस पैक या बर्फ को तौलिये में लपेट कर। उसके बाद, गर्मी का प्रयोग करें। कम सेटिंग पर गर्म पानी से स्नान करने या हीटिंग पैड का उपयोग करने का प्रयास करें।
-घरेलू व्यायाम। गर्दन को हिलाते रहना जरूरी है। एक बार दर्द कम होने के बाद, गर्दन के रोल और कंधे के रोल सहित दैनिक कोमल स्ट्रेचिंग शुरू करें।
-गर्दन को धीरे से झुकाएं, मोड़ें और घुमाएं। इन अभ्यासों को करने से पहले गर्दन और पीठ को हीटिंग पैड या शॉवर या स्नान में गर्म करें।</t>
-  </si>
-  <si>
-    <t>अपनी हालत के बारे में सीखना। मोटापे के बारे में शिक्षा आपको यह जानने में मदद कर सकती है कि आपने मोटापा क्यों विकसित किया और आप इसके बारे में क्या कर सकते हैं। आप नियंत्रण लेने और अपनी उपचार योजना पर टिके रहने के लिए अधिक सशक्त महसूस कर सकते हैं। सम्मानित स्व-सहायता पुस्तकें पढ़ें और उनके बारे में अपने डॉक्टर या चिकित्सक से बात करने पर विचार करें।
-यथार्थवादी लक्ष्य निर्धारित करना। जब आपको बहुत अधिक वजन कम करना होता है, तो आप ऐसे लक्ष्य निर्धारित कर सकते हैं जो अवास्तविक हों, जैसे बहुत अधिक तेजी से वजन कम करने की कोशिश करना। असफलता के लिए खुद को स्थापित न करें। व्यायाम और वजन घटाने के लिए दैनिक या साप्ताहिक लक्ष्य निर्धारित करें। कठोर परिवर्तनों का प्रयास करने के बजाय अपने आहार में छोटे बदलाव करें, जिनसे आप लंबे समय तक टिके रहने की संभावना नहीं रखते हैं।
-अपनी उपचार योजना पर टिके रहना। जिस जीवनशैली में आप कई वर्षों से रह रहे हैं, उसे बदलना मुश्किल हो सकता है। यदि आप पाते हैं कि आपकी गतिविधि या खाने के लक्ष्य फिसल रहे हैं तो अपने डॉक्टर, चिकित्सक या अन्य स्वास्थ्य देखभाल पेशेवरों के साथ ईमानदार रहें। आप नए विचारों या नए दृष्टिकोणों के साथ मिलकर काम कर सकते हैं।
-समर्थन सूचीबद्ध करना। अपने वजन घटाने के लक्ष्यों के साथ अपने परिवार और दोस्तों को शामिल करें। अपने आप को उन लोगों से घेरें जो आपका समर्थन करेंगे और आपकी मदद करेंगे, न कि आपके प्रयासों में तोड़फोड़ करेंगे। सुनिश्चित करें कि वे समझते हैं कि वजन कम करना आपके स्वास्थ्य के लिए कितना महत्वपूर्ण है। आप वज़न कम करने वाले सहायता समूह में भी शामिल होना चाह सकते हैं।
-रिकॉर्ड रखना। एक भोजन और गतिविधि लॉग रखें। यह रिकॉर्ड आपको अपने खाने और व्यायाम की आदतों के लिए जवाबदेह बने रहने में मदद कर सकता है। आप ऐसे व्यवहार की खोज कर सकते हैं जो आपको वापस पकड़ सकता है और, इसके विपरीत, जो आपके लिए अच्छा काम करता है। आप अपने लॉग का उपयोग अन्य महत्वपूर्ण स्वास्थ्य मापदंडों जैसे रक्तचाप और कोलेस्ट्रॉल के स्तर और समग्र फिटनेस को ट्रैक करने के लिए भी कर सकते हैं।</t>
-  </si>
-  <si>
-    <t>आप जो सीखते हैं उसका अभ्यास करें। लक्षणों को प्रबंधित करने में मदद करने वाली तकनीकों और कौशलों की पहचान करने के लिए अपने मानसिक स्वास्थ्य पेशेवर के साथ काम करें और नियमित रूप से इनका अभ्यास करें।
-निर्देशानुसार अपनी दवाएं लें। यहां तक ​​​​कि अगर आप अच्छा महसूस कर रहे हैं, तो अपनी दवाओं को छोड़ने के किसी भी प्रलोभन का विरोध करें। यदि आप रुकते हैं, तो ओसीडी के लक्षण वापस आने की संभावना है।
-चेतावनी के संकेतों पर ध्यान दें। आप और आपके डॉक्टर ने उन मुद्दों की पहचान की हो सकती है जो आपके ओसीडी लक्षणों को ट्रिगर कर सकते हैं। एक योजना बनाएं ताकि आप जान सकें कि लक्षण वापस आने पर क्या करना चाहिए। यदि आप लक्षणों में कोई बदलाव देखते हैं या आप कैसा महसूस करते हैं, तो अपने चिकित्सक या चिकित्सक से संपर्क करें।
-अन्य दवाएं लेने से पहले पहले जांचें। ओसीडी के लिए आपका इलाज करने वाले डॉक्टर से संपर्क करें इससे पहले कि आप किसी अन्य डॉक्टर द्वारा निर्धारित दवाएं लें या किसी भी ओवर-द-काउंटर दवाएं, विटामिन, हर्बल उपचार या अन्य पूरक लेने से पहले संभावित बातचीत से बचें।</t>
-  </si>
-  <si>
-    <t>अपनी उपचार योजना पर टिके रहें। अपने डर का सामना करना मुश्किल हो सकता है, लेकिन उपचार से आपको यह महसूस करने में मदद मिल सकती है कि आप अपने ही घर में बंधक नहीं हैं।
-एक सहायता समूह में शामिल हों। पैनिक अटैक या चिंता विकार वाले लोगों के समूह में शामिल होने से आप उन अन्य लोगों से जुड़ सकते हैं जो समान समस्याओं का सामना कर रहे हैं।
-कैफीन, शराब, धूम्रपान और मनोरंजक दवाओं से बचें। ये सभी पैनिक अटैक को ट्रिगर या खराब कर सकते हैं।
-तनाव प्रबंधन और विश्राम तकनीकों का अभ्यास करें। उदाहरण के लिए, योग, गहरी साँस लेना और प्रगतिशील मांसपेशी छूट, एक समय में एक मांसपेशी को तानना, और तब तक तनाव को पूरी तरह से मुक्त करना जब तक कि शरीर की प्रत्येक मांसपेशी शिथिल न हो जाए, यह भी सहायक हो सकता है।
-शारीरिक रूप से सक्रिय हो जाओ। एरोबिक गतिविधि का आपके मूड पर शांत प्रभाव पड़ सकता है।
-पर्याप्त नींद लें। पर्याप्त नींद लें ताकि आप दिन के दौरान उनींदापन महसूस न करें।</t>
-  </si>
-  <si>
-    <t>अपनी आंखों पर एक सेक लगाएं। एक सेक बनाने के लिए, एक साफ, लिंट-फ्री कपड़े को पानी में भिगोएँ और इसे अपनी बंद पलकों पर धीरे से लगाने से पहले इसे निचोड़ लें। आम तौर पर, एक ठंडा पानी का सेक सबसे अधिक सुखदायक महसूस करेगा, लेकिन यदि आप बेहतर महसूस करते हैं तो आप एक गर्म सेक का भी उपयोग कर सकते हैं।
-अगर गुलाबी आंख केवल एक आंख को प्रभावित करती है, तो दोनों आंखों को एक ही कपड़े से न छुएं। इससे पिंक आई के एक आंख से दूसरी आंख में फैलने का खतरा कम हो जाता है।
-आईड्रॉप ट्राई करें। कृत्रिम आँसू नामक ओवर-द-काउंटर आईड्रॉप्स लक्षणों से राहत दे सकते हैं। कुछ आंखों की बूंदों में एंटीहिस्टामाइन या अन्य दवाएं होती हैं जो एलर्जी नेत्रश्लेष्मलाशोथ वाले लोगों के लिए सहायक हो सकती हैं।
-कॉन्टेक्ट लेंस पहनना बंद कर दें। यदि आप कॉन्टेक्ट लेंस पहनते हैं, तो आपको उन्हें तब तक पहनना बंद करना पड़ सकता है जब तक कि आपकी आंखें बेहतर महसूस न करें। कॉन्टेक्ट लेंस के बिना आपको कितने समय तक रहने की आवश्यकता होगी, यह आपके नेत्रश्लेष्मलाशोथ के कारण पर निर्भर करता है।
-अपने डॉक्टर से पूछें कि क्या आपको अपने डिस्पोजेबल कॉन्टैक्ट्स, साथ ही अपने सफाई समाधान और लेंस केस को फेंक देना चाहिए। यदि आपके लेंस डिस्पोजेबल नहीं हैं, तो उन्हें पुन: उपयोग करने से पहले अच्छी तरह से साफ करें।</t>
-  </si>
-  <si>
-    <t>स्वस्थ वजन पर रहें। वजन घटाने से इंसुलिन और एण्ड्रोजन का स्तर कम हो सकता है। यह ओव्यूलेशन को भी बहाल कर सकता है।
-अपने स्वास्थ्य देखभाल प्रदाता से वज़न-नियंत्रण कार्यक्रम के बारे में पूछें, यदि आपको इसकी आवश्यकता है। वजन घटाने के लक्ष्यों तक पहुंचने में मदद के लिए एक पंजीकृत आहार विशेषज्ञ से मिलें।
-कार्बोहाइड्रेट सीमित करें। उच्च कार्बोहाइड्रेट वाले आहार इंसुलिन के स्तर को बढ़ा सकते हैं। अपने प्रदाता से पूछें कि क्या कम कार्बोहाइड्रेट वाला आहार पीसीओएस होने पर मदद कर सकता है।
-जटिल कार्बोहाइड्रेट चुनें, जो आपके रक्त शर्करा के स्तर को धीरे-धीरे बढ़ाते हैं। फलों, सब्जियों, साबुत अनाज और पके हुए सूखे बीन्स और मटर में कॉम्प्लेक्स कार्बोहाइड्रेट पाए जाते हैं।
-सक्रिय होना। व्यायाम रक्त शर्करा के स्तर को कम करने में मदद करता है। यदि आपके पास पीसीओएस है, तो अपनी दैनिक गतिविधियों को बढ़ाने और नियमित व्यायाम करने से इंसुलिन प्रतिरोध का इलाज हो सकता है या यहां तक ​​कि रोका जा सकता है। सक्रिय रहने से आपको अपना वजन नियंत्रण में रखने और मधुमेह के विकास से बचने में भी मदद मिल सकती है।</t>
-  </si>
-  <si>
-    <t>पेट फूलना और परिपूर्णता की अनुभूति को कम करने के लिए छोटे, अधिक बार-बार भोजन करें।
-सूजन और द्रव प्रतिधारण को कम करने के लिए नमक और नमकीन खाद्य पदार्थों को सीमित करें।
-फल, सब्जियां और साबुत अनाज जैसे जटिल कार्बोहाइड्रेट से भरपूर खाद्य पदार्थ चुनें।
-कैल्शियम से भरपूर खाद्य पदार्थ चुनें। यदि आप डेयरी उत्पादों को बर्दाश्त नहीं कर सकते हैं या अपने आहार में पर्याप्त कैल्शियम नहीं प्राप्त कर रहे हैं, तो दैनिक कैल्शियम पूरक मदद कर सकता है।
-कैफीन और शराब से बचें।</t>
-  </si>
-  <si>
-    <t>अपनी त्वचा पर एक ठंडा कपड़ा दबाएं या ठंडा स्नान या स्नान करें। यह आपकी त्वचा को हवा में सूखने देने में मदद कर सकता है।
-तैलीय या चिकना मॉइस्चराइज़र, सौंदर्य प्रसाधन, सनस्क्रीन और अन्य उत्पादों का उपयोग करने से बचें जो छिद्रों को और अवरुद्ध कर सकते हैं।
-इसके बजाय ऊन वसा (निर्जल लानौलिन) के साथ एक मॉइस्चराइजर का उपयोग करें, जो पसीने की नलिकाओं को बंद होने से रोकने में मदद करता है।</t>
-  </si>
-  <si>
-    <t>यदि आप अधिक वजन वाले हैं, तो वजन कम करें। अधिक वजन वाले लोगों के गले में अतिरिक्त ऊतक हो सकते हैं जो खर्राटों में योगदान करते हैं। वजन कम करने से खर्राटों को कम करने में मदद मिल सकती है।
-अपनी तरफ सो जाओ। अपनी पीठ के बल लेटने से आपकी जीभ आपके गले में पीछे की ओर गिरती है, आपके वायुमार्ग को संकुचित करती है और आंशिक रूप से वायु प्रवाह को बाधित करती है। अपनी तरफ सोने की कोशिश करें। यदि आप पाते हैं कि आप हमेशा आधी रात में अपनी पीठ के बल लेट जाते हैं, तो अपने पायजामा टॉप के पीछे एक टेनिस बॉल सिलने की कोशिश करें।
-अपने बिस्तर का सिरा ऊपर उठाएं। अपने बिस्तर के शीर्ष को लगभग 4 इंच ऊपर उठाने से मदद मिल सकती है।
-नाक की पट्टी या एक बाहरी नाक विस्फारक। नाक के पुल पर लगाई जाने वाली चिपकने वाली पट्टियां कई लोगों को उनके नाक मार्ग के क्षेत्र को बढ़ाने में मदद करती हैं, जिससे उनकी सांस लेने में वृद्धि होती है।
-नाक की भीड़ या रुकावट का इलाज करें। एलर्जी या विचलित सेप्टम होने से आपकी नाक के माध्यम से वायु प्रवाह सीमित हो सकता है। यह आपको अपने मुंह से सांस लेने के लिए मजबूर करता है, जिससे खर्राटों की संभावना बढ़ जाती है।
-शराब और शामक पदार्थों को सीमित करें या उनसे बचें। सोने से कम से कम दो घंटे पहले मादक पेय पीने से बचें, और शामक लेने से पहले अपने डॉक्टर को अपने खर्राटों के बारे में बताएं। शामक और अल्कोहल आपके केंद्रीय तंत्रिका तंत्र को दबाते हैं, जिससे आपके गले में ऊतकों सहित मांसपेशियों में अत्यधिक छूट होती है।
-धूम्रपान छोड़ने। धूम्रपान बंद करने से कई अन्य स्वास्थ्य लाभ होने के अलावा, खर्राटों को कम किया जा सकता है।
-पर्याप्त नींद। वयस्कों को प्रति रात कम से कम सात घंटे सोने का लक्ष्य रखना चाहिए। बच्चों के लिए नींद के अनुशंसित घंटे उम्र के हिसाब से अलग-अलग होते हैं। पूर्वस्कूली उम्र के बच्चों को दिन में 10 से 13 घंटे मिलना चाहिए। स्कूली उम्र के बच्चों को दिन में नौ से 12 घंटे की जरूरत होती है, और किशोरों को दिन में आठ से 10 घंटे चाहिए।</t>
-  </si>
-  <si>
-    <t>तनाव कम करने के कौशल सीखें।
-शारीरिक व्यायाम करें या नियमित रूप से शारीरिक रूप से सक्रिय रहें।
-पर्याप्त नींद।
-स्वस्थ, संतुलित आहार लें।
-शराब से परहेज करें।
-कैफीन को सीमित करें या उससे बचें।
-उन लोगों तक पहुंचकर सामाजिक स्थितियों में भाग लें जिनके साथ आप सहज महसूस करते हैं।</t>
-  </si>
-  <si>
-    <t>दर्द निवारक लें। दर्द से राहत के लिए, बहुत अधिक धूप लेने के बाद जितनी जल्दी हो सके एक गैर-नुस्खे दर्द निवारक लें। उदाहरणों में इबुप्रोफेन (एडविल, मोट्रिन आईबी, अन्य) और एसिटामिनोफेन (टाइलेनॉल, अन्य) शामिल हैं। या एक जेल दर्द निवारक का प्रयास करें जिसे आप त्वचा पर रगड़ते हैं।
-त्वचा को ठंडक दें। प्रभावित त्वचा पर ठंडे नल के पानी से भीगा हुआ साफ तौलिया लगाएं। या अतिरिक्त बेकिंग सोडा के साथ एक ठंडा स्नान करें - एक टब में लगभग 2 औंस (60 ग्राम)। दिन में कई बार लगभग 10 मिनट के लिए त्वचा को ठंडा करें।
-मॉइस्चराइजर, लोशन या जेल लगाएं। एक मुसब्बर वेरा लोशन या जेल या कैलामाइन लोशन सुखदायक हो सकता है। लगाने से पहले उत्पाद को रेफ्रिजरेटर में ठंडा करने का प्रयास करें। शराब से बने उत्पादों से बचें।
-एक दिन के लिए अतिरिक्त पानी पिएं। यह निर्जलीकरण को रोकने में मदद करता है।
-फफोले को अकेला छोड़ दें। एक अक्षुण्ण छाला त्वचा को ठीक करने में मदद कर सकता है। यदि फफोला फूटता है, तो मृत त्वचा को साफ, छोटी कैंची से काट लें। हल्के साबुन और पानी से धीरे-धीरे क्षेत्र को साफ करें। फिर घाव पर एंटीबायोटिक मरहम लगाएं और इसे नॉनस्टिक पट्टी से ढक दें।
-छीलने वाली त्वचा का धीरे से इलाज करें। कुछ दिनों के भीतर, प्रभावित क्षेत्र छिलना शुरू हो सकता है। क्षतिग्रस्त त्वचा की ऊपरी परत से छुटकारा पाने का यह आपके शरीर का तरीका है। जब आपकी त्वचा छिल रही हो, तो मॉइस्चराइजर का इस्तेमाल करते रहें।
-खुजली रोधी दवा लें। डिफेनहाइड्रामाइन (बेनाड्रिल, क्लोर-ट्रिमेटन, अन्य) जैसे मौखिक एंटीहिस्टामाइन खुजली से छुटकारा पाने में मदद कर सकते हैं क्योंकि त्वचा छीलने लगती है और नीचे ठीक हो जाती है।
-सुखदायक औषधीय क्रीम लगाएं। हल्के से मध्यम धूप की कालिमा के लिए, तीन दिनों के लिए दिन में तीन बार प्रभावित क्षेत्र पर बिना नुस्खे के 1% हाइड्रोकार्टिसोन क्रीम लगाएं। लगाने से पहले उत्पाद को रेफ्रिजरेटर में ठंडा करने का प्रयास करें।
-धूप से झुलसी आंखों का इलाज करें। ठंडे नल के पानी से भीगा हुआ साफ तौलिया लगाएं। जब तक आपकी आंखों के लक्षण दूर नहीं हो जाते, तब तक कॉन्टैक्ट्स न पहनें। अपनी आँखें मत मलो।
-खुद को आगे धूप के संपर्क से बचाएं। जबकि आपका सनबर्न ठीक हो रहा है, धूप से दूर रहें या धूप से बचाव के अन्य उपायों का उपयोग करें। आप ऐसे उत्पाद को आजमा सकते हैं जिसमें मॉइस्चराइजर और सनस्क्रीन हो।
-बेंज़ोकेन जैसे '-केन' उत्पादों को लगाने से बचें। ऐसी क्रीम त्वचा को परेशान कर सकती हैं या एलर्जी की प्रतिक्रिया पैदा कर सकती हैं। बेंज़ोकेन को दुर्लभ लेकिन संभावित रूप से घातक स्थिति से जोड़ा गया है जो ऑक्सीजन की मात्रा को कम करता है जो रक्त ले जा सकता है (मेटेमोग्लोबिनेमिया)।</t>
-  </si>
-  <si>
-    <t>प्रभावित हाथ और कलाई को कम से कम 2 सप्ताह के लिए आराम दें
-वाइब्रेटिंग टूल्स के साथ एंटी-वाइब्रेशन उत्पादों का उपयोग
-मीडियन नर्व को आराम देने के लिए रिस्ट स्प्लिंट या ब्रेस पहनें
-हाथों, उंगलियों और कलाई के लिए कोमल स्ट्रेचिंग व्यायाम करें
-कम से कम 2 सप्ताह तक कलाई, हथेलियों और प्रभावित हाथ और कलाई की मालिश करें
-वाइब्रेटिंग टूल्स के साथ एंटी-वाइब्रेशन उत्पादों का उपयोग
-मीडियन नर्व को आराम देने के लिए रिस्ट स्प्लिंट या ब्रेस पहनें
-हाथों, उंगलियों और कलाई के लिए कोमल स्ट्रेचिंग व्यायाम करें
-कलाई, हथेलियों और हाथों के पिछले हिस्से की मालिश करें
-हाथों और कलाइयों की सुरक्षा के लिए वर्क ग्लव्स पहनें
-दर्द कम करने में मदद के लिए कलाई पर गर्माहट लगाएं
-आइस पैक का उपयोग करें, जो सूजन को कम करने में भी मदद कर सकता है
-अधिक आरामदायक पकड़ के लिए उपकरण और बर्तन के हैंडल में अतिरिक्त सामग्री जोड़ें
-ओवर-द-काउंटर (OTC) दर्द निवारक, जैसे इबुप्रोफेन या नेप्रोक्सन लें</t>
-  </si>
-  <si>
-    <t>**Maintain a healthy weight.** Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
-**Stop smoking.** Smoking decreases the lower esophageal sphincter's ability to function properly.
-**Elevate the head of your bed.** If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches.
-https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg.webp
-**Start on your left side.** When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
-**Don't lie down after a meal.** Wait at least three hours after eating before lying down or going to bed.
-**Eat food slowly and chew thoroughly.** Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
-**Avoid foods and drinks that trigger reflux.** Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
-https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
-**Avoid tight-fitting clothing.** Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
-  </si>
-  <si>
-    <t>**Rest.** This will help your body fight infection and speed recovery.
-**Drink fluids.** Continue to drink plenty of fluids.
-**Use a warm compress.** A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
-**Moisten your sinus cavities.** Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
-Rinse your nasal passages: Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.
-https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
-  </si>
-  <si>
-    <t>**Wash problem areas with a gentle cleanser.** Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. (https://www.1mg.com/categories/personal-care/skin-care/acne-care-206)
-**Use Tea tree oil.** For acne prone skin mix 2 drops of tea tree oil with 1 tsp coconut oil and apply using a cotton ball to the affected area and wash after 30 mins. (https://www.amazon.in/Old-Tree-Essential-Skin-Hair/dp/B01LF0AXOG?th=1)
-**Avoid irritants.** Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
-**Avoid touching or picking acne-prone areas.** Doing so can trigger more acne or lead to infection or scarring.
-**Shower after strenuous activities.** Oil and sweat on your skin can lead to breakouts.</t>
-  </si>
-  <si>
-    <t>**Honey And Lemon.** Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
-**Fenugreek.** Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
-**Onions.** Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
-**Garlic.** Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
-**Hibiscus And Dandelion Oil.** A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
-**Oatmeal.** Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
-**Aloe Vera Extract.** Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
-https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
+    <t>प्रभावित हाथ और कलाई को कम से कम 2 सप्ताह के लिए आराम करें
+वाइब्रेटिंग टूल के साथ एंटी-वाइब्रेशन उत्पादों का उपयोग
+मध्ययुगीन तंत्रिका को आराम करने के लिए कलाई की छींटाकशी या ब्रेस पहनें
+हाथों, उंगलियों और कलाई के लिए कोमल स्ट्रेचिंग अभ्यास करें
+कम से कम 2 सप्ताह के लिए कलाई, हथेलियों और प्रभावित हाथ और कलाई की मालिश करें
+वाइब्रेटिंग टूल के साथ एंटी-वाइब्रेशन उत्पादों का उपयोग
+मध्ययुगीन तंत्रिका को आराम करने के लिए कलाई की छींटाकशी या ब्रेस पहनें
+हाथों, उंगलियों और कलाई के लिए कोमल स्ट्रेचिंग अभ्यास करें
+कलाई, हथेलियों और हाथों के पीछे की मालिश करें
+हाथों और कलाई की रक्षा के लिए काम के दस्ताने पहनें
+दर्द को कम करने में मदद करने के लिए कलाई पर गर्मी लागू करें
+एक आइस पैक का उपयोग करें, जो सूजन को कम करने में भी मदद कर सकता है
+अधिक आरामदायक पकड़ के लिए उपकरण और बर्तन हैंडल में अतिरिक्त सामग्री जोड़ें
+ओवर-द-काउंटर (ओटीसी) दर्द निवारक, जैसे कि इबुप्रोफेन या नेप्रोक्सन लें</t>
   </si>
   <si>
     <t>**Brush your teeth after you eat.** Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
@@ -6231,159 +6279,30 @@
 **Clean dentures or dental appliances.** If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
 **Avoid dry mouth.** To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
 **Adjust your diet.** Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
-Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
+**Regularly get a new toothbrush.** Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
 **Schedule regular dental checkups.** See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
   </si>
   <si>
-    <t>**Use a cool compress.** Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
-Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
-**Don't smoke.** Smoking can aggravate the problem of bags under your eyes.
-**Get enough sleep.** For most adults, 7 to 9 hours is a good amount of sleep.
-**Sleep with your head slightly raised.** It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.</t>
-  </si>
-  <si>
-    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
-**Aloe vera** is a plant-based gel that naturally soothes and moisturizes the skin. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
-**Honey** contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. Do this indoors, so the smell of the honey does not attract more bees :)</t>
-  </si>
-  <si>
-    <t>**Bathe daily.** Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
-**Choose clothing to suit your activity.** For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
-**Try relaxation techniques.** Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
-**Change your diet.** Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
-  </si>
-  <si>
-    <t>**Soak your hands or feet.** Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
-**Use corn pads.**
-**Moisturize your skin.** Use moisturizer on your hands and feet regularly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Oil pulling.** Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.
-**Sugar-free gum.** Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
-**Vitamin D.** Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
-**Brush with fluoride toothpaste.** Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
-**Cut out sugary foods.** This is the cavity remedy that no one likes to hear — stop eating so much sugar. </t>
-  </si>
-  <si>
-    <t>**Stick to your treatment plan.** Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
-**Learn about depression.** Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
-**Pay attention to warning signs.** Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
-**Avoid alcohol and recreational drugs.** It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
-**Take care of yourself.** Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Soothe a sore throat.** A saltwater gargle of 1/4 to 1/2 teaspoon of table salt in 120 to 240 milliliters of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
-https://www.deccanherald.com/sites/dh/files/article_images/2020/05/06/iStock-1204965485-1588785970.jpg
-**Try saline nasal drops or sprays.** Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. In infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. For older children, use a saline nasal spray or saline nasal irrigation.
-**Drink plenty of fluids.** Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
-**Sip warm liquids.** Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
-**Rest.** If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
-</t>
-  </si>
-  <si>
-    <t>**Try colonic massage.** Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
-**Try natural remedies.** Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studies noting increased stool frequency after taking these supplements.
-**Eat foods for constipation relief.** Eating foods that are high in fiber can help you find relief from constipation. Foods that are high in fiber can include: oats, whole grain bread or cereal, whole wheat pasta, fibrous fruits, such as apples and bananas, fibrous vegetables, such as broccoli, carrots, and leafy greens, brown rice, nuts, such as walnuts, pecans, and almonds.
-**Drink a glass of water.** Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 liters of clear liquid per day.
-**Get some exercise.** Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.</t>
-  </si>
-  <si>
-    <t>**Apple Cider Vinegar.** Add some apple cider vinegar to water (Equal parts) and keep it aside. After washing your hair, apply the mix to your wet hair. Gently massage your hair with the mix. Leave to dry for 15 minutes and then rinse it off.
-**Mehndi.** Firstly, mix mehndi with curd and a little bit of lemon juice. Once this is formed as a paste, keep the mixture aside for 8 hours. After 8 hours you can apply it on your hair. Let it dry over your hair for two hours and then you can wash it away.
-**Eat a healthy diet.** A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
-**Learn to manage stress.** Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
-**Limit hair-styling products.** Hair-styling products can build up on your hair and scalp, making them oilier.</t>
-  </si>
-  <si>
-    <t>**Drink Sufficient Water.** Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps.
-**Juice of Papaya Leaves.** Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. All you need to do is crush the leaves and strain the juice from the crushed leaves.
-**Chew Basil Leaves.** Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
-**Neem Leaves.** Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
-**Orange Juice.** Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. It promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body.</t>
-  </si>
-  <si>
-    <t>**Drink plenty of liquids**, including water, broths and juices. Avoid caffeine and alcohol.
-Add **semisolid and low-fiber foods** gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
-**Avoid certain foods** such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
-**Consider taking probiotics.** These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
-  </si>
-  <si>
-    <t>**Apply a moisturizer, lotion or gel.** An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
-**Drink extra water for a day.** This helps prevent dehydration.
-**Leave blisters alone.** An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
-**Treat peeling skin gently.** Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
-**Treat sunburned eyes.** Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
-**Protect yourself from further sun exposure.** While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.</t>
-  </si>
-  <si>
-    <t>**Apply a compress to your eyes.** To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
-If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
-**Try eyedrops.** Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
-**Stop wearing contact lenses.** If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Apply a lotion, cream or paste</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.** Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch.  Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Apply a cool compress</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.** Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.</t>
-    </r>
-  </si>
-  <si>
-    <t>**Exercise regularly.** Physical activity, including sex, helps ease menstrual cramps for some women.
-**Yoga.** Certain yoga poses can help relieve the pain.
-https://medhyaherbals.com/wp-content/uploads/2022/04/Yoga-for-Period-Pain-Relief-min-683x1024.png
-**Use heat.** Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
-**Reduce stress.** Psychological stress might increase your risk of menstrual cramps and their severity.</t>
-  </si>
-  <si>
-    <t>**Tea tree oil.** Tea tree oil is a popular home remedy for many skin conditions because of its antimicrobial properties.
-**Anise oil.** Anise oil may coat and suffocate liceTrusted Source. A 2018 study of natural remedies for lice in children found that anise oil was one of the most effective natural remedies.
-**Coconut oil.** Research has shown that applying pure coconut oil killed an average of 80% of the head lice within 4 hours of applying the oil.</t>
+    <t>** खाने के बाद अपने दांतों को ब्रश करें। ** खाने के बाद उपयोग करने के लिए काम पर एक टूथब्रश रखें।एक फ्लोराइड युक्त टूथपेस्ट का उपयोग करके ब्रश दिन में कम से कम दो बार, खासकर भोजन के बाद।जीवाणुरोधी गुणों के साथ टूथपेस्ट को खराब सांस की गंध को कम करने के लिए दिखाया गया है।
+** दिन में कम से कम एक बार फ्लॉस करें। ** उचित फ्लॉसिंग आपके दांतों के बीच से भोजन के कणों और पट्टिका को हटा देता है, जिससे खराब सांस को नियंत्रित करने में मदद मिलती है।
+** अपनी जीभ को ब्रश करें। ** आपकी जीभ बैक्टीरिया को परेशान करती है, इसलिए ध्यान से ब्रश करने से यह गंध कम हो सकता है।जिन लोगों के पास बैक्टीरिया के एक महत्वपूर्ण अतिवृद्धि से एक लेपित जीभ होती है (धूम्रपान या शुष्क मुंह से, उदाहरण के लिए) जीभ के खुरचनी का उपयोग करने से लाभ हो सकता है।या एक टूथब्रश का उपयोग करें जिसमें एक अंतर्निहित जीभ क्लीनर हो।
+** स्वच्छ डेन्चर या दंत उपकरण। ** यदि आप एक पुल या एक डेंचर पहनते हैं, तो इसे दिन में कम से कम एक बार या अपने दंत चिकित्सक द्वारा निर्देशित के रूप में अच्छी तरह से साफ करें।यदि आपके पास एक डेंटल रिटेनर या माउथ गार्ड है, तो इसे हर बार अपने मुंह में डालने से पहले इसे साफ करें।आपका दंत चिकित्सक सर्वश्रेष्ठ सफाई उत्पाद की सिफारिश कर सकता है।
+** शुष्क मुंह से बचें। ** अपने मुंह को नम रखने के लिए, तंबाकू से बचें और कॉफी, शीतल पेय या शराब न करने से बहुत सारे पानी पीएं, जिससे एक सूखा मुंह हो सकता है।लार को उत्तेजित करने के लिए गम चबाने या कैंडी (अधिमानतः चीनी रहित) को चूसें।क्रोनिक शुष्क मुंह के लिए, आपका दंत चिकित्सक या चिकित्सक एक कृत्रिम लार की तैयारी या एक मौखिक दवा को लिख सकता है जो लार के प्रवाह को उत्तेजित करता है।
+** अपने आहार को समायोजित करें। ** प्याज और लहसुन जैसे खाद्य पदार्थों से बचें जो खराब सांस ले सकते हैं।बहुत सारे शर्करा वाले खाद्य पदार्थों को खाने से भी सांस ली जाती है।
+** नियमित रूप से एक नया टूथब्रश प्राप्त करें। ** अपने टूथब्रश को बदलें जब यह हर तीन से चार महीनों के बारे में, और एक नरम-ब्रिसल्ड टूथब्रश चुनें।
+** नियमित रूप से दंत चिकित्सा चेकअप शेड्यूल करें। ** अपने दंत चिकित्सक को नियमित रूप से एक वर्ष में दो बार अपने दांतों या डेन्चर की जांच और साफ करने के लिए देखें।</t>
+  </si>
+  <si>
+    <t>** Tea tree oil ** Tea tree oil अपने रोगाणुरोधी गुणों के कारण कई त्वचा की स्थिति के लिए एक लोकप्रिय घरेलू उपाय है।
+** Anise Oil ** Anise Oil कोट कर सकते हैं और लाइसेंस प्राप्त स्रोत का दम घुट सकते हैं।बच्चों में जूँ के लिए प्राकृतिक उपचार के 2018 के अध्ययन में पाया गया कि अनीस तेल सबसे प्रभावी प्राकृतिक उपचारों में से एक था।
+** नारियल तेल ** अनुसंधान ने दिखाया है कि शुद्ध नारियल तेल लगाने से तेल लगाने के 4 घंटे के भीतर औसतन 80% सिर के जूँ की मौत हो गई।</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6394,17 +6313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6439,31 +6348,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6477,10 +6377,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6526,7 +6422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6558,27 +6454,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6610,24 +6488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6806,21 +6666,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="83.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6851,1355 +6713,1310 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K2" t="s">
-        <v>350</v>
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K3" t="s">
-        <v>351</v>
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K4" t="s">
-        <v>352</v>
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="360" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="K6" t="s">
-        <v>354</v>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K7" t="s">
-        <v>355</v>
+        <v>67</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K8" t="s">
-        <v>356</v>
+        <v>74</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K9" t="s">
-        <v>357</v>
+        <v>83</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K10" t="s">
-        <v>358</v>
+        <v>92</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" t="s">
-        <v>209</v>
-      </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K11" t="s">
-        <v>359</v>
+        <v>102</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K12" t="s">
-        <v>360</v>
+        <v>112</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="288" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>125</v>
       </c>
-      <c r="F13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K14" t="s">
-        <v>362</v>
+        <v>133</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K15" t="s">
-        <v>363</v>
+        <v>142</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K16" t="s">
-        <v>364</v>
+        <v>151</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>300</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="K17" t="s">
-        <v>365</v>
+        <v>160</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K18" t="s">
-        <v>366</v>
+        <v>169</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>302</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K19" t="s">
-        <v>367</v>
+        <v>178</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K20" t="s">
-        <v>368</v>
+        <v>187</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K21" t="s">
-        <v>369</v>
+        <v>196</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>305</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="K22" t="s">
-        <v>370</v>
+        <v>205</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>135</v>
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
-      </c>
-      <c r="J23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="K23" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" t="s">
         <v>222</v>
       </c>
-      <c r="H24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I24" t="s">
-        <v>307</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K24" t="s">
-        <v>372</v>
+      <c r="J24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>137</v>
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="I25" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="K25" t="s">
-        <v>373</v>
+        <v>231</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>235</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K26" t="s">
-        <v>374</v>
+        <v>240</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>139</v>
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K27" t="s">
-        <v>375</v>
+        <v>249</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>253</v>
+      </c>
+      <c r="E28" t="s">
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I28" t="s">
-        <v>311</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K28" t="s">
-        <v>376</v>
+      <c r="K29" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I29" t="s">
-        <v>312</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>142</v>
+        <v>271</v>
+      </c>
+      <c r="E30" t="s">
+        <v>272</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="H30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K30" t="s">
-        <v>378</v>
+        <v>276</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>280</v>
+      </c>
+      <c r="E31" t="s">
+        <v>281</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="H31" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K31" t="s">
-        <v>379</v>
+        <v>285</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>144</v>
+        <v>290</v>
+      </c>
+      <c r="E32" t="s">
+        <v>291</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="K32" t="s">
-        <v>380</v>
+        <v>295</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>299</v>
+      </c>
+      <c r="E33" t="s">
+        <v>300</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="H33" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>316</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K33" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="288" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" t="s">
-        <v>232</v>
-      </c>
-      <c r="H34" t="s">
-        <v>274</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="B35" t="s">
         <v>317</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K34" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>147</v>
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
+        <v>319</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="H35" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" t="s">
-        <v>383</v>
+        <v>323</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>148</v>
+        <v>327</v>
+      </c>
+      <c r="E36" t="s">
+        <v>328</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K36" t="s">
-        <v>384</v>
+        <v>332</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>337</v>
+      </c>
+      <c r="E37" t="s">
+        <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="H37" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K37" t="s">
-        <v>385</v>
+        <v>342</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>346</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="E38" t="s">
+        <v>348</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="H38" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K38" t="s">
-        <v>386</v>
+        <v>352</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>151</v>
+        <v>357</v>
+      </c>
+      <c r="E39" t="s">
+        <v>358</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="I39" t="s">
-        <v>322</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="K39" t="s">
-        <v>387</v>
+        <v>362</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>368</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>369</v>
       </c>
       <c r="H40" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="I40" t="s">
-        <v>323</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="K40" t="s">
-        <v>388</v>
+        <v>371</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>153</v>
+        <v>375</v>
+      </c>
+      <c r="E41" t="s">
+        <v>376</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="H41" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K41" t="s">
-        <v>389</v>
+        <v>380</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>154</v>
+        <v>385</v>
+      </c>
+      <c r="E42" t="s">
+        <v>386</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>387</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K42" t="s">
         <v>390</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>394</v>
+      </c>
+      <c r="E43" t="s">
+        <v>395</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="H43" t="s">
-        <v>283</v>
+        <v>398</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K43" t="s">
-        <v>391</v>
+        <v>399</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>156</v>
+        <v>403</v>
+      </c>
+      <c r="E44" t="s">
+        <v>404</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>406</v>
       </c>
       <c r="H44" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K44" t="s">
-        <v>392</v>
+        <v>408</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>